--- a/data/wofost81/output/example_output_endtime.xlsx
+++ b/data/wofost81/output/example_output_endtime.xlsx
@@ -4740,7 +4740,7 @@
         <v>6.692254434677304</v>
       </c>
       <c r="N48" t="n">
-        <v>0.22</v>
+        <v>0.02</v>
       </c>
       <c r="O48" t="n">
         <v>0.02678317299336893</v>
@@ -4829,7 +4829,7 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>[0.28119568 0.24735526 0.2518694  0.18199833]</t>
+          <t>[0.27319568 0.24735526 0.2518694  0.18199833]</t>
         </is>
       </c>
       <c r="L49" t="n">
@@ -4839,10 +4839,10 @@
         <v>6.88689250423259</v>
       </c>
       <c r="N49" t="n">
-        <v>0.17</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="O49" t="n">
-        <v>0.2490856860565546</v>
+        <v>0.04908568605655463</v>
       </c>
       <c r="P49" t="n">
         <v>0.05690962804814671</v>
@@ -4854,7 +4854,7 @@
         <v>0.1485511942252488</v>
       </c>
       <c r="S49" t="n">
-        <v>168.875576962588</v>
+        <v>168.6030359595942</v>
       </c>
       <c r="T49" t="n">
         <v>1.455316881315192</v>
@@ -4873,18 +4873,18 @@
       </c>
       <c r="Y49" t="inlineStr">
         <is>
-          <t>[ 7.0298919   3.71032887  5.03738801 10.91989988]</t>
+          <t>[ 6.8298919   3.71032887  5.03738801 10.91989988]</t>
         </is>
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>[np.float64(0.0006977262310828623) np.float64(6.654358008638044e-06)
+          <t>[np.float64(0.0006955299130873612) np.float64(6.654358008638044e-06)
  np.float64(4.6430109624524935e-06) np.float64(1.9842615238466584e-09)]</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
         <is>
-          <t>[np.float64(0.019901697441077854) np.float64(1.380001124157162e-05)
+          <t>[np.float64(0.019874000237701958) np.float64(1.380001124157162e-05)
  np.float64(9.643596799825419e-06) np.float64(9.094751939641575e-09)]</t>
         </is>
       </c>
@@ -4928,7 +4928,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>[0.27642614 0.24752788 0.25137903 0.18183935]</t>
+          <t>[0.27286992 0.24678824 0.25137903 0.18183935]</t>
         </is>
       </c>
       <c r="L50" t="n">
@@ -4938,22 +4938,22 @@
         <v>7.057614822951352</v>
       </c>
       <c r="N50" t="n">
-        <v>0.17</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="O50" t="n">
-        <v>0.1989652200098421</v>
+        <v>0.09896522000984212</v>
       </c>
       <c r="P50" t="n">
         <v>0.07061820609640417</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.3819407549827948</v>
+        <v>0.1819407549827948</v>
       </c>
       <c r="R50" t="n">
         <v>0.2054608222733955</v>
       </c>
       <c r="S50" t="n">
-        <v>176.5826743405616</v>
+        <v>178.2670544620976</v>
       </c>
       <c r="T50" t="n">
         <v>1.727121685834878</v>
@@ -4972,18 +4972,18 @@
       </c>
       <c r="Y50" t="inlineStr">
         <is>
-          <t>[ 6.9106536   3.71291819  5.02758065 10.91036092]</t>
+          <t>[ 6.82174812  3.70182366  5.02758065 10.91036092]</t>
         </is>
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>[np.float64(0.000514446309933849) np.float64(6.664592391919895e-06)
+          <t>[np.float64(0.0005149686991950378) np.float64(6.659829223003363e-06)
  np.float64(4.646192195698963e-06) np.float64(1.896102962749271e-09)]</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
         <is>
-          <t>[np.float64(0.019737907974366035) np.float64(1.4305153047288374e-05)
+          <t>[np.float64(0.01992880067955451) np.float64(1.4262299613445915e-05)
  np.float64(9.97398007800656e-06) np.float64(9.17459296370137e-09)]</t>
         </is>
       </c>
@@ -5027,7 +5027,7 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>[0.27338586 0.24705645 0.251042   0.18167661]</t>
+          <t>[0.2699918  0.24625787 0.25088351 0.18167661]</t>
         </is>
       </c>
       <c r="L51" t="n">
@@ -5040,19 +5040,19 @@
         <v>0.08</v>
       </c>
       <c r="O51" t="n">
-        <v>0.2028620194472961</v>
+        <v>0.1028620194472961</v>
       </c>
       <c r="P51" t="n">
         <v>0.1012268435664967</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.5809059749926369</v>
+        <v>0.2809059749926369</v>
       </c>
       <c r="R51" t="n">
         <v>0.2760790283697996</v>
       </c>
       <c r="S51" t="n">
-        <v>185.0059131478838</v>
+        <v>186.7175301137532</v>
       </c>
       <c r="T51" t="n">
         <v>1.976147498680955</v>
@@ -5071,19 +5071,19 @@
       </c>
       <c r="Y51" t="inlineStr">
         <is>
-          <t>[ 6.8346465   3.7058468   5.02083999 10.90059664]</t>
+          <t>[ 6.74979508  3.69386808  5.01767013 10.90059664]</t>
         </is>
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>[np.float64(0.00035906195767569974) np.float64(6.6210019595639035e-06)
- np.float64(4.616683293008282e-06) np.float64(1.7974785931780062e-09)]</t>
+          <t>[np.float64(0.0003601608133320135) np.float64(6.6179520633434755e-06)
+ np.float64(4.615997561095954e-06) np.float64(1.7974785931780062e-09)]</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
         <is>
-          <t>[np.float64(0.019663430715557935) np.float64(1.4870023710132473e-05)
- np.float64(1.0372227247810821e-05) np.float64(9.26463103571468e-09)]</t>
+          <t>[np.float64(0.01984689657863849) np.float64(1.4814674272440856e-05)
+ np.float64(1.0365666077311735e-05) np.float64(9.26463103571468e-09)]</t>
         </is>
       </c>
       <c r="AB51" t="n">
@@ -5126,7 +5126,7 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>[0.26551163 0.24637964 0.25068278 0.18151167]</t>
+          <t>[0.26626794 0.24551332 0.25039185 0.18151009]</t>
         </is>
       </c>
       <c r="L52" t="n">
@@ -5145,13 +5145,13 @@
         <v>0.1186490639314271</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.7837679944399329</v>
+        <v>0.383767994439933</v>
       </c>
       <c r="R52" t="n">
         <v>0.3773058719362964</v>
       </c>
       <c r="S52" t="n">
-        <v>189.9670742285513</v>
+        <v>194.5801526153124</v>
       </c>
       <c r="T52" t="n">
         <v>2.38967051054974</v>
@@ -5170,23 +5170,23 @@
       </c>
       <c r="Y52" t="inlineStr">
         <is>
-          <t>[ 6.63779081  3.69569454  5.01365561 10.89070011]</t>
+          <t>[ 6.65669861  3.68269984  5.00783709 10.89060553]</t>
         </is>
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>[np.float64(0.00025661607206357677) np.float64(6.6684399396099684e-06)
- np.float64(4.650718623435372e-06) np.float64(1.7289581424382987e-09)]</t>
+          <t>[np.float64(0.00025955563815965724) np.float64(6.666407269955506e-06)
+ np.float64(4.649717449751542e-06) np.float64(1.7289554639695488e-09)]</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
         <is>
-          <t>[np.float64(0.019234103038909683) np.float64(1.5248778158395781e-05)
- np.float64(1.0650721481417563e-05) np.float64(9.324398010180003e-09)]</t>
+          <t>[np.float64(0.01970194436859666) np.float64(1.5181743858225437e-05)
+ np.float64(1.0638038841658685e-05) np.float64(9.324317033912087e-09)]</t>
         </is>
       </c>
       <c r="AB52" t="n">
-        <v>5.792003727320224e-06</v>
+        <v>5.792840274686879e-06</v>
       </c>
       <c r="AC52" t="n">
         <v>9.337485981455552</v>
@@ -5225,7 +5225,7 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>[0.26102048 0.2451191  0.25026273 0.18134432]</t>
+          <t>[0.26169372 0.24455565 0.24985716 0.18133986]</t>
         </is>
       </c>
       <c r="L53" t="n">
@@ -5244,13 +5244,13 @@
         <v>0.1500279479754719</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.8947476866299917</v>
+        <v>0.4947476866299918</v>
       </c>
       <c r="R53" t="n">
         <v>0.4959549358677234</v>
       </c>
       <c r="S53" t="n">
-        <v>190.4810426398512</v>
+        <v>195.1576926334986</v>
       </c>
       <c r="T53" t="n">
         <v>2.892574023157102</v>
@@ -5269,23 +5269,23 @@
       </c>
       <c r="Y53" t="inlineStr">
         <is>
-          <t>[ 6.52551212  3.67678652  5.00525463 10.88065904]</t>
+          <t>[ 6.54234295  3.66833473  4.9971431  10.88039152]</t>
         </is>
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>[np.float64(0.0001865318799249849) np.float64(6.685577149045075e-06)
- np.float64(4.665617298764043e-06) np.float64(1.6565222877645114e-09)]</t>
+          <t>[np.float64(0.00018828109984373413) np.float64(6.687349935606659e-06)
+ np.float64(4.664634486677196e-06) np.float64(1.6565168752462699e-09)]</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
         <is>
-          <t>[np.float64(0.018995854734633243) np.float64(1.5633494424776363e-05)
- np.float64(1.0959298526957928e-05) np.float64(9.387897874040899e-09)]</t>
+          <t>[np.float64(0.01946294463904456) np.float64(1.5578473236797293e-05)
+ np.float64(1.0940649162114016e-05) np.float64(9.387665726948966e-09)]</t>
         </is>
       </c>
       <c r="AB53" t="n">
-        <v>5.881363635449152e-06</v>
+        <v>5.88373923155088e-06</v>
       </c>
       <c r="AC53" t="n">
         <v>11.72715649200529</v>
@@ -5324,7 +5324,7 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>[0.25570799 0.24347307 0.24967157 0.18117397]</t>
+          <t>[0.25631713 0.24306155 0.24924417 0.18116551]</t>
         </is>
       </c>
       <c r="L54" t="n">
@@ -5343,13 +5343,13 @@
         <v>0.1717247895173912</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.00426663683846</v>
+        <v>0.6042666368384604</v>
       </c>
       <c r="R54" t="n">
         <v>0.6459828838431954</v>
       </c>
       <c r="S54" t="n">
-        <v>187.3094585688512</v>
+        <v>191.9722257370105</v>
       </c>
       <c r="T54" t="n">
         <v>3.409228989654852</v>
@@ -5368,23 +5368,23 @@
       </c>
       <c r="Y54" t="inlineStr">
         <is>
-          <t>[ 6.39269977  3.6520961   4.9934314  10.87043814]</t>
+          <t>[ 6.40792827  3.64592325  4.98488339 10.86993049]</t>
         </is>
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>[np.float64(0.00013903667235318342) np.float64(6.631573106740889e-06)
- np.float64(4.628822560991749e-06) np.float64(1.5684229170669962e-09)]</t>
+          <t>[np.float64(0.00014002481219339155) np.float64(6.635871566812454e-06)
+ np.float64(4.628650986391272e-06) np.float64(1.568418001670111e-09)]</t>
         </is>
       </c>
       <c r="AA54" t="inlineStr">
         <is>
-          <t>[np.float64(0.018690892159739524) np.float64(1.6136312368736996e-05)
- np.float64(1.1354233406617938e-05) np.float64(9.466833417641611e-09)]</t>
+          <t>[np.float64(0.019156841635136937) np.float64(1.6088423988723426e-05)
+ np.float64(1.133308768528226e-05) np.float64(9.466385478193971e-09)]</t>
         </is>
       </c>
       <c r="AB54" t="n">
-        <v>5.973001906417173e-06</v>
+        <v>5.977530454862422e-06</v>
       </c>
       <c r="AC54" t="n">
         <v>14.6197305151624</v>
@@ -5423,7 +5423,7 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>[0.25003109 0.2416001  0.2488684  0.18099894]</t>
+          <t>[0.25063218 0.24119746 0.24845697 0.18098629]</t>
         </is>
       </c>
       <c r="L55" t="n">
@@ -5433,7 +5433,7 @@
         <v>7.931638006979861</v>
       </c>
       <c r="N55" t="n">
-        <v>0.17</v>
+        <v>0.04</v>
       </c>
       <c r="O55" t="n">
         <v>0.1048678541455056</v>
@@ -5442,13 +5442,13 @@
         <v>0.2167305563884873</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.109123905199399</v>
+        <v>0.7091239051993987</v>
       </c>
       <c r="R55" t="n">
         <v>0.8177076733605866</v>
       </c>
       <c r="S55" t="n">
-        <v>183.6184822884542</v>
+        <v>188.2677689090525</v>
       </c>
       <c r="T55" t="n">
         <v>3.947316468413689</v>
@@ -5467,23 +5467,23 @@
       </c>
       <c r="Y55" t="inlineStr">
         <is>
-          <t>[ 6.2507773   3.6240015   4.97736797 10.85993658]</t>
+          <t>[ 6.26580452  3.61796189  4.96913948 10.85917747]</t>
         </is>
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>[np.float64(0.00010938281798513739) np.float64(6.627306319665492e-06)
- np.float64(4.6228700027930656e-06) np.float64(1.4949514215200732e-09)]</t>
+          <t>[np.float64(0.0001099411143470881) np.float64(6.632524077687252e-06)
+ np.float64(4.6235298011906255e-06) np.float64(1.4949507021507872e-09)]</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
         <is>
-          <t>[np.float64(0.018328811897484493) np.float64(1.6561685187592495e-05)
- np.float64(1.1680544005097967e-05) np.float64(9.530831316602635e-09)]</t>
+          <t>[np.float64(0.018793550363961145) np.float64(1.6513916285992074e-05)
+ np.float64(1.1658748717583164e-05) np.float64(9.530152341755704e-09)]</t>
         </is>
       </c>
       <c r="AB55" t="n">
-        <v>6.067737872276166e-06</v>
+        <v>6.074534814438325e-06</v>
       </c>
       <c r="AC55" t="n">
         <v>18.02895950481725</v>
@@ -5522,7 +5522,7 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>[0.24660615 0.23927843 0.24785624 0.18081716]</t>
+          <t>[0.24197514 0.23892677 0.24745871 0.18080051]</t>
         </is>
       </c>
       <c r="L56" t="n">
@@ -5532,22 +5532,22 @@
         <v>8.149867611222133</v>
       </c>
       <c r="N56" t="n">
-        <v>0.29</v>
+        <v>0.02</v>
       </c>
       <c r="O56" t="n">
-        <v>0.1923361994173486</v>
+        <v>0.06233619941734861</v>
       </c>
       <c r="P56" t="n">
         <v>0.255450524274318</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.213991759344904</v>
+        <v>0.8139917593449043</v>
       </c>
       <c r="R56" t="n">
         <v>1.034438229749074</v>
       </c>
       <c r="S56" t="n">
-        <v>180.1054305070911</v>
+        <v>182.7877595107434</v>
       </c>
       <c r="T56" t="n">
         <v>4.625398918000061</v>
@@ -5566,23 +5566,23 @@
       </c>
       <c r="Y56" t="inlineStr">
         <is>
-          <t>[ 6.16515377  3.58917647  4.95712488 10.84902983]</t>
+          <t>[ 6.04937858  3.58390162  4.94917419 10.84803055]</t>
         </is>
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>[np.float64(9.209653021974563e-05) np.float64(6.504590706878008e-06)
- np.float64(4.527433017534413e-06) np.float64(1.3919580708556668e-09)]</t>
+          <t>[np.float64(9.081167566835179e-05) np.float64(6.511294101050267e-06)
+ np.float64(4.529168314833805e-06) np.float64(1.3919732480083252e-09)]</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
         <is>
-          <t>[np.float64(0.017980724928538618) np.float64(1.725001782775538e-05)
- np.float64(1.21749441810612e-05) np.float64(9.623900712905368e-09)]</t>
+          <t>[np.float64(0.01824964328043504) np.float64(1.720503696191805e-05)
+ np.float64(1.2152185563617679e-05) np.float64(9.622987345913537e-09)]</t>
         </is>
       </c>
       <c r="AB56" t="n">
-        <v>6.166977415892897e-06</v>
+        <v>6.175959314284613e-06</v>
       </c>
       <c r="AC56" t="n">
         <v>21.97627597323094</v>
@@ -5621,7 +5621,7 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>[0.2434     0.23655371 0.24658983 0.1806266 ]</t>
+          <t>[0.23318507 0.23616215 0.24621364 0.18060611]</t>
         </is>
       </c>
       <c r="L57" t="n">
@@ -5631,22 +5631,22 @@
         <v>8.419523234761524</v>
       </c>
       <c r="N57" t="n">
-        <v>0.25</v>
+        <v>0.03</v>
       </c>
       <c r="O57" t="n">
-        <v>0.2481160423869903</v>
+        <v>0.03650459520759917</v>
       </c>
       <c r="P57" t="n">
         <v>0.2540847900413074</v>
       </c>
       <c r="Q57" t="n">
-        <v>1.406327958762253</v>
+        <v>0.8763279587622529</v>
       </c>
       <c r="R57" t="n">
         <v>1.289888754023392</v>
       </c>
       <c r="S57" t="n">
-        <v>175.9503549033879</v>
+        <v>177.2579652747596</v>
       </c>
       <c r="T57" t="n">
         <v>5.434083668856679</v>
@@ -5665,23 +5665,23 @@
       </c>
       <c r="Y57" t="inlineStr">
         <is>
-          <t>[ 6.08499994  3.54830563  4.93179663 10.83759602]</t>
+          <t>[ 5.82962664  3.54243227  4.92427273 10.83636657]</t>
         </is>
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>[np.float64(8.502774117602535e-05) np.float64(6.343641503314439e-06)
- np.float64(4.395896296351412e-06) np.float64(1.2682829768565674e-09)]</t>
+          <t>[np.float64(8.205763680447943e-05) np.float64(6.351144177510665e-06)
+ np.float64(4.398819089180321e-06) np.float64(1.268325870738267e-09)]</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr">
         <is>
-          <t>[np.float64(0.01756547675175443) np.float64(1.8160591495503567e-05)
- np.float64(1.2799503330368298e-05) np.float64(9.73706533951535e-09)]</t>
+          <t>[np.float64(0.017697704861080334) np.float64(1.811221941455479e-05)
+ np.float64(1.2776125658003186e-05) np.float64(9.735912708233469e-09)]</t>
         </is>
       </c>
       <c r="AB57" t="n">
-        <v>6.272082089784069e-06</v>
+        <v>6.283179463785874e-06</v>
       </c>
       <c r="AC57" t="n">
         <v>26.601674891231</v>
@@ -5720,7 +5720,7 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>[0.23664242 0.23387041 0.24504468 0.18042479]</t>
+          <t>[0.22609941 0.2334708  0.24467598 0.1804007 ]</t>
         </is>
       </c>
       <c r="L58" t="n">
@@ -5730,22 +5730,22 @@
         <v>8.642755353134088</v>
       </c>
       <c r="N58" t="n">
-        <v>0.25</v>
+        <v>0.04</v>
       </c>
       <c r="O58" t="n">
-        <v>0.06604906081623697</v>
+        <v>0.03435518726414936</v>
       </c>
       <c r="P58" t="n">
         <v>0.09566177675187916</v>
       </c>
       <c r="Q58" t="n">
-        <v>1.654444001149243</v>
+        <v>0.9128325539698521</v>
       </c>
       <c r="R58" t="n">
         <v>1.543973544064699</v>
       </c>
       <c r="S58" t="n">
-        <v>170.9183673483828</v>
+        <v>171.9236862764116</v>
       </c>
       <c r="T58" t="n">
         <v>2.920606700085695</v>
@@ -5764,23 +5764,23 @@
       </c>
       <c r="Y58" t="inlineStr">
         <is>
-          <t>[ 5.91606049  3.5080562   4.90089354 10.82548716]</t>
+          <t>[ 5.65248525  3.50206207  4.89351962 10.8240419 ]</t>
         </is>
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>[np.float64(7.834778932517838e-05) np.float64(6.2734706820088035e-06)
- np.float64(4.3256539974457806e-06) np.float64(1.1784233605665865e-09)]</t>
+          <t>[np.float64(7.5473959704712e-05) np.float64(6.2818360956639975e-06)
+ np.float64(4.32925070840447e-06) np.float64(1.1784893995017336e-09)]</t>
         </is>
       </c>
       <c r="AA58" t="inlineStr">
         <is>
-          <t>[np.float64(0.01706257377418142) np.float64(1.885982556709936e-05)
- np.float64(1.323846796778276e-05) np.float64(9.815711600957978e-09)]</t>
+          <t>[np.float64(0.017164512154392457) np.float64(1.880984949333385e-05)
+ np.float64(1.3214246801957415e-05) np.float64(9.81433602442161e-09)]</t>
         </is>
       </c>
       <c r="AB58" t="n">
-        <v>6.3842156382576e-06</v>
+        <v>6.397311014269792e-06</v>
       </c>
       <c r="AC58" t="n">
         <v>32.03575856008768</v>
@@ -5819,7 +5819,7 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>[0.24237029 0.23340255 0.24329747 0.18020903]</t>
+          <t>[0.2246845  0.23302933 0.24293264 0.18018144]</t>
         </is>
       </c>
       <c r="L59" t="n">
@@ -5829,22 +5829,22 @@
         <v>8.787753205840053</v>
       </c>
       <c r="N59" t="n">
-        <v>0.13</v>
+        <v>0.04</v>
       </c>
       <c r="O59" t="n">
-        <v>0.08831199490815961</v>
+        <v>0.04577318842785193</v>
       </c>
       <c r="P59" t="n">
         <v>0.1240650863065865</v>
       </c>
       <c r="Q59" t="n">
-        <v>1.72049306196548</v>
+        <v>0.9471877412340014</v>
       </c>
       <c r="R59" t="n">
         <v>1.639635320816579</v>
       </c>
       <c r="S59" t="n">
-        <v>168.3334577332856</v>
+        <v>169.2328938234128</v>
       </c>
       <c r="T59" t="n">
         <v>4.339947439365768</v>
@@ -5863,23 +5863,23 @@
       </c>
       <c r="Y59" t="inlineStr">
         <is>
-          <t>[ 6.05925735  3.5010382   4.86594933 10.81254167]</t>
+          <t>[ 5.6171126   3.49543994  4.85865274 10.81088659]</t>
         </is>
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>[np.float64(7.156378524177334e-05) np.float64(6.4181409834111995e-06)
- np.float64(4.410827484305651e-06) np.float64(1.1436034836142222e-09)]</t>
+          <t>[np.float64(6.833654444178552e-05) np.float64(6.427022009694034e-06)
+ np.float64(4.4146335373775896e-06) np.float64(1.1436774537599951e-09)]</t>
         </is>
       </c>
       <c r="AA59" t="inlineStr">
         <is>
-          <t>[np.float64(0.016803713874759478) np.float64(1.911868256634624e-05)
- np.float64(1.3332797969767224e-05) np.float64(9.838509358798936e-09)]</t>
+          <t>[np.float64(0.01689550396941168) np.float64(1.9070250023126428e-05)
+ np.float64(1.3308005251798727e-05) np.float64(9.836931063588267e-09)]</t>
         </is>
       </c>
       <c r="AB59" t="n">
-        <v>6.504436829371668e-06</v>
+        <v>6.519480080020604e-06</v>
       </c>
       <c r="AC59" t="n">
         <v>34.95636526017337</v>
@@ -5918,7 +5918,7 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>[0.24161041 0.23200433 0.24187197 0.17997741]</t>
+          <t>[0.22203999 0.23161048 0.24151564 0.1799464 ]</t>
         </is>
       </c>
       <c r="L60" t="n">
@@ -5931,19 +5931,19 @@
         <v>0</v>
       </c>
       <c r="O60" t="n">
-        <v>0.1391807635487019</v>
+        <v>0.04918076354870189</v>
       </c>
       <c r="P60" t="n">
         <v>0.2537081700321514</v>
       </c>
       <c r="Q60" t="n">
-        <v>1.80880505687364</v>
+        <v>0.9929609296618533</v>
       </c>
       <c r="R60" t="n">
         <v>1.763700407123165</v>
       </c>
       <c r="S60" t="n">
-        <v>164.2449450936102</v>
+        <v>164.921157071853</v>
       </c>
       <c r="T60" t="n">
         <v>5.814914177750331</v>
@@ -5962,23 +5962,23 @@
       </c>
       <c r="Y60" t="inlineStr">
         <is>
-          <t>[ 6.04026028  3.48006499  4.83743932 10.79864488]</t>
+          <t>[ 5.55099984  3.47415717  4.83031281 10.79678377]</t>
         </is>
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>[np.float64(6.362730697304536e-05) np.float64(6.6122781568733496e-06)
- np.float64(4.536419846800326e-06) np.float64(1.1257387219980121e-09)]</t>
+          <t>[np.float64(6.157012488021963e-05) np.float64(6.621179708209561e-06)
+ np.float64(4.5403407038145835e-06) np.float64(1.1258158207594357e-09)]</t>
         </is>
       </c>
       <c r="AA60" t="inlineStr">
         <is>
-          <t>[np.float64(0.016395236626901996) np.float64(1.922197653020067e-05)
- np.float64(1.3335749579031857e-05) np.float64(9.843449937521259e-09)]</t>
+          <t>[np.float64(0.016464403882965804) np.float64(1.9171693164071978e-05)
+ np.float64(1.3310765643051412e-05) np.float64(9.841676976422736e-09)]</t>
         </is>
       </c>
       <c r="AB60" t="n">
-        <v>6.633678658310549e-06</v>
+        <v>6.650637281681515e-06</v>
       </c>
       <c r="AC60" t="n">
         <v>39.29631269953914</v>
@@ -6017,7 +6017,7 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>[0.2298839  0.22817525 0.24048994 0.17973326]</t>
+          <t>[0.21393364 0.22775852 0.24013555 0.17969891]</t>
         </is>
       </c>
       <c r="L61" t="n">
@@ -6036,13 +6036,13 @@
         <v>0.2346853130182636</v>
       </c>
       <c r="Q61" t="n">
-        <v>1.947985820422342</v>
+        <v>1.042141693210555</v>
       </c>
       <c r="R61" t="n">
         <v>2.017408577155317</v>
       </c>
       <c r="S61" t="n">
-        <v>154.9665826143004</v>
+        <v>157.8708850788446</v>
       </c>
       <c r="T61" t="n">
         <v>6.129618792871213</v>
@@ -6061,23 +6061,23 @@
       </c>
       <c r="Y61" t="inlineStr">
         <is>
-          <t>[ 5.74709743  3.42262876  4.80979886 10.78399548]</t>
+          <t>[ 5.34834098  3.41637779  4.80271102 10.78193486]</t>
         </is>
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>[np.float64(5.7469634027248666e-05) np.float64(6.767714692107744e-06)
- np.float64(4.632839139078263e-06) np.float64(1.0981664414760715e-09)]</t>
+          <t>[np.float64(5.753538988246639e-05) np.float64(6.776766291987391e-06)
+ np.float64(4.636929316483225e-06) np.float64(1.0982522328107879e-09)]</t>
         </is>
       </c>
       <c r="AA61" t="inlineStr">
         <is>
-          <t>[np.float64(0.015467726772119345) np.float64(1.9437638158216297e-05)
- np.float64(1.3411460244678385e-05) np.float64(9.857367611987086e-09)]</t>
+          <t>[np.float64(0.015758940239545435) np.float64(1.9384745152838348e-05)
+ np.float64(1.3385856912732558e-05) np.float64(9.855400088701649e-09)]</t>
         </is>
       </c>
       <c r="AB61" t="n">
-        <v>6.770224718871676e-06</v>
+        <v>6.789042038378868e-06</v>
       </c>
       <c r="AC61" t="n">
         <v>45.11122687728947</v>
@@ -6116,7 +6116,7 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>[0.22409676 0.22524544 0.23861962 0.17947708]</t>
+          <t>[0.2081661  0.22481385 0.23826172 0.17943945]</t>
         </is>
       </c>
       <c r="L62" t="n">
@@ -6135,13 +6135,13 @@
         <v>0.2438556289074763</v>
       </c>
       <c r="Q62" t="n">
-        <v>1.954703301757445</v>
+        <v>1.048859174545658</v>
       </c>
       <c r="R62" t="n">
         <v>2.25209389017358</v>
       </c>
       <c r="S62" t="n">
-        <v>148.8496448902506</v>
+        <v>151.7283656619656</v>
       </c>
       <c r="T62" t="n">
         <v>6.964904944020089</v>
@@ -6160,23 +6160,23 @@
       </c>
       <c r="Y62" t="inlineStr">
         <is>
-          <t>[ 5.60241907  3.37868158  4.77239237 10.76862472]</t>
+          <t>[ 5.20415262  3.37220778  4.7652343  10.76636716]</t>
         </is>
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>[np.float64(5.5814377661758716e-05) np.float64(6.850957295681121e-06)
- np.float64(4.6660960808011156e-06) np.float64(1.0549204530447704e-09)]</t>
+          <t>[np.float64(5.706154464945426e-05) np.float64(6.860577148603396e-06)
+ np.float64(4.67047336807075e-06) np.float64(1.0550242831016905e-09)]</t>
         </is>
       </c>
       <c r="AA62" t="inlineStr">
         <is>
-          <t>[np.float64(0.014854700613543229) np.float64(1.9868955541352945e-05)
- np.float64(1.3579267061034597e-05) np.float64(9.886236199919314e-09)]</t>
+          <t>[np.float64(0.015143074651392197) np.float64(1.98133214927701e-05)
+ np.float64(1.3552603232958517e-05) np.float64(9.884066527505245e-09)]</t>
         </is>
       </c>
       <c r="AB62" t="n">
-        <v>6.913998723862398e-06</v>
+        <v>6.934657147433883e-06</v>
       </c>
       <c r="AC62" t="n">
         <v>51.24084567016068</v>
@@ -6215,7 +6215,7 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>[0.21821161 0.22225869 0.23657264 0.1792041 ]</t>
+          <t>[0.20228975 0.22183348 0.23620883 0.17916318]</t>
         </is>
       </c>
       <c r="L63" t="n">
@@ -6234,13 +6234,13 @@
         <v>0.2416165328730277</v>
       </c>
       <c r="Q63" t="n">
-        <v>1.960095693914117</v>
+        <v>1.05425156670233</v>
       </c>
       <c r="R63" t="n">
         <v>2.495949519081056</v>
       </c>
       <c r="S63" t="n">
-        <v>141.9337372049319</v>
+        <v>144.7918543194905</v>
       </c>
       <c r="T63" t="n">
         <v>6.445721266012678</v>
@@ -6259,23 +6259,23 @@
       </c>
       <c r="Y63" t="inlineStr">
         <is>
-          <t>[ 5.45529016  3.33388038  4.73145288 10.7522463 ]</t>
+          <t>[ 5.05724385  3.32750223  4.72417667 10.74979109]</t>
         </is>
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>[np.float64(5.560257539544144e-05) np.float64(6.914319115034062e-06)
- np.float64(4.679389214374043e-06) np.float64(1.0083192558780857e-09)]</t>
+          <t>[np.float64(5.775658952536503e-05) np.float64(6.924843729232468e-06)
+ np.float64(4.684097789179714e-06) np.float64(1.0084446961651306e-09)]</t>
         </is>
       </c>
       <c r="AA63" t="inlineStr">
         <is>
-          <t>[np.float64(0.014161288384377168) np.float64(2.0380125687391076e-05)
- np.float64(1.3769481404166898e-05) np.float64(9.917459449352063e-09)]</t>
+          <t>[np.float64(0.014447414167014668) np.float64(2.032320335062619e-05)
+ np.float64(1.3741551349406254e-05) np.float64(9.915082719717466e-09)]</t>
         </is>
       </c>
       <c r="AB63" t="n">
-        <v>7.067778201201764e-06</v>
+        <v>7.090291094677277e-06</v>
       </c>
       <c r="AC63" t="n">
         <v>58.20575061418077</v>
@@ -6314,7 +6314,7 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>[0.21251442 0.21945897 0.23437959 0.1789127 ]</t>
+          <t>[0.19659466 0.21904782 0.23401261 0.17886845]</t>
         </is>
       </c>
       <c r="L64" t="n">
@@ -6333,13 +6333,13 @@
         <v>0.187046735345527</v>
       </c>
       <c r="Q64" t="n">
-        <v>1.964250064041206</v>
+        <v>1.058405936829419</v>
       </c>
       <c r="R64" t="n">
         <v>2.737566051954084</v>
       </c>
       <c r="S64" t="n">
-        <v>135.5616815389722</v>
+        <v>138.4041798589602</v>
       </c>
       <c r="T64" t="n">
         <v>5.577526949912857</v>
@@ -6358,23 +6358,23 @@
       </c>
       <c r="Y64" t="inlineStr">
         <is>
-          <t>[ 5.31286057  3.29188458  4.68759175 10.73476192]</t>
+          <t>[ 4.9148666   3.28571723  4.68025218 10.73210693]</t>
         </is>
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>[np.float64(5.522814260217801e-05) np.float64(7.018167130879143e-06)
- np.float64(4.718954776068011e-06) np.float64(9.699547613419484e-10)]</t>
+          <t>[np.float64(5.801995161931578e-05) np.float64(7.0295445402954896e-06)
+ np.float64(4.723958978139189e-06) np.float64(9.700987315827116e-10)]</t>
         </is>
       </c>
       <c r="AA64" t="inlineStr">
         <is>
-          <t>[np.float64(0.013522241910743695) np.float64(2.084862026314089e-05)
- np.float64(1.38930736382407e-05) np.float64(9.939356590990187e-09)]</t>
+          <t>[np.float64(0.013806683816677438) np.float64(2.0791365108271095e-05)
+ np.float64(1.3864073373145304e-05) np.float64(9.936773325443449e-09)]</t>
         </is>
       </c>
       <c r="AB64" t="n">
-        <v>7.232451730181903e-06</v>
+        <v>7.256844683241644e-06</v>
       </c>
       <c r="AC64" t="n">
         <v>64.65147188019345</v>
@@ -6413,14 +6413,14 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>[0.21836236 0.21800453 0.2321158  0.17860154]</t>
+          <t>[0.20244868 0.21759585 0.23174937 0.17855395]</t>
         </is>
       </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
       <c r="M65" t="n">
-        <v>9.708696527835491</v>
+        <v>9.707125373593955</v>
       </c>
       <c r="N65" t="n">
         <v>0.25</v>
@@ -6432,13 +6432,13 @@
         <v>0.2483699276303939</v>
       </c>
       <c r="Q65" t="n">
-        <v>1.966767123641726</v>
+        <v>1.06092299642994</v>
       </c>
       <c r="R65" t="n">
         <v>2.924612787299611</v>
       </c>
       <c r="S65" t="n">
-        <v>130.2726399688047</v>
+        <v>133.1102717291426</v>
       </c>
       <c r="T65" t="n">
         <v>6.756693776875757</v>
@@ -6457,23 +6457,23 @@
       </c>
       <c r="Y65" t="inlineStr">
         <is>
-          <t>[ 5.45905892  3.27006793  4.64231597 10.7160922 ]</t>
+          <t>[ 5.06121708  3.26393778  4.63498733 10.71323696]</t>
         </is>
       </c>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>[np.float64(5.8502036408349524e-05) np.float64(7.100956493059882e-06)
- np.float64(4.738829470430664e-06) np.float64(9.281738935947896e-10)]</t>
+          <t>[np.float64(6.168898737890896e-05) np.float64(7.1132278405189094e-06)
+ np.float64(4.744214808400164e-06) np.float64(9.283399920407126e-10)]</t>
         </is>
       </c>
       <c r="AA65" t="inlineStr">
         <is>
-          <t>[np.float64(0.012990075442420168) np.float64(2.139662043774913e-05)
- np.float64(1.404540845097543e-05) np.float64(9.963494274042247e-09)]</t>
+          <t>[np.float64(0.013273966062558588) np.float64(2.1338041453595325e-05)
+ np.float64(1.4015485548039354e-05) np.float64(9.960699812709907e-09)]</t>
         </is>
       </c>
       <c r="AB65" t="n">
-        <v>7.408883577132891e-06</v>
+        <v>7.43516720599706e-06</v>
       </c>
       <c r="AC65" t="n">
         <v>70.22899883010631</v>
@@ -6512,14 +6512,14 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>[0.22102915 0.21476405 0.23002462 0.17827006]</t>
+          <t>[0.20513163 0.21434051 0.22965906 0.17821916]</t>
         </is>
       </c>
       <c r="L66" t="n">
-        <v>1</v>
+        <v>0.9748808428582498</v>
       </c>
       <c r="M66" t="n">
-        <v>9.894754628775127</v>
+        <v>9.893183783223282</v>
       </c>
       <c r="N66" t="n">
         <v>0.38</v>
@@ -6528,19 +6528,19 @@
         <v>0.07447840557852729</v>
       </c>
       <c r="P66" t="n">
-        <v>0.4759863996071246</v>
+        <v>0.4640300224380573</v>
       </c>
       <c r="Q66" t="n">
-        <v>2.012047135688474</v>
+        <v>1.106203008476688</v>
       </c>
       <c r="R66" t="n">
         <v>3.172982714930005</v>
       </c>
       <c r="S66" t="n">
-        <v>123.8141363933551</v>
+        <v>126.6472362099982</v>
       </c>
       <c r="T66" t="n">
-        <v>8.269335926509653</v>
+        <v>8.043679513324673</v>
       </c>
       <c r="U66" t="n">
         <v>5.780244766176866</v>
@@ -6556,23 +6556,23 @@
       </c>
       <c r="Y66" t="inlineStr">
         <is>
-          <t>[ 5.52572877  3.22146069  4.60049232 10.69620331]</t>
+          <t>[ 5.12829079  3.21510772  4.59318115 10.69314954]</t>
         </is>
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>[np.float64(6.1242116072369e-05) np.float64(7.14516987724992e-06)
- np.float64(4.733167492117532e-06) np.float64(8.812300815734249e-10)]</t>
+          <t>[np.float64(6.498346734532903e-05) np.float64(7.158370836256086e-06)
+ np.float64(4.739021928817328e-06) np.float64(8.814230831811791e-10)]</t>
         </is>
       </c>
       <c r="AA66" t="inlineStr">
         <is>
-          <t>[np.float64(0.012341878589403098) np.float64(2.2034443107009397e-05)
- np.float64(1.4262259001956211e-05) np.float64(9.991571407096611e-09)]</t>
+          <t>[np.float64(0.012625217665743314) np.float64(2.1972635311445442e-05)
+ np.float64(1.4231340753026274e-05) np.float64(9.988561941136789e-09)]</t>
         </is>
       </c>
       <c r="AB66" t="n">
-        <v>7.597550366802903e-06</v>
+        <v>7.625715010323582e-06</v>
       </c>
       <c r="AC66" t="n">
         <v>76.98569260698207</v>
@@ -6589,89 +6589,89 @@
         <v>1.039</v>
       </c>
       <c r="D67" t="n">
-        <v>2.9027984844222</v>
+        <v>2.894233621662098</v>
       </c>
       <c r="E67" t="n">
-        <v>2215.772546690365</v>
+        <v>2209.042862789887</v>
       </c>
       <c r="F67" t="n">
-        <v>527.1799002243657</v>
+        <v>524.3074147667311</v>
       </c>
       <c r="G67" t="n">
-        <v>1282.591106125286</v>
+        <v>1278.764202294395</v>
       </c>
       <c r="H67" t="n">
-        <v>406.0015403407137</v>
+        <v>405.0859508229967</v>
       </c>
       <c r="I67" t="n">
-        <v>538.427073595578</v>
+        <v>536.9177961371122</v>
       </c>
       <c r="J67" t="n">
         <v>42.60000000000002</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>[0.22224905 0.20679981 0.22699951 0.17792011]</t>
+          <t>[0.20683795 0.20637923 0.22663136 0.17786594]</t>
         </is>
       </c>
       <c r="L67" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="M67" t="n">
-        <v>10.15885130702304</v>
+        <v>10.15728089958085</v>
       </c>
       <c r="N67" t="n">
         <v>0.38</v>
       </c>
       <c r="O67" t="n">
-        <v>0.05632418437334889</v>
+        <v>0.05668715560670979</v>
       </c>
       <c r="P67" t="n">
-        <v>0.4526013926353849</v>
+        <v>0.4522284442639286</v>
       </c>
       <c r="Q67" t="n">
-        <v>2.086525541267001</v>
+        <v>1.180681414055215</v>
       </c>
       <c r="R67" t="n">
-        <v>3.64896911453713</v>
+        <v>3.637012737368063</v>
       </c>
       <c r="S67" t="n">
-        <v>117.0144060825143</v>
+        <v>119.8409524382501</v>
       </c>
       <c r="T67" t="n">
-        <v>8.235984297790786</v>
+        <v>8.2306965872743</v>
       </c>
       <c r="U67" t="n">
-        <v>7.222364633073812</v>
+        <v>7.183011582304218</v>
       </c>
       <c r="V67" t="n">
-        <v>58.83505886416143</v>
+        <v>58.822619269835</v>
       </c>
       <c r="W67" t="n">
-        <v>9.40192655742289</v>
+        <v>9.406577514984638</v>
       </c>
       <c r="X67" t="n">
-        <v>12.25434255232393</v>
+        <v>12.26021677459878</v>
       </c>
       <c r="Y67" t="inlineStr">
         <is>
-          <t>[ 5.55622614  3.10199711  4.53999019 10.67520684]</t>
+          <t>[ 5.17094876  3.09568838  4.53262717 10.67195647]</t>
         </is>
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>[np.float64(6.925544210012914e-05) np.float64(7.091295560641236e-06)
- np.float64(4.639942106836674e-06) np.float64(8.074856609989601e-10)]</t>
+          <t>[np.float64(7.375319594622277e-05) np.float64(7.106479603281401e-06)
+ np.float64(4.646587759162007e-06) np.float64(8.077246226075162e-10)]</t>
         </is>
       </c>
       <c r="AA67" t="inlineStr">
         <is>
-          <t>[np.float64(0.011657933193370518) np.float64(2.307014728435651e-05)
- np.float64(1.4715412392307037e-05) np.float64(1.0045279630460163e-08)]</t>
+          <t>[np.float64(0.01194051740419895) np.float64(2.3005635482383066e-05)
+ np.float64(1.4682930787483533e-05) np.float64(1.0042036864269439e-08)]</t>
         </is>
       </c>
       <c r="AB67" t="n">
-        <v>7.797912338912033e-06</v>
+        <v>7.82795038473371e-06</v>
       </c>
       <c r="AC67" t="n">
         <v>84.18569260698207</v>
@@ -6688,89 +6688,89 @@
         <v>1.04802380952381</v>
       </c>
       <c r="D68" t="n">
-        <v>3.151084802925143</v>
+        <v>3.142360534060078</v>
       </c>
       <c r="E68" t="n">
-        <v>2469.706353046673</v>
+        <v>2462.813637210993</v>
       </c>
       <c r="F68" t="n">
-        <v>642.6689953552145</v>
+        <v>639.72236297345</v>
       </c>
       <c r="G68" t="n">
-        <v>1386.043738834845</v>
+        <v>1382.150415793554</v>
       </c>
       <c r="H68" t="n">
-        <v>440.9936188566129</v>
+        <v>440.0555635382251</v>
       </c>
       <c r="I68" t="n">
-        <v>593.5404960704764</v>
+        <v>591.9958343988937</v>
       </c>
       <c r="J68" t="n">
         <v>43.80000000000002</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>[0.22477045 0.2013241  0.22264093 0.17754255]</t>
+          <t>[0.20938457 0.20078847 0.22233789 0.1774851 ]</t>
         </is>
       </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
       <c r="M68" t="n">
-        <v>10.43537218925781</v>
+        <v>10.43380224045532</v>
       </c>
       <c r="N68" t="n">
         <v>0.38</v>
       </c>
       <c r="O68" t="n">
-        <v>0.0260676189622567</v>
+        <v>0.02623874389155307</v>
       </c>
       <c r="P68" t="n">
-        <v>0.2605871796986108</v>
+        <v>0.2604094686539091</v>
       </c>
       <c r="Q68" t="n">
-        <v>2.14284972564035</v>
+        <v>1.237368569661925</v>
       </c>
       <c r="R68" t="n">
-        <v>4.101570507172514</v>
+        <v>4.089241181631991</v>
       </c>
       <c r="S68" t="n">
-        <v>110.2434354756642</v>
+        <v>113.0638052374642</v>
       </c>
       <c r="T68" t="n">
-        <v>5.638261266069477</v>
+        <v>5.636737300617959</v>
       </c>
       <c r="U68" t="n">
-        <v>8.80456523636644</v>
+        <v>8.764196372736267</v>
       </c>
       <c r="V68" t="n">
-        <v>62.74172269676031</v>
+        <v>62.73006123017107</v>
       </c>
       <c r="W68" t="n">
-        <v>10.06381053377487</v>
+        <v>10.06857157454416</v>
       </c>
       <c r="X68" t="n">
-        <v>13.30359414008044</v>
+        <v>13.30959596427114</v>
       </c>
       <c r="Y68" t="inlineStr">
         <is>
-          <t>[ 5.6192612   3.01986153  4.45281867 10.65255329]</t>
+          <t>[ 5.23461417  3.01182708  4.44675776 10.64910617]</t>
         </is>
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>[np.float64(7.52636801359882e-05) np.float64(7.126695672211459e-06)
- np.float64(4.569895100982494e-06) np.float64(7.373227486076803e-10)]</t>
+          <t>[np.float64(8.04775252104158e-05) np.float64(7.143591890570751e-06)
+ np.float64(4.577608475648028e-06) np.float64(7.376045385651235e-10)]</t>
         </is>
       </c>
       <c r="AA68" t="inlineStr">
         <is>
-          <t>[np.float64(0.010977113211450364) np.float64(2.418046169779024e-05)
- np.float64(1.5103598720693502e-05) np.float64(1.0093702777577966e-08)]</t>
+          <t>[np.float64(0.011258987697179656) np.float64(2.4103896649421157e-05)
+ np.float64(1.5074070387481867e-05) np.float64(1.0090228684544244e-08)]</t>
         </is>
       </c>
       <c r="AB68" t="n">
-        <v>8.015309991646793e-06</v>
+        <v>8.047233022409578e-06</v>
       </c>
       <c r="AC68" t="n">
         <v>91.38569260698208</v>
@@ -6787,92 +6787,92 @@
         <v>1.056119047619048</v>
       </c>
       <c r="D69" t="n">
-        <v>3.313925836467627</v>
+        <v>3.30515755330498</v>
       </c>
       <c r="E69" t="n">
-        <v>2649.815192967383</v>
+        <v>2642.873795519305</v>
       </c>
       <c r="F69" t="n">
-        <v>729.7833529191498</v>
+        <v>726.8131744005545</v>
       </c>
       <c r="G69" t="n">
-        <v>1453.894169477547</v>
+        <v>1449.982507145596</v>
       </c>
       <c r="H69" t="n">
-        <v>466.1376705706866</v>
+        <v>465.1928190673908</v>
       </c>
       <c r="I69" t="n">
-        <v>631.3017666831629</v>
+        <v>629.7468985189926</v>
       </c>
       <c r="J69" t="n">
         <v>45.00000000000002</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>[0.23311534 0.19981299 0.21926514 0.17712431]</t>
+          <t>[0.21777508 0.19915704 0.21900346 0.17706425]</t>
         </is>
       </c>
       <c r="L69" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="M69" t="n">
-        <v>10.67327315425925</v>
+        <v>10.6717035999687</v>
       </c>
       <c r="N69" t="n">
         <v>0.38</v>
       </c>
       <c r="O69" t="n">
-        <v>0.02643772876678346</v>
+        <v>0.02661216181152479</v>
       </c>
       <c r="P69" t="n">
-        <v>0.3039203258496631</v>
+        <v>0.3037381390429748</v>
       </c>
       <c r="Q69" t="n">
-        <v>2.168917344602607</v>
+        <v>1.263607313553478</v>
       </c>
       <c r="R69" t="n">
-        <v>4.362157686871125</v>
+        <v>4.349650650285899</v>
       </c>
       <c r="S69" t="n">
-        <v>105.0370858480658</v>
+        <v>107.8556362057607</v>
       </c>
       <c r="T69" t="n">
-        <v>6.814489612065628</v>
+        <v>6.812615553561911</v>
       </c>
       <c r="U69" t="n">
-        <v>9.998031934992353</v>
+        <v>9.957340489287599</v>
       </c>
       <c r="V69" t="n">
-        <v>65.77869989489541</v>
+        <v>65.76621756383952</v>
       </c>
       <c r="W69" t="n">
-        <v>10.62653291446609</v>
+        <v>10.63114185702168</v>
       </c>
       <c r="X69" t="n">
-        <v>14.14868912869769</v>
+        <v>14.15446253219181</v>
       </c>
       <c r="Y69" t="inlineStr">
         <is>
-          <t>[ 5.82788351  2.99719492  4.38530283 10.62745864]</t>
+          <t>[ 5.44437711  2.98735566  4.3800692  10.62385499]</t>
         </is>
       </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>[np.float64(7.634177828470909e-05) np.float64(7.209002741214008e-06)
- np.float64(4.543059577069378e-06) np.float64(6.830457693815834e-10)]</t>
+          <t>[np.float64(8.204540667683835e-05) np.float64(7.228298865971844e-06)
+ np.float64(4.551302516511252e-06) np.float64(6.833595061611683e-10)]</t>
         </is>
       </c>
       <c r="AA69" t="inlineStr">
         <is>
-          <t>[np.float64(0.010453733600504174) np.float64(2.509570062809501e-05)
- np.float64(1.539839512329047e-05) np.float64(1.0123792431369295e-08)]</t>
+          <t>[np.float64(0.01073528128329286) np.float64(2.5003641764514057e-05)
+ np.float64(1.5370886903841703e-05) np.float64(1.0120135914684103e-08)]</t>
         </is>
       </c>
       <c r="AB69" t="n">
-        <v>8.257183245994481e-06</v>
+        <v>8.290611045050548e-06</v>
       </c>
       <c r="AC69" t="n">
-        <v>97.02395387305155</v>
+        <v>97.02242990760004</v>
       </c>
     </row>
     <row r="70">
@@ -6886,92 +6886,92 @@
         <v>1.064619047619048</v>
       </c>
       <c r="D70" t="n">
-        <v>3.499725110735043</v>
+        <v>3.49111473425469</v>
       </c>
       <c r="E70" t="n">
-        <v>2874.664454931302</v>
+        <v>2867.661221499104</v>
       </c>
       <c r="F70" t="n">
-        <v>844.0870813046648</v>
+        <v>841.0854680218565</v>
       </c>
       <c r="G70" t="n">
-        <v>1530.857622519015</v>
+        <v>1527.047737636555</v>
       </c>
       <c r="H70" t="n">
-        <v>498.1669125820612</v>
+        <v>497.213252690056</v>
       </c>
       <c r="I70" t="n">
-        <v>676.971533388217</v>
+        <v>675.4041055432007</v>
       </c>
       <c r="J70" t="n">
         <v>46.20000000000002</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>[0.24060335 0.19670409 0.21606551 0.17667544]</t>
+          <t>[0.22530766 0.19595136 0.21582763 0.1766132 ]</t>
         </is>
       </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
       <c r="M70" t="n">
-        <v>10.92721448789551</v>
+        <v>10.92564535465014</v>
       </c>
       <c r="N70" t="n">
         <v>0.38</v>
       </c>
       <c r="O70" t="n">
-        <v>0.01938935494673412</v>
+        <v>0.01951497234945869</v>
       </c>
       <c r="P70" t="n">
-        <v>0.257234105969171</v>
+        <v>0.2571039253333101</v>
       </c>
       <c r="Q70" t="n">
-        <v>2.195355073369391</v>
+        <v>1.290219475365002</v>
       </c>
       <c r="R70" t="n">
-        <v>4.666078012720789</v>
+        <v>4.653388789328874</v>
       </c>
       <c r="S70" t="n">
-        <v>98.67346309442698</v>
+        <v>101.4926135858205</v>
       </c>
       <c r="T70" t="n">
-        <v>6.068433532386267</v>
+        <v>6.067467123043357</v>
       </c>
       <c r="U70" t="n">
-        <v>11.56399301387391</v>
+        <v>11.52287091189944</v>
       </c>
       <c r="V70" t="n">
-        <v>69.21964646719186</v>
+        <v>69.21161800706028</v>
       </c>
       <c r="W70" t="n">
-        <v>11.34269723332793</v>
+        <v>11.34710922293352</v>
       </c>
       <c r="X70" t="n">
-        <v>15.16985152003023</v>
+        <v>15.17534409279863</v>
       </c>
       <c r="Y70" t="inlineStr">
         <is>
-          <t>[ 6.01508381  2.95056132  4.32131016 10.60052655]</t>
+          <t>[ 5.63269145  2.93927043  4.31655261 10.59679218]</t>
         </is>
       </c>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>[np.float64(7.691751138861895e-05) np.float64(7.291411685152973e-06)
- np.float64(4.531535841705712e-06) np.float64(6.291501848450699e-10)]</t>
+          <t>[np.float64(8.284441999195524e-05) np.float64(7.314518607738212e-06)
+ np.float64(4.540086667354557e-06) np.float64(6.294947888825855e-10)]</t>
         </is>
       </c>
       <c r="AA70" t="inlineStr">
         <is>
-          <t>[np.float64(0.009814742080353428) np.float64(2.6029565026623496e-05)
- np.float64(1.5754630790525152e-05) np.float64(1.015161757724473e-08)]</t>
+          <t>[np.float64(0.010096264743993518) np.float64(2.5921540904395613e-05)
+ np.float64(1.572815616408325e-05) np.float64(1.0147804078130744e-08)]</t>
         </is>
       </c>
       <c r="AB70" t="n">
-        <v>8.517887632605257e-06</v>
+        <v>8.552576583369962e-06</v>
       </c>
       <c r="AC70" t="n">
-        <v>103.8384434851172</v>
+        <v>103.835045461162</v>
       </c>
     </row>
     <row r="71">
@@ -6985,92 +6985,92 @@
         <v>1.072476190476191</v>
       </c>
       <c r="D71" t="n">
-        <v>3.651801777407772</v>
+        <v>3.643393770710012</v>
       </c>
       <c r="E71" t="n">
-        <v>3082.011398681367</v>
+        <v>3074.975144862179</v>
       </c>
       <c r="F71" t="n">
-        <v>954.7807282752356</v>
+        <v>951.7614868229725</v>
       </c>
       <c r="G71" t="n">
-        <v>1592.968269325489</v>
+        <v>1589.281780427436</v>
       </c>
       <c r="H71" t="n">
-        <v>528.4079706448089</v>
+        <v>527.4494948079812</v>
       </c>
       <c r="I71" t="n">
-        <v>717.6770779678181</v>
+        <v>716.1031676890105</v>
       </c>
       <c r="J71" t="n">
         <v>47.40000000000003</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>[0.24953194 0.19415404 0.21341871 0.17619792]</t>
+          <t>[0.23426297 0.19334918 0.21319253 0.17613375]</t>
         </is>
       </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
       <c r="M71" t="n">
-        <v>11.15602668257669</v>
+        <v>11.15445792864736</v>
       </c>
       <c r="N71" t="n">
         <v>0.38</v>
       </c>
       <c r="O71" t="n">
-        <v>0.02725653272744781</v>
+        <v>0.02742895563824008</v>
       </c>
       <c r="P71" t="n">
-        <v>0.3985264568231323</v>
+        <v>0.3983522212516599</v>
       </c>
       <c r="Q71" t="n">
-        <v>2.214744428316125</v>
+        <v>1.309734447714461</v>
       </c>
       <c r="R71" t="n">
-        <v>4.923312118689959</v>
+        <v>4.910492714662184</v>
       </c>
       <c r="S71" t="n">
-        <v>162.6969409755257</v>
+        <v>164.8500959481298</v>
       </c>
       <c r="T71" t="n">
-        <v>7.790846594898324</v>
+        <v>7.789136175280417</v>
       </c>
       <c r="U71" t="n">
-        <v>13.08049597737073</v>
+        <v>13.03913236947473</v>
       </c>
       <c r="V71" t="n">
-        <v>71.99223786071717</v>
+        <v>71.98934636438457</v>
       </c>
       <c r="W71" t="n">
-        <v>12.01823566881223</v>
+        <v>12.02254007766373</v>
       </c>
       <c r="X71" t="n">
-        <v>16.07915038926238</v>
+        <v>16.08449815449222</v>
       </c>
       <c r="Y71" t="inlineStr">
         <is>
-          <t>[ 6.23829843  2.91231054  4.26837429 10.57187513]</t>
+          <t>[ 5.85657435  2.90023768  4.2638506  10.56802514]</t>
         </is>
       </c>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>[np.float64(0.005574971982520757) np.float64(7.4006552125003854e-06)
- np.float64(4.549303332101044e-06) np.float64(5.857352521137931e-10)]</t>
+          <t>[np.float64(0.005580807710954813) np.float64(7.428102281371794e-06)
+ np.float64(4.558014164860604e-06) np.float64(5.861028696776529e-10)]</t>
         </is>
       </c>
       <c r="AA71" t="inlineStr">
         <is>
-          <t>[np.float64(0.014750495137254845) np.float64(2.6828215182051378e-05)
- np.float64(1.6059335644323868e-05) np.float64(1.0167201478831364e-08)]</t>
+          <t>[np.float64(0.015032212557123165) np.float64(2.6708479705660383e-05)
+ np.float64(1.6033175137410847e-05) np.float64(1.0163253147475116e-08)]</t>
         </is>
       </c>
       <c r="AB71" t="n">
-        <v>8.796197944051688e-06</v>
+        <v>8.832005081975569e-06</v>
       </c>
       <c r="AC71" t="n">
-        <v>109.9068770175034</v>
+        <v>109.9025125842053</v>
       </c>
     </row>
     <row r="72">
@@ -7084,92 +7084,92 @@
         <v>1.08002380952381</v>
       </c>
       <c r="D72" t="n">
-        <v>3.834236563290788</v>
+        <v>3.826025499040254</v>
       </c>
       <c r="E72" t="n">
-        <v>3357.21246477424</v>
+        <v>3350.115792706973</v>
       </c>
       <c r="F72" t="n">
-        <v>1108.185665403006</v>
+        <v>1105.132745093028</v>
       </c>
       <c r="G72" t="n">
-        <v>1667.014817635581</v>
+        <v>1663.451480972818</v>
       </c>
       <c r="H72" t="n">
-        <v>569.4103085301127</v>
+        <v>568.4428309497332</v>
       </c>
       <c r="I72" t="n">
-        <v>769.9931801360937</v>
+        <v>768.4077842650091</v>
       </c>
       <c r="J72" t="n">
         <v>48.60000000000003</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>[0.25523394 0.18832589 0.2098746  0.17569744]</t>
+          <t>[0.2400159  0.18743549 0.20965441 0.17563148]</t>
         </is>
       </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
       <c r="M72" t="n">
-        <v>11.37362134417846</v>
+        <v>11.37205295091432</v>
       </c>
       <c r="N72" t="n">
         <v>0</v>
       </c>
       <c r="O72" t="n">
-        <v>0.02113080010707771</v>
+        <v>0.02126133138783186</v>
       </c>
       <c r="P72" t="n">
-        <v>0.3569051964641154</v>
+        <v>0.3567734731633513</v>
       </c>
       <c r="Q72" t="n">
-        <v>2.242000961043573</v>
+        <v>1.337163403352701</v>
       </c>
       <c r="R72" t="n">
-        <v>5.321838575513092</v>
+        <v>5.308844935913844</v>
       </c>
       <c r="S72" t="n">
-        <v>165.8392089352361</v>
+        <v>167.6182405874069</v>
       </c>
       <c r="T72" t="n">
-        <v>7.124072407628355</v>
+        <v>7.085478225837906</v>
       </c>
       <c r="U72" t="n">
-        <v>15.18214361602118</v>
+        <v>15.14031860777449</v>
       </c>
       <c r="V72" t="n">
-        <v>74.90554203397186</v>
+        <v>74.90868448078885</v>
       </c>
       <c r="W72" t="n">
-        <v>12.84471154741754</v>
+        <v>12.8490685072745</v>
       </c>
       <c r="X72" t="n">
-        <v>17.13278937664223</v>
+        <v>17.13819886015754</v>
       </c>
       <c r="Y72" t="inlineStr">
         <is>
-          <t>[ 6.38084862  2.82488837  4.19749203 10.54184638]</t>
+          <t>[ 6.00039741  2.81153237  4.19308823 10.53788858]</t>
         </is>
       </c>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>[np.float64(0.004247531779291141) np.float64(7.530121632856282e-06)
- np.float64(4.586944470507836e-06) np.float64(5.483996191338297e-10)]</t>
+          <t>[np.float64(0.004326715540418389) np.float64(7.561636441626181e-06)
+ np.float64(4.595772923344674e-06) np.float64(5.487856480711681e-10)]</t>
         </is>
       </c>
       <c r="AA72" t="inlineStr">
         <is>
-          <t>[np.float64(0.015397507742506457) np.float64(2.755902155424227e-05)
- np.float64(1.634851510741435e-05) np.float64(1.0175281248900463e-08)]</t>
+          <t>[np.float64(0.015605890592815837) np.float64(2.742179161138258e-05)
+ np.float64(1.6322236743791953e-05) np.float64(1.0171209976782171e-08)]</t>
         </is>
       </c>
       <c r="AB72" t="n">
-        <v>9.088756573160321e-06</v>
+        <v>9.125609004969865e-06</v>
       </c>
       <c r="AC72" t="n">
-        <v>117.1068770175035</v>
+        <v>117.1025125842053</v>
       </c>
     </row>
     <row r="73">
@@ -7183,92 +7183,92 @@
         <v>1.088119047619048</v>
       </c>
       <c r="D73" t="n">
-        <v>3.98371726894141</v>
+        <v>3.975746260106697</v>
       </c>
       <c r="E73" t="n">
-        <v>3615.890000336049</v>
+        <v>3608.772101472538</v>
       </c>
       <c r="F73" t="n">
-        <v>1258.23711299568</v>
+        <v>1255.171879627681</v>
       </c>
       <c r="G73" t="n">
-        <v>1726.407440207881</v>
+        <v>1722.987654345085</v>
       </c>
       <c r="H73" t="n">
-        <v>608.7317575310843</v>
+        <v>607.7610532755158</v>
       </c>
       <c r="I73" t="n">
-        <v>817.639506801893</v>
+        <v>816.0502011252441</v>
       </c>
       <c r="J73" t="n">
         <v>49.80000000000003</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>[0.24704498 0.18293358 0.20684983 0.17516524]</t>
+          <t>[0.23183991 0.18198098 0.2066653  0.17509756]</t>
         </is>
       </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
       <c r="M73" t="n">
-        <v>11.61132053292598</v>
+        <v>11.60975253359351</v>
       </c>
       <c r="N73" t="n">
         <v>0</v>
       </c>
       <c r="O73" t="n">
-        <v>0.001293447632944026</v>
+        <v>0.001301203354574395</v>
       </c>
       <c r="P73" t="n">
-        <v>0.4217909641609949</v>
+        <v>0.4216567341708867</v>
       </c>
       <c r="Q73" t="n">
-        <v>2.263131761150651</v>
+        <v>1.358424734740533</v>
       </c>
       <c r="R73" t="n">
-        <v>5.678743771977207</v>
+        <v>5.665618409077195</v>
       </c>
       <c r="S73" t="n">
-        <v>167.2001746563431</v>
+        <v>168.7420967083693</v>
       </c>
       <c r="T73" t="n">
-        <v>7.534740484695673</v>
+        <v>7.534101376707973</v>
       </c>
       <c r="U73" t="n">
-        <v>17.23784844804082</v>
+        <v>17.19585475089924</v>
       </c>
       <c r="V73" t="n">
-        <v>77.55113474185843</v>
+        <v>77.55977123665232</v>
       </c>
       <c r="W73" t="n">
-        <v>13.72157751957677</v>
+        <v>13.72586252476908</v>
       </c>
       <c r="X73" t="n">
-        <v>18.23331233266395</v>
+        <v>18.20062192028264</v>
       </c>
       <c r="Y73" t="inlineStr">
         <is>
-          <t>[ 6.17612461  2.74400363  4.13699659 10.50991457]</t>
+          <t>[ 5.79599776  2.72971467  4.13330606 10.5058533 ]</t>
         </is>
       </c>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>[np.float64(0.003014995370907654) np.float64(7.693599966692947e-06)
- np.float64(4.628398587139325e-06) np.float64(5.092739803202106e-10)]</t>
+          <t>[np.float64(0.003143294500945005) np.float64(7.731177529852568e-06)
+ np.float64(4.637547849913235e-06) np.float64(5.096781801057197e-10)]</t>
         </is>
       </c>
       <c r="AA73" t="inlineStr">
         <is>
-          <t>[np.float64(0.015884625485583812) np.float64(2.8286910181267286e-05)
- np.float64(1.6713211536395592e-05) np.float64(1.0183199681420212e-08)]</t>
+          <t>[np.float64(0.016043306859283755) np.float64(2.813702370749986e-05)
+ np.float64(1.668914287412077e-05) np.float64(1.0179009657363383e-08)]</t>
         </is>
       </c>
       <c r="AB73" t="n">
-        <v>9.400828636099026e-06</v>
+        <v>9.438686878812236e-06</v>
       </c>
       <c r="AC73" t="n">
-        <v>124.2309494251318</v>
+        <v>124.1879908100432</v>
       </c>
     </row>
     <row r="74">
@@ -7282,92 +7282,92 @@
         <v>1.095285714285715</v>
       </c>
       <c r="D74" t="n">
-        <v>4.126728835789006</v>
+        <v>4.119005467074782</v>
       </c>
       <c r="E74" t="n">
-        <v>3901.141159149485</v>
+        <v>3893.999064854895</v>
       </c>
       <c r="F74" t="n">
-        <v>1430.630688332858</v>
+        <v>1427.550832283262</v>
       </c>
       <c r="G74" t="n">
-        <v>1782.295941784156</v>
+        <v>1779.024221596054</v>
       </c>
       <c r="H74" t="n">
-        <v>653.0163207674447</v>
+        <v>652.0418602288091</v>
       </c>
       <c r="I74" t="n">
-        <v>868.3910217750257</v>
+        <v>866.7974112787651</v>
       </c>
       <c r="J74" t="n">
         <v>51.00000000000004</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>[0.23852355 0.17607117 0.2031253  0.17462155]</t>
+          <t>[0.22334881 0.17508605 0.20294935 0.1745486 ]</t>
         </is>
       </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
       <c r="M74" t="n">
-        <v>11.81582892975789</v>
+        <v>11.81426126929745</v>
       </c>
       <c r="N74" t="n">
         <v>0.25</v>
       </c>
       <c r="O74" t="n">
-        <v>0.001273140615605255</v>
+        <v>0.001280536716780617</v>
       </c>
       <c r="P74" t="n">
-        <v>0.4700364072705021</v>
+        <v>0.4699069229901063</v>
       </c>
       <c r="Q74" t="n">
-        <v>2.264425208783595</v>
+        <v>1.359725938095107</v>
       </c>
       <c r="R74" t="n">
-        <v>6.100534736138203</v>
+        <v>6.087275143248082</v>
       </c>
       <c r="S74" t="n">
-        <v>167.1497292042488</v>
+        <v>168.6468910671737</v>
       </c>
       <c r="T74" t="n">
-        <v>7.425161606792784</v>
+        <v>7.421895506208061</v>
       </c>
       <c r="U74" t="n">
-        <v>19.59964043016016</v>
+        <v>19.55744640228069</v>
       </c>
       <c r="V74" t="n">
-        <v>79.82681277713783</v>
+        <v>79.84128158239031</v>
       </c>
       <c r="W74" t="n">
-        <v>14.65119790409546</v>
+        <v>14.65550007317061</v>
       </c>
       <c r="X74" t="n">
-        <v>19.29642664771657</v>
+        <v>19.26381953909076</v>
       </c>
       <c r="Y74" t="inlineStr">
         <is>
-          <t>[ 5.96308871  2.64106753  4.06250601 10.47729274]</t>
+          <t>[ 5.58372036  2.6262907   4.05898697 10.47291582]</t>
         </is>
       </c>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>[np.float64(0.0020482058625384864) np.float64(7.903523706946186e-06)
- np.float64(4.701649188483402e-06) np.float64(4.803393217535605e-10)]</t>
+          <t>[np.float64(0.002195900787739297) np.float64(7.946391663303421e-06)
+ np.float64(4.710791964954315e-06) np.float64(4.807536751158099e-10)]</t>
         </is>
       </c>
       <c r="AA74" t="inlineStr">
         <is>
-          <t>[np.float64(0.016147253042443604) np.float64(2.8842782162671443e-05)
- np.float64(1.6991210000040425e-05) np.float64(1.0180179176940656e-08)]</t>
+          <t>[np.float64(0.016286260716437403) np.float64(2.8680608452057123e-05)
+ np.float64(1.69664444043177e-05) np.float64(1.0175670362256355e-08)]</t>
         </is>
       </c>
       <c r="AB74" t="n">
-        <v>9.720380266561078e-06</v>
+        <v>9.761324879781624e-06</v>
       </c>
       <c r="AC74" t="n">
-        <v>131.4309494251318</v>
+        <v>131.3879908100432</v>
       </c>
     </row>
     <row r="75">
@@ -7381,92 +7381,92 @@
         <v>1.102452380952381</v>
       </c>
       <c r="D75" t="n">
-        <v>4.250352689516285</v>
+        <v>4.242888577943761</v>
       </c>
       <c r="E75" t="n">
-        <v>4190.354259259871</v>
+        <v>4183.196643245265</v>
       </c>
       <c r="F75" t="n">
-        <v>1611.636772844801</v>
+        <v>1608.547202415863</v>
       </c>
       <c r="G75" t="n">
-        <v>1829.289499859795</v>
+        <v>1826.171664575341</v>
       </c>
       <c r="H75" t="n">
-        <v>698.7450435106126</v>
+        <v>697.7681287663036</v>
       </c>
       <c r="I75" t="n">
-        <v>918.257205315041</v>
+        <v>916.6609185605512</v>
       </c>
       <c r="J75" t="n">
         <v>52.20000000000004</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>[0.23925622 0.1683452  0.19858019 0.1740743 ]</t>
+          <t>[0.22410837 0.16733454 0.19841603 0.17399464]</t>
         </is>
       </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
       <c r="M75" t="n">
-        <v>12.02029948809528</v>
+        <v>12.0187321663981</v>
       </c>
       <c r="N75" t="n">
         <v>0.25</v>
       </c>
       <c r="O75" t="n">
-        <v>0.0194135074412262</v>
+        <v>0.0195224906443236</v>
       </c>
       <c r="P75" t="n">
-        <v>0.4614796101951672</v>
+        <v>0.461368108746524</v>
       </c>
       <c r="Q75" t="n">
-        <v>2.2656983493992</v>
+        <v>1.361006474811888</v>
       </c>
       <c r="R75" t="n">
-        <v>6.570571143408705</v>
+        <v>6.557182066238188</v>
       </c>
       <c r="S75" t="n">
-        <v>165.2705930440202</v>
+        <v>166.8537624535548</v>
       </c>
       <c r="T75" t="n">
-        <v>6.98100695811527</v>
+        <v>6.980179148820097</v>
       </c>
       <c r="U75" t="n">
-        <v>22.07942378797378</v>
+        <v>22.03709667309733</v>
       </c>
       <c r="V75" t="n">
-        <v>81.77786681363901</v>
+        <v>81.79974885398174</v>
       </c>
       <c r="W75" t="n">
-        <v>15.62862435773055</v>
+        <v>15.63344023668805</v>
       </c>
       <c r="X75" t="n">
-        <v>20.3946208378632</v>
+        <v>20.35987519936081</v>
       </c>
       <c r="Y75" t="inlineStr">
         <is>
-          <t>[ 5.98140557  2.52517804  3.9716039  10.44445793]</t>
+          <t>[ 5.60270937  2.51001813  3.9683205  10.43967839]</t>
         </is>
       </c>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>[np.float64(0.001377822263982901) np.float64(8.158255311083382e-06)
- np.float64(4.785839076533317e-06) np.float64(4.5331665166864116e-10)]</t>
+          <t>[np.float64(0.001525298738433024) np.float64(8.20673213545713e-06)
+ np.float64(4.79500412388324e-06) np.float64(4.5374088646285406e-10)]</t>
         </is>
       </c>
       <c r="AA75" t="inlineStr">
         <is>
-          <t>[np.float64(0.016129466289330072) np.float64(2.934971157375789e-05)
- np.float64(1.726279883282109e-05) np.float64(1.0174968647726879e-08)]</t>
+          <t>[np.float64(0.016268699620789258) np.float64(2.9175591393622605e-05)
+ np.float64(1.723717612403481e-05) np.float64(1.017005527100619e-08)]</t>
         </is>
       </c>
       <c r="AB75" t="n">
-        <v>1.004271225954806e-05</v>
+        <v>1.008760367881283e-05</v>
       </c>
       <c r="AC75" t="n">
-        <v>138.6309494251318</v>
+        <v>138.5879908100432</v>
       </c>
     </row>
     <row r="76">
@@ -7480,92 +7480,92 @@
         <v>1.110190476190477</v>
       </c>
       <c r="D76" t="n">
-        <v>4.349635403151554</v>
+        <v>4.342454065243269</v>
       </c>
       <c r="E76" t="n">
-        <v>4470.831699387334</v>
+        <v>4463.671425740471</v>
       </c>
       <c r="F76" t="n">
-        <v>1792.793144602556</v>
+        <v>1789.701857646911</v>
       </c>
       <c r="G76" t="n">
-        <v>1865.99619582729</v>
+        <v>1863.03633182392</v>
       </c>
       <c r="H76" t="n">
-        <v>743.34629891831</v>
+        <v>742.3689615598508</v>
       </c>
       <c r="I76" t="n">
-        <v>965.0893135820054</v>
+        <v>963.4925830751715</v>
       </c>
       <c r="J76" t="n">
         <v>53.40000000000004</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>[0.23963908 0.16083427 0.19386015 0.17351764]</t>
+          <t>[0.22448901 0.15984043 0.1937115  0.17342957]</t>
         </is>
       </c>
       <c r="L76" t="n">
-        <v>0.9971325179176772</v>
+        <v>0.9948438716091298</v>
       </c>
       <c r="M76" t="n">
-        <v>12.24452641235602</v>
+        <v>12.24295946210362</v>
       </c>
       <c r="N76" t="n">
         <v>0.25</v>
       </c>
       <c r="O76" t="n">
-        <v>0.01775440307821373</v>
+        <v>0.01785028633610019</v>
       </c>
       <c r="P76" t="n">
-        <v>0.4648936414879373</v>
+        <v>0.4637268376151539</v>
       </c>
       <c r="Q76" t="n">
-        <v>2.285111856840426</v>
+        <v>1.380528965456212</v>
       </c>
       <c r="R76" t="n">
-        <v>7.032050753603872</v>
+        <v>7.018550174984712</v>
       </c>
       <c r="S76" t="n">
-        <v>162.063456509399</v>
+        <v>163.8189846398873</v>
       </c>
       <c r="T76" t="n">
-        <v>7.014805401060968</v>
+        <v>6.99676631888239</v>
       </c>
       <c r="U76" t="n">
-        <v>24.56126608105502</v>
+        <v>24.51891544976268</v>
       </c>
       <c r="V76" t="n">
-        <v>83.40695624927635</v>
+        <v>83.43432377241075</v>
       </c>
       <c r="W76" t="n">
-        <v>16.62072884237878</v>
+        <v>16.62553532076247</v>
       </c>
       <c r="X76" t="n">
-        <v>21.46732031057468</v>
+        <v>21.43180284627633</v>
       </c>
       <c r="Y76" t="inlineStr">
         <is>
-          <t>[ 5.99097692  2.412514    3.87720308 10.41105833]</t>
+          <t>[ 5.61222514  2.39760643  3.87423003 10.40577419]</t>
         </is>
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>[np.float64(0.0009173422786568498) np.float64(8.471976569917945e-06)
- np.float64(4.875339264105409e-06) np.float64(4.24226558819195e-10)]</t>
+          <t>[np.float64(0.0010496563111627626) np.float64(8.527359367959029e-06)
+ np.float64(4.884562530389147e-06) np.float64(4.246630671146582e-10)]</t>
         </is>
       </c>
       <c r="AA76" t="inlineStr">
         <is>
-          <t>[np.float64(0.015925542238347475) np.float64(2.9854648218719362e-05)
- np.float64(1.7580706528671825e-05) np.float64(1.017119471686502e-08)]</t>
+          <t>[np.float64(0.016080020829824865) np.float64(2.967460859140047e-05)
+ np.float64(1.755403957039233e-05) np.float64(1.0165773142310987e-08)]</t>
         </is>
       </c>
       <c r="AB76" t="n">
-        <v>1.037135249666111e-05</v>
+        <v>1.042120315924682e-05</v>
       </c>
       <c r="AC76" t="n">
-        <v>145.6119563832471</v>
+        <v>145.5681699588633</v>
       </c>
     </row>
     <row r="77">
@@ -7579,92 +7579,92 @@
         <v>1.117666666666667</v>
       </c>
       <c r="D77" t="n">
-        <v>4.437466135630415</v>
+        <v>4.430269921759837</v>
       </c>
       <c r="E77" t="n">
-        <v>4761.495771400918</v>
+        <v>4753.588033956896</v>
       </c>
       <c r="F77" t="n">
-        <v>1985.926963423926</v>
+        <v>1982.33901880923</v>
       </c>
       <c r="G77" t="n">
-        <v>1898.093606286295</v>
+        <v>1895.156813465185</v>
       </c>
       <c r="H77" t="n">
-        <v>788.667748318371</v>
+        <v>787.5738635571774</v>
       </c>
       <c r="I77" t="n">
-        <v>1011.929140386185</v>
+        <v>1010.211957858711</v>
       </c>
       <c r="J77" t="n">
         <v>54.60000000000004</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>[0.24019799 0.15334085 0.18885806 0.17294801]</t>
+          <t>[0.22504596 0.15243549 0.18868218 0.17286556]</t>
         </is>
       </c>
       <c r="L77" t="n">
-        <v>0.9641578114745585</v>
+        <v>0.962247954292446</v>
       </c>
       <c r="M77" t="n">
-        <v>12.45941005254827</v>
+        <v>12.45784345820989</v>
       </c>
       <c r="N77" t="n">
         <v>0</v>
       </c>
       <c r="O77" t="n">
-        <v>0.01872768005588593</v>
+        <v>0.01882902960298325</v>
       </c>
       <c r="P77" t="n">
-        <v>0.5027120012004023</v>
+        <v>0.501615210797095</v>
       </c>
       <c r="Q77" t="n">
-        <v>2.302866259918639</v>
+        <v>1.398379251792312</v>
       </c>
       <c r="R77" t="n">
-        <v>7.496944395091809</v>
+        <v>7.482277012599866</v>
       </c>
       <c r="S77" t="n">
-        <v>157.5835877243707</v>
+        <v>159.5553312289804</v>
       </c>
       <c r="T77" t="n">
-        <v>6.508163538114497</v>
+        <v>6.493711998474955</v>
       </c>
       <c r="U77" t="n">
-        <v>27.20719939890778</v>
+        <v>27.15804455768646</v>
       </c>
       <c r="V77" t="n">
-        <v>84.82864170104281</v>
+        <v>84.85536380811773</v>
       </c>
       <c r="W77" t="n">
-        <v>17.62797647365256</v>
+        <v>17.63019274150924</v>
       </c>
       <c r="X77" t="n">
-        <v>22.50831315661814</v>
+        <v>22.47011870351918</v>
       </c>
       <c r="Y77" t="inlineStr">
         <is>
-          <t>[ 6.00494979  2.30011271  3.77716118 10.3768806 ]</t>
+          <t>[ 5.62614908  2.2865324   3.77364351 10.37193369]</t>
         </is>
       </c>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>[np.float64(0.0006224652731138516) np.float64(8.830047586853671e-06)
- np.float64(4.987337454589617e-06) np.float64(3.988971185229167e-10)]</t>
+          <t>[np.float64(0.0007333793249252508) np.float64(8.89135808093048e-06)
+ np.float64(4.99660701872071e-06) np.float64(3.993515967830206e-10)]</t>
         </is>
       </c>
       <c r="AA77" t="inlineStr">
         <is>
-          <t>[np.float64(0.015551751429636856) np.float64(3.02758800014236e-05)
- np.float64(1.786507740321194e-05) np.float64(1.0162826237160024e-08)]</t>
+          <t>[np.float64(0.015729433945618022) np.float64(3.0090996500976078e-05)
+ np.float64(1.783727999110259e-05) np.float64(1.0157719768042682e-08)]</t>
         </is>
       </c>
       <c r="AB77" t="n">
-        <v>1.070833169667386e-05</v>
+        <v>1.075485160524625e-05</v>
       </c>
       <c r="AC77" t="n">
-        <v>152.626761784308</v>
+        <v>152.5649362777457</v>
       </c>
     </row>
     <row r="78">
@@ -7678,92 +7678,92 @@
         <v>1.125690476190476</v>
       </c>
       <c r="D78" t="n">
-        <v>4.5046350089809</v>
+        <v>4.497522084612096</v>
       </c>
       <c r="E78" t="n">
-        <v>5038.289592701036</v>
+        <v>5029.767227665517</v>
       </c>
       <c r="F78" t="n">
-        <v>2174.811067079126</v>
+        <v>2170.803700595993</v>
       </c>
       <c r="G78" t="n">
-        <v>1921.652073193378</v>
+        <v>1918.775997965017</v>
       </c>
       <c r="H78" t="n">
-        <v>830.998750055869</v>
+        <v>829.8108682483492</v>
       </c>
       <c r="I78" t="n">
-        <v>1054.991222150616</v>
+        <v>1053.178419195362</v>
       </c>
       <c r="J78" t="n">
         <v>55.80000000000005</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>[0.22989943 0.14603221 0.18283583 0.17238298]</t>
+          <t>[0.21474527 0.14521534 0.18263919 0.17230281]</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>0.9253608565304915</v>
+        <v>0.8962030544761553</v>
       </c>
       <c r="M78" t="n">
-        <v>12.69414828368878</v>
+        <v>12.69258207809423</v>
       </c>
       <c r="N78" t="n">
         <v>0.38</v>
       </c>
       <c r="O78" t="n">
-        <v>0.00124124426839909</v>
+        <v>0.001247883619557593</v>
       </c>
       <c r="P78" t="n">
-        <v>0.5834246309090211</v>
+        <v>0.5649344221173349</v>
       </c>
       <c r="Q78" t="n">
-        <v>2.321593939974525</v>
+        <v>1.417208281395295</v>
       </c>
       <c r="R78" t="n">
-        <v>7.999656396292211</v>
+        <v>7.98389222339696</v>
       </c>
       <c r="S78" t="n">
-        <v>152.2987042636661</v>
+        <v>154.4231969049094</v>
       </c>
       <c r="T78" t="n">
-        <v>5.902346048991946</v>
+        <v>5.682802083583957</v>
       </c>
       <c r="U78" t="n">
-        <v>29.79491161898403</v>
+        <v>29.74001069816511</v>
       </c>
       <c r="V78" t="n">
-        <v>85.8687505818</v>
+        <v>85.89639255826742</v>
       </c>
       <c r="W78" t="n">
-        <v>18.56797164306849</v>
+        <v>18.56810062818062</v>
       </c>
       <c r="X78" t="n">
-        <v>23.46454256726546</v>
+        <v>23.42422478288395</v>
       </c>
       <c r="Y78" t="inlineStr">
         <is>
-          <t>[ 5.74748579  2.19048318  3.65671659 10.34297904]</t>
+          <t>[ 5.36863178  2.17823005  3.65278375 10.33816885]</t>
         </is>
       </c>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>[np.float64(0.0004209308987826015) np.float64(9.258317755706335e-06)
- np.float64(5.118000809281888e-06) np.float64(3.7222853363198896e-10)]</t>
+          <t>[np.float64(0.0005100199405946733) np.float64(9.325012212827419e-06)
+ np.float64(5.1275759809360175e-06) np.float64(3.726951483836564e-10)]</t>
         </is>
       </c>
       <c r="AA78" t="inlineStr">
         <is>
-          <t>[np.float64(0.015077149792813176) np.float64(3.0683540262905096e-05)
- np.float64(1.8183505642972844e-05) np.float64(1.015599757368947e-08)]</t>
+          <t>[np.float64(0.01527390091285418) np.float64(3.0494795178494983e-05)
+ np.float64(1.815388010860638e-05) np.float64(1.0151014620475896e-08)]</t>
         </is>
       </c>
       <c r="AB78" t="n">
-        <v>1.104330418028867e-05</v>
+        <v>1.108846756490775e-05</v>
       </c>
       <c r="AC78" t="n">
-        <v>159.1349253224225</v>
+        <v>159.0586482762207</v>
       </c>
     </row>
     <row r="79">
@@ -7777,92 +7777,92 @@
         <v>1.134809523809524</v>
       </c>
       <c r="D79" t="n">
-        <v>4.550641080788789</v>
+        <v>4.540440890393547</v>
       </c>
       <c r="E79" t="n">
-        <v>5296.608631098457</v>
+        <v>5278.477817903611</v>
       </c>
       <c r="F79" t="n">
-        <v>2356.062465506666</v>
+        <v>2345.313262740768</v>
       </c>
       <c r="G79" t="n">
-        <v>1936.539566070288</v>
+        <v>1932.398620586631</v>
       </c>
       <c r="H79" t="n">
-        <v>869.6752605572582</v>
+        <v>867.0487652877118</v>
       </c>
       <c r="I79" t="n">
-        <v>1093.649316964543</v>
+        <v>1090.398585538115</v>
       </c>
       <c r="J79" t="n">
         <v>57.00000000000005</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>[0.2337508  0.13877012 0.1749311  0.17181758]</t>
+          <t>[0.21928562 0.13803612 0.1747283  0.17173973]</t>
         </is>
       </c>
       <c r="L79" t="n">
-        <v>0.8995441632608832</v>
+        <v>0.8866330542867233</v>
       </c>
       <c r="M79" t="n">
-        <v>12.9743181555156</v>
+        <v>12.97275241383059</v>
       </c>
       <c r="N79" t="n">
         <v>0.38</v>
       </c>
       <c r="O79" t="n">
-        <v>0.02101772026666899</v>
+        <v>0.02117912542704553</v>
       </c>
       <c r="P79" t="n">
-        <v>0.5620628391050226</v>
+        <v>0.5538506551063406</v>
       </c>
       <c r="Q79" t="n">
-        <v>2.322835184242924</v>
+        <v>1.418456165014852</v>
       </c>
       <c r="R79" t="n">
-        <v>8.583081027201233</v>
+        <v>8.548826645514296</v>
       </c>
       <c r="S79" t="n">
-        <v>147.7930100465549</v>
+        <v>150.2887521386729</v>
       </c>
       <c r="T79" t="n">
-        <v>5.523017818648304</v>
+        <v>5.428628006091877</v>
       </c>
       <c r="U79" t="n">
-        <v>32.27805577744132</v>
+        <v>32.13079169954853</v>
       </c>
       <c r="V79" t="n">
-        <v>86.52196774066215</v>
+        <v>86.49163701610658</v>
       </c>
       <c r="W79" t="n">
-        <v>19.42603995679398</v>
+        <v>19.39425218903826</v>
       </c>
       <c r="X79" t="n">
-        <v>24.32220231471437</v>
+        <v>24.24998297451712</v>
       </c>
       <c r="Y79" t="inlineStr">
         <is>
-          <t>[ 5.84376991  2.08155179  3.49862207 10.30905495]</t>
+          <t>[ 5.48214039  2.07054185  3.49456593 10.30438395]</t>
         </is>
       </c>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>[np.float64(0.0002990451591612218) np.float64(9.81764816493816e-06)
- np.float64(5.304365231443372e-06) np.float64(3.4254011102189656e-10)]</t>
+          <t>[np.float64(0.00037085726711750546) np.float64(9.889318415892364e-06)
+ np.float64(5.314596981071379e-06) np.float64(3.4301593388647666e-10)]</t>
         </is>
       </c>
       <c r="AA79" t="inlineStr">
         <is>
-          <t>[np.float64(0.014654283282219046) np.float64(3.1114712025982466e-05)
- np.float64(1.854130514723e-05) np.float64(1.0152086265082347e-08)]</t>
+          <t>[np.float64(0.01489026577904759) np.float64(3.092235188500262e-05)
+ np.float64(1.850966215920065e-05) np.float64(1.0147232529377594e-08)]</t>
         </is>
       </c>
       <c r="AB79" t="n">
-        <v>1.137930149246083e-05</v>
+        <v>1.142308062086257e-05</v>
       </c>
       <c r="AC79" t="n">
-        <v>165.0372713714145</v>
+        <v>164.7414503598046</v>
       </c>
     </row>
     <row r="80">
@@ -7876,92 +7876,92 @@
         <v>1.144428571428572</v>
       </c>
       <c r="D80" t="n">
-        <v>4.579731708332908</v>
+        <v>4.568699771332051</v>
       </c>
       <c r="E80" t="n">
-        <v>5546.536092787037</v>
+        <v>5524.133954197976</v>
       </c>
       <c r="F80" t="n">
-        <v>2536.895695215283</v>
+        <v>2523.056005469869</v>
       </c>
       <c r="G80" t="n">
-        <v>1944.604378809142</v>
+        <v>1940.143756648905</v>
       </c>
       <c r="H80" t="n">
-        <v>906.1837120561098</v>
+        <v>902.9332778446925</v>
       </c>
       <c r="I80" t="n">
-        <v>1129.38778771914</v>
+        <v>1125.526276522241</v>
       </c>
       <c r="J80" t="n">
         <v>58.20000000000005</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>[0.23714815 0.13219176 0.16715034 0.17125552]</t>
+          <t>[0.22295784 0.13151323 0.16695827 0.17117988]</t>
         </is>
       </c>
       <c r="L80" t="n">
-        <v>0.8583792334054977</v>
+        <v>0.8436180027538327</v>
       </c>
       <c r="M80" t="n">
-        <v>13.27787627646162</v>
+        <v>13.27627100037225</v>
       </c>
       <c r="N80" t="n">
         <v>0.38</v>
       </c>
       <c r="O80" t="n">
-        <v>0.0214526080496223</v>
+        <v>0.0216308422488749</v>
       </c>
       <c r="P80" t="n">
-        <v>0.5698223873966154</v>
+        <v>0.5598683979654669</v>
       </c>
       <c r="Q80" t="n">
-        <v>2.343852904509593</v>
+        <v>1.439635290441898</v>
       </c>
       <c r="R80" t="n">
-        <v>9.145143866306256</v>
+        <v>9.102677300620638</v>
       </c>
       <c r="S80" t="n">
-        <v>143.3685200494015</v>
+        <v>146.0959368040678</v>
       </c>
       <c r="T80" t="n">
-        <v>4.759762912442326</v>
+        <v>4.657074271859925</v>
       </c>
       <c r="U80" t="n">
-        <v>34.75547102444937</v>
+        <v>34.5658672749372</v>
       </c>
       <c r="V80" t="n">
-        <v>86.87079983186509</v>
+        <v>86.82443898049374</v>
       </c>
       <c r="W80" t="n">
-        <v>20.23517589811418</v>
+        <v>20.18955978644546</v>
       </c>
       <c r="X80" t="n">
-        <v>25.11427319113254</v>
+        <v>25.02851715342472</v>
       </c>
       <c r="Y80" t="inlineStr">
         <is>
-          <t>[ 5.92870363  1.98287643  3.34300674 10.27533137]</t>
+          <t>[ 5.57394595  1.97269843  3.33916542 10.27079254]</t>
         </is>
       </c>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>[np.float64(0.0002191491833531757) np.float64(1.0463686341674593e-05)
- np.float64(5.566737437430648e-06) np.float64(3.137850484537064e-10)]</t>
+          <t>[np.float64(0.0002744136086955566) np.float64(1.0535234761288737e-05)
+ np.float64(5.5778846567614824e-06) np.float64(3.142649819639847e-10)]</t>
         </is>
       </c>
       <c r="AA80" t="inlineStr">
         <is>
-          <t>[np.float64(0.014229581852238136) np.float64(3.152165287472076e-05)
- np.float64(1.8877423413176034e-05) np.float64(1.0147362646298954e-08)]</t>
+          <t>[np.float64(0.01449155106321242) np.float64(3.132515970274314e-05)
+ np.float64(1.8845115969429162e-05) np.float64(1.0142636524750255e-08)]</t>
         </is>
       </c>
       <c r="AB80" t="n">
-        <v>1.171408830597666e-05</v>
+        <v>1.175655018636088e-05</v>
       </c>
       <c r="AC80" t="n">
-        <v>170.5602891900628</v>
+        <v>170.1700783658965</v>
       </c>
     </row>
     <row r="81">
@@ -7975,92 +7975,92 @@
         <v>1.155166666666667</v>
       </c>
       <c r="D81" t="n">
-        <v>4.58810859858302</v>
+        <v>4.576353621571759</v>
       </c>
       <c r="E81" t="n">
-        <v>5769.884770846671</v>
+        <v>5742.664036762892</v>
       </c>
       <c r="F81" t="n">
-        <v>2703.654199645408</v>
+        <v>2686.21680882948</v>
       </c>
       <c r="G81" t="n">
-        <v>1944.274561012713</v>
+        <v>1939.536742683615</v>
       </c>
       <c r="H81" t="n">
-        <v>937.9502754669916</v>
+        <v>934.0144993020683</v>
       </c>
       <c r="I81" t="n">
-        <v>1159.775773941481</v>
+        <v>1155.258662654282</v>
       </c>
       <c r="J81" t="n">
         <v>59.40000000000006</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>[0.24008394 0.12585988 0.15935001 0.17069411]</t>
+          <t>[0.22623937 0.12523312 0.15916979 0.17062044]</t>
         </is>
       </c>
       <c r="L81" t="n">
-        <v>0.9367099824152298</v>
+        <v>0.9353269880568811</v>
       </c>
       <c r="M81" t="n">
-        <v>13.64113025733879</v>
+        <v>13.63948118202786</v>
       </c>
       <c r="N81" t="n">
         <v>0.38</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01431191408262321</v>
+        <v>0.01443864909017482</v>
       </c>
       <c r="P81" t="n">
-        <v>0.3977462204870136</v>
+        <v>0.3970425980618617</v>
       </c>
       <c r="Q81" t="n">
-        <v>2.365305512559216</v>
+        <v>1.461266132690773</v>
       </c>
       <c r="R81" t="n">
-        <v>9.714966253702871</v>
+        <v>9.662545698586104</v>
       </c>
       <c r="S81" t="n">
-        <v>139.5263068685744</v>
+        <v>142.4694983253024</v>
       </c>
       <c r="T81" t="n">
-        <v>5.044103407547727</v>
+        <v>5.037397446802807</v>
       </c>
       <c r="U81" t="n">
-        <v>37.04006253514208</v>
+        <v>36.80117028096389</v>
       </c>
       <c r="V81" t="n">
-        <v>86.84626362649297</v>
+        <v>86.7857691025593</v>
       </c>
       <c r="W81" t="n">
-        <v>20.93845357642745</v>
+        <v>20.87766472820306</v>
       </c>
       <c r="X81" t="n">
-        <v>25.78703064753851</v>
+        <v>25.68676032626009</v>
       </c>
       <c r="Y81" t="inlineStr">
         <is>
-          <t>[ 6.00209842  1.88789822  3.1870002  10.24164633]</t>
+          <t>[ 5.65598421  1.87849679  3.18339586 10.23722624]</t>
         </is>
       </c>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>[np.float64(0.00017076217615686316) np.float64(1.1262233627934639e-05)
- np.float64(5.9731584826726185e-06) np.float64(2.850461015414747e-10)]</t>
+          <t>[np.float64(0.00021201346688133355) np.float64(1.13328038919642e-05)
+ np.float64(5.985248951126025e-06) np.float64(2.8552519491417013e-10)]</t>
         </is>
       </c>
       <c r="AA81" t="inlineStr">
         <is>
-          <t>[np.float64(0.01385538088512184) np.float64(3.191443207121066e-05)
- np.float64(1.9216790559464934e-05) np.float64(1.0142583406221106e-08)]</t>
+          <t>[np.float64(0.014141632154994595) np.float64(3.171422144287741e-05)
+ np.float64(1.918379521542639e-05) np.float64(1.0137976755700616e-08)]</t>
         </is>
       </c>
       <c r="AB81" t="n">
-        <v>1.204927017587747e-05</v>
+        <v>1.209054574735542e-05</v>
       </c>
       <c r="AC81" t="n">
-        <v>175.3200521025051</v>
+        <v>174.8271526377564</v>
       </c>
     </row>
     <row r="82">
@@ -8074,92 +8074,92 @@
         <v>1.16502380952381</v>
       </c>
       <c r="D82" t="n">
-        <v>4.591850358811731</v>
+        <v>4.580640756075723</v>
       </c>
       <c r="E82" t="n">
-        <v>6015.017675081494</v>
+        <v>5987.471045293312</v>
       </c>
       <c r="F82" t="n">
-        <v>2892.234942873257</v>
+        <v>2874.546840491932</v>
       </c>
       <c r="G82" t="n">
-        <v>1942.219479217095</v>
+        <v>1937.726153388753</v>
       </c>
       <c r="H82" t="n">
-        <v>971.255666055696</v>
+        <v>967.2756115277346</v>
       </c>
       <c r="I82" t="n">
-        <v>1191.252980012383</v>
+        <v>1186.69402087013</v>
       </c>
       <c r="J82" t="n">
         <v>60</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>[0.24756297 0.12107719 0.15366106 0.17013553]</t>
+          <t>[0.23371542 0.12048877 0.15347928 0.17006365]</t>
         </is>
       </c>
       <c r="L82" t="n">
-        <v>0.8971027284008568</v>
+        <v>0.8953851966712262</v>
       </c>
       <c r="M82" t="n">
-        <v>13.9556818999717</v>
+        <v>13.95399773572411</v>
       </c>
       <c r="N82" t="n">
         <v>0.38</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01471374533049239</v>
+        <v>0.01483796821217778</v>
       </c>
       <c r="P82" t="n">
-        <v>0.4151986844206974</v>
+        <v>0.4142883380708459</v>
       </c>
       <c r="Q82" t="n">
-        <v>2.379617426641839</v>
+        <v>1.475704781780948</v>
       </c>
       <c r="R82" t="n">
-        <v>10.11271247418988</v>
+        <v>10.05958829664797</v>
       </c>
       <c r="S82" t="n">
-        <v>135.2364736882911</v>
+        <v>138.2719256632778</v>
       </c>
       <c r="T82" t="n">
-        <v>5.213473802167906</v>
+        <v>5.203232052691946</v>
       </c>
       <c r="U82" t="n">
-        <v>39.62361871736363</v>
+        <v>39.38129171473948</v>
       </c>
       <c r="V82" t="n">
-        <v>86.74415725129401</v>
+        <v>86.69264723601248</v>
       </c>
       <c r="W82" t="n">
-        <v>21.6749051485741</v>
+        <v>21.61313721349634</v>
       </c>
       <c r="X82" t="n">
-        <v>26.48305725127879</v>
+        <v>26.38186158674212</v>
       </c>
       <c r="Y82" t="inlineStr">
         <is>
-          <t>[ 6.1890742   1.8161578   3.07322125 10.20813178]</t>
+          <t>[ 5.84288561  1.80733156  3.06958567 10.20381901]</t>
         </is>
       </c>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>[np.float64(0.0001376878932592174) np.float64(1.1924420515463078e-05)
- np.float64(6.340968015415984e-06) np.float64(2.61040217217723e-10)]</t>
+          <t>[np.float64(0.0001683368744220309) np.float64(1.1994052140373986e-05)
+ np.float64(6.3538523567058375e-06) np.float64(2.615143609086215e-10)]</t>
         </is>
       </c>
       <c r="AA82" t="inlineStr">
         <is>
-          <t>[np.float64(0.013432855063967592) np.float64(3.224518636971898e-05)
- np.float64(1.950100081447091e-05) np.float64(1.01331759141851e-08)]</t>
+          <t>[np.float64(0.013730379291671733) np.float64(3.2042099113592485e-05)
+ np.float64(1.946746566819713e-05) np.float64(1.012868162291067e-08)]</t>
         </is>
       </c>
       <c r="AB82" t="n">
-        <v>1.238340393947504e-05</v>
+        <v>1.242360541531037e-05</v>
       </c>
       <c r="AC82" t="n">
-        <v>180.3641555100528</v>
+        <v>179.8645500845592</v>
       </c>
     </row>
     <row r="83">
@@ -8173,92 +8173,92 @@
         <v>1.1725</v>
       </c>
       <c r="D83" t="n">
-        <v>4.591853870133378</v>
+        <v>4.581088925011311</v>
       </c>
       <c r="E83" t="n">
-        <v>6275.090269122982</v>
+        <v>6247.032732700412</v>
       </c>
       <c r="F83" t="n">
-        <v>3096.923220352225</v>
+        <v>3078.833012553638</v>
       </c>
       <c r="G83" t="n">
-        <v>1938.976218015007</v>
+        <v>1934.701744576783</v>
       </c>
       <c r="H83" t="n">
-        <v>1004.54000432931</v>
+        <v>1000.494563483702</v>
       </c>
       <c r="I83" t="n">
-        <v>1222.846258151051</v>
+        <v>1218.225234739925</v>
       </c>
       <c r="J83" t="n">
         <v>60</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>[0.25446072 0.11634715 0.14777858 0.16957293]</t>
+          <t>[0.24061036 0.11579513 0.1476072  0.16950276]</t>
         </is>
       </c>
       <c r="L83" t="n">
-        <v>0.873842331377941</v>
+        <v>0.8722189832288811</v>
       </c>
       <c r="M83" t="n">
-        <v>14.16945457969988</v>
+        <v>14.16774799970297</v>
       </c>
       <c r="N83" t="n">
         <v>0.38</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01429377986307528</v>
+        <v>0.01440965080463991</v>
       </c>
       <c r="P83" t="n">
-        <v>0.4005779579779944</v>
+        <v>0.3997268586610115</v>
       </c>
       <c r="Q83" t="n">
-        <v>2.394331171972331</v>
+        <v>1.490542749993125</v>
       </c>
       <c r="R83" t="n">
-        <v>10.52791115861058</v>
+        <v>10.47387663471881</v>
       </c>
       <c r="S83" t="n">
-        <v>130.6106292149285</v>
+        <v>133.7172470408012</v>
       </c>
       <c r="T83" t="n">
-        <v>4.701518758989366</v>
+        <v>4.692568501239026</v>
       </c>
       <c r="U83" t="n">
-        <v>42.42784811882549</v>
+        <v>42.18001227198484</v>
       </c>
       <c r="V83" t="n">
-        <v>86.5885316013032</v>
+        <v>86.54488640396406</v>
       </c>
       <c r="W83" t="n">
-        <v>22.41007098898194</v>
+        <v>22.34685883750521</v>
       </c>
       <c r="X83" t="n">
-        <v>27.18087190161435</v>
+        <v>27.07830539623324</v>
       </c>
       <c r="Y83" t="inlineStr">
         <is>
-          <t>[ 6.36151804  1.74520729  2.95557168 10.17437559]</t>
+          <t>[ 6.01525895  1.73692693  2.952144   10.17016566]</t>
         </is>
       </c>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>[np.float64(0.0001125458268462004) np.float64(1.2371345893447376e-05)
- np.float64(6.612409110110858e-06) np.float64(2.4643979798206706e-10)]</t>
+          <t>[np.float64(0.00013559598011689603) np.float64(1.2440184154316689e-05)
+ np.float64(6.625830302417507e-06) np.float64(2.4690869577154187e-10)]</t>
         </is>
       </c>
       <c r="AA83" t="inlineStr">
         <is>
-          <t>[np.float64(0.012975925720423139) np.float64(3.24619342742337e-05)
- np.float64(1.9667217844811763e-05) np.float64(1.0114082296826092e-08)]</t>
+          <t>[np.float64(0.013282072986462773) np.float64(3.225708508937428e-05)
+ np.float64(1.9633423966528175e-05) np.float64(1.0109696306051799e-08)]</t>
         </is>
       </c>
       <c r="AB83" t="n">
-        <v>1.272034430542168e-05</v>
+        <v>1.275951523526988e-05</v>
       </c>
       <c r="AC83" t="n">
-        <v>185.5776293122207</v>
+        <v>185.0677821372512</v>
       </c>
     </row>
     <row r="84">
@@ -8272,92 +8272,92 @@
         <v>1.179214285714286</v>
       </c>
       <c r="D84" t="n">
-        <v>4.583043908177315</v>
+        <v>4.572802467368057</v>
       </c>
       <c r="E84" t="n">
-        <v>6514.401690525915</v>
+        <v>6485.888578147158</v>
       </c>
       <c r="F84" t="n">
-        <v>3288.492013185273</v>
+        <v>3270.037116833758</v>
       </c>
       <c r="G84" t="n">
-        <v>1932.221869863039</v>
+        <v>1928.163118042952</v>
       </c>
       <c r="H84" t="n">
-        <v>1033.735997740468</v>
+        <v>1029.634976628205</v>
       </c>
       <c r="I84" t="n">
-        <v>1250.673167616508</v>
+        <v>1245.999170256988</v>
       </c>
       <c r="J84" t="n">
         <v>60</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>[0.26144881 0.11179171 0.14238073 0.16901817]</t>
+          <t>[0.24759585 0.11127363 0.14221911 0.1689496 ]</t>
         </is>
       </c>
       <c r="L84" t="n">
-        <v>0.9379797120048691</v>
+        <v>0.936621261492851</v>
       </c>
       <c r="M84" t="n">
-        <v>14.35824430501414</v>
+        <v>14.35651913945484</v>
       </c>
       <c r="N84" t="n">
         <v>0.38</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01101029760728561</v>
+        <v>0.01109519422218389</v>
       </c>
       <c r="P84" t="n">
-        <v>0.307813415718391</v>
+        <v>0.30728888629109</v>
       </c>
       <c r="Q84" t="n">
-        <v>2.408624951835407</v>
+        <v>1.504952400797765</v>
       </c>
       <c r="R84" t="n">
-        <v>10.92848911658858</v>
+        <v>10.87360349337982</v>
       </c>
       <c r="S84" t="n">
-        <v>126.4138475691771</v>
+        <v>129.5744430403925</v>
       </c>
       <c r="T84" t="n">
-        <v>4.361031174321953</v>
+        <v>4.354982091730575</v>
       </c>
       <c r="U84" t="n">
-        <v>45.05234058063824</v>
+        <v>44.79950850062249</v>
       </c>
       <c r="V84" t="n">
-        <v>86.27727199669864</v>
+        <v>86.24137216833228</v>
       </c>
       <c r="W84" t="n">
-        <v>23.05439006857443</v>
+        <v>22.98995133008796</v>
       </c>
       <c r="X84" t="n">
-        <v>27.79497700988016</v>
+        <v>27.69124143567543</v>
       </c>
       <c r="Y84" t="inlineStr">
         <is>
-          <t>[ 6.53622014  1.67687572  2.84761463 10.14109037]</t>
+          <t>[ 6.18989627  1.66910443  2.84438223 10.1369761 ]</t>
         </is>
       </c>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>[np.float64(9.507029444892657e-05) np.float64(1.2773551366257584e-05)
- np.float64(6.885620652247883e-06) np.float64(2.3537474814749924e-10)]</t>
+          <t>[np.float64(0.00011244686544403581) np.float64(1.2841472971531116e-05)
+ np.float64(6.899413408892552e-06) np.float64(2.3583850100198303e-10)]</t>
         </is>
       </c>
       <c r="AA84" t="inlineStr">
         <is>
-          <t>[np.float64(0.012560170558084694) np.float64(3.2622294557975525e-05)
- np.float64(1.9789265167998795e-05) np.float64(1.0091893679817365e-08)]</t>
+          <t>[np.float64(0.012872886463544899) np.float64(3.2416201135380354e-05)
+ np.float64(1.9755370596593716e-05) np.float64(1.0087608758586012e-08)]</t>
         </is>
       </c>
       <c r="AB84" t="n">
-        <v>1.305288097385463e-05</v>
+        <v>1.309109265762333e-05</v>
       </c>
       <c r="AC84" t="n">
-        <v>190.2791480712101</v>
+        <v>189.7603506384902</v>
       </c>
     </row>
     <row r="85">
@@ -8371,92 +8371,92 @@
         <v>1.18652380952381</v>
       </c>
       <c r="D85" t="n">
-        <v>4.567930805819311</v>
+        <v>4.558144026861921</v>
       </c>
       <c r="E85" t="n">
-        <v>6740.498341705106</v>
+        <v>6711.67161604042</v>
       </c>
       <c r="F85" t="n">
-        <v>3472.214921981324</v>
+        <v>3453.505187953853</v>
       </c>
       <c r="G85" t="n">
-        <v>1923.173023254731</v>
+        <v>1919.329827723162</v>
       </c>
       <c r="H85" t="n">
-        <v>1060.105327172281</v>
+        <v>1055.967729790499</v>
       </c>
       <c r="I85" t="n">
-        <v>1275.916920059692</v>
+        <v>1271.207907691716</v>
       </c>
       <c r="J85" t="n">
         <v>60</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>[0.27073895 0.10783826 0.13844675 0.16846657]</t>
+          <t>[0.256884   0.10734863 0.13828847 0.16839793]</t>
         </is>
       </c>
       <c r="L85" t="n">
-        <v>0.9594582529935982</v>
+        <v>0.9579442419788584</v>
       </c>
       <c r="M85" t="n">
-        <v>14.56590466634169</v>
+        <v>14.56416030385108</v>
       </c>
       <c r="N85" t="n">
         <v>0.25</v>
       </c>
       <c r="O85" t="n">
-        <v>0.00934778239292464</v>
+        <v>0.009416648334657031</v>
       </c>
       <c r="P85" t="n">
-        <v>0.2566742962772027</v>
+        <v>0.2562058110362985</v>
       </c>
       <c r="Q85" t="n">
-        <v>2.419635249442692</v>
+        <v>1.516047595019949</v>
       </c>
       <c r="R85" t="n">
-        <v>11.23630253230697</v>
+        <v>11.18089237967091</v>
       </c>
       <c r="S85" t="n">
-        <v>122.5344497305534</v>
+        <v>125.7363603054364</v>
       </c>
       <c r="T85" t="n">
-        <v>4.056502027569213</v>
+        <v>4.050363039993623</v>
       </c>
       <c r="U85" t="n">
-        <v>47.56934443114414</v>
+        <v>47.31302107496779</v>
       </c>
       <c r="V85" t="n">
-        <v>85.86445521249544</v>
+        <v>85.83632212113429</v>
       </c>
       <c r="W85" t="n">
-        <v>23.63588557944301</v>
+        <v>23.5706402623674</v>
       </c>
       <c r="X85" t="n">
-        <v>28.35165133719466</v>
+        <v>28.247143613274</v>
       </c>
       <c r="Y85" t="inlineStr">
         <is>
-          <t>[ 6.76847385  1.61757386  2.76893501 10.10799443]</t>
+          <t>[ 6.42210011  1.61022945  2.76576944 10.10387596]</t>
         </is>
       </c>
       <c r="Z85" t="inlineStr">
         <is>
-          <t>[np.float64(8.33078317161549e-05) np.float64(1.3198930964967381e-05)
- np.float64(7.191957687252366e-06) np.float64(2.2303244239867803e-10)]</t>
+          <t>[np.float64(9.62076322157404e-05) np.float64(1.3265827197917295e-05)
+ np.float64(7.206120028078752e-06) np.float64(2.234889838875306e-10)]</t>
         </is>
       </c>
       <c r="AA85" t="inlineStr">
         <is>
-          <t>[np.float64(0.012174558183096523) np.float64(3.278305103203092e-05)
- np.float64(1.9934581579467967e-05) np.float64(1.0071138249026582e-08)]</t>
+          <t>[np.float64(0.01249235580184119) np.float64(3.25757656167251e-05)
+ np.float64(1.9900580569859646e-05) np.float64(1.0066856661427566e-08)]</t>
         </is>
       </c>
       <c r="AB85" t="n">
-        <v>1.338385833925066e-05</v>
+        <v>1.342210880035231e-05</v>
       </c>
       <c r="AC85" t="n">
-        <v>194.6401792455321</v>
+        <v>194.1153327302208</v>
       </c>
     </row>
     <row r="86">
@@ -8470,92 +8470,92 @@
         <v>1.194095238095238</v>
       </c>
       <c r="D86" t="n">
-        <v>4.54773508862842</v>
+        <v>4.538477520767436</v>
       </c>
       <c r="E86" t="n">
-        <v>6955.118840694234</v>
+        <v>6925.967314852498</v>
       </c>
       <c r="F86" t="n">
-        <v>3649.436266018032</v>
+        <v>3630.458330564363</v>
       </c>
       <c r="G86" t="n">
-        <v>1912.132868458996</v>
+        <v>1908.494442871372</v>
       </c>
       <c r="H86" t="n">
-        <v>1083.881190450772</v>
+        <v>1079.707611396043</v>
       </c>
       <c r="I86" t="n">
-        <v>1298.807176165831</v>
+        <v>1294.063522376038</v>
       </c>
       <c r="J86" t="n">
         <v>60</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>[0.27590638 0.10423382 0.13551481 0.16792487]</t>
+          <t>[0.26204978 0.10377354 0.13535372 0.16785718]</t>
         </is>
       </c>
       <c r="L86" t="n">
-        <v>0.9093199523359426</v>
+        <v>0.9075819409863487</v>
       </c>
       <c r="M86" t="n">
-        <v>14.78227837694031</v>
+        <v>14.78051079942795</v>
       </c>
       <c r="N86" t="n">
         <v>0.13</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01160948901809475</v>
+        <v>0.01169037622450942</v>
       </c>
       <c r="P86" t="n">
-        <v>0.3054232231842102</v>
+        <v>0.3047669436627478</v>
       </c>
       <c r="Q86" t="n">
-        <v>2.428983031835617</v>
+        <v>1.525464243354606</v>
       </c>
       <c r="R86" t="n">
-        <v>11.49297682858417</v>
+        <v>11.43709819070721</v>
       </c>
       <c r="S86" t="n">
-        <v>118.8817212783465</v>
+        <v>122.1159837030674</v>
       </c>
       <c r="T86" t="n">
-        <v>4.559403443930894</v>
+        <v>4.550474825242118</v>
       </c>
       <c r="U86" t="n">
-        <v>49.99727684444704</v>
+        <v>49.73727912873178</v>
       </c>
       <c r="V86" t="n">
-        <v>85.36364205829651</v>
+        <v>85.34283678787278</v>
       </c>
       <c r="W86" t="n">
-        <v>24.1597555917255</v>
+        <v>24.09371746560535</v>
       </c>
       <c r="X86" t="n">
-        <v>28.85600815515805</v>
+        <v>28.75073715287143</v>
       </c>
       <c r="Y86" t="inlineStr">
         <is>
-          <t>[ 6.89765939  1.56350737  2.7102962  10.07549211]</t>
+          <t>[ 6.55124438  1.55660307  2.70707448 10.07143057]</t>
         </is>
       </c>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>[np.float64(7.400188723353372e-05) np.float64(1.3632097257455369e-05)
- np.float64(7.51036364850959e-06) np.float64(2.1069243102087834e-10)]</t>
+          <t>[np.float64(8.34965029502021e-05) np.float64(1.3697914450476455e-05)
+ np.float64(7.524439175073276e-06) np.float64(2.1114121614132446e-10)]</t>
         </is>
       </c>
       <c r="AA86" t="inlineStr">
         <is>
-          <t>[np.float64(0.011811291280475008) np.float64(3.294271134509105e-05)
- np.float64(2.0083396956555338e-05) np.float64(1.0050941445061856e-08)]</t>
+          <t>[np.float64(0.012133108018772203) np.float64(3.273473328928199e-05)
+ np.float64(2.0048896870140615e-05) np.float64(1.004672488925022e-08)]</t>
         </is>
       </c>
       <c r="AB86" t="n">
-        <v>1.370922649267592e-05</v>
+        <v>1.374690419958785e-05</v>
       </c>
       <c r="AC86" t="n">
-        <v>198.6966812731013</v>
+        <v>198.1656957702144</v>
       </c>
     </row>
     <row r="87">
@@ -8569,92 +8569,92 @@
         <v>1.201261904761905</v>
       </c>
       <c r="D87" t="n">
-        <v>4.528190566065306</v>
+        <v>4.519329036867708</v>
       </c>
       <c r="E87" t="n">
-        <v>7201.55428867435</v>
+        <v>7171.92017159596</v>
       </c>
       <c r="F87" t="n">
-        <v>3856.287140039742</v>
+        <v>3836.904131290347</v>
       </c>
       <c r="G87" t="n">
-        <v>1901.749953244388</v>
+        <v>1898.296157733415</v>
       </c>
       <c r="H87" t="n">
-        <v>1109.688849364956</v>
+        <v>1105.464731517482</v>
       </c>
       <c r="I87" t="n">
-        <v>1323.827024072426</v>
+        <v>1319.034374249631</v>
       </c>
       <c r="J87" t="n">
         <v>60</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>[0.27504398 0.10066742 0.13153196 0.16738621]</t>
+          <t>[0.26118548 0.10023414 0.13137895 0.16731945]</t>
         </is>
       </c>
       <c r="L87" t="n">
-        <v>0.8195310860474093</v>
+        <v>0.8181241161164223</v>
       </c>
       <c r="M87" t="n">
-        <v>14.98467994322248</v>
+        <v>14.98288476491504</v>
       </c>
       <c r="N87" t="n">
         <v>0.13</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01446340668383691</v>
+        <v>0.01455985275166151</v>
       </c>
       <c r="P87" t="n">
-        <v>0.3419319001397495</v>
+        <v>0.3412659712825024</v>
       </c>
       <c r="Q87" t="n">
-        <v>2.440592520853712</v>
+        <v>1.537154619579116</v>
       </c>
       <c r="R87" t="n">
-        <v>11.79840005176838</v>
+        <v>11.74186513436996</v>
       </c>
       <c r="S87" t="n">
-        <v>114.6383119337484</v>
+        <v>117.8992518828719</v>
       </c>
       <c r="T87" t="n">
-        <v>4.247934281338843</v>
+        <v>4.240680779368081</v>
       </c>
       <c r="U87" t="n">
-        <v>52.83113381854447</v>
+        <v>52.56558659867775</v>
       </c>
       <c r="V87" t="n">
-        <v>84.89166204511645</v>
+        <v>84.87733864967038</v>
       </c>
       <c r="W87" t="n">
-        <v>24.72790505804057</v>
+        <v>24.66075433243119</v>
       </c>
       <c r="X87" t="n">
-        <v>29.4068141497151</v>
+        <v>29.30046451142766</v>
       </c>
       <c r="Y87" t="inlineStr">
         <is>
-          <t>[ 6.87609952  1.51001125  2.63063911 10.04317248]</t>
+          <t>[ 6.52963691  1.50351208  2.62757901 10.03916717]</t>
         </is>
       </c>
       <c r="Z87" t="inlineStr">
         <is>
-          <t>[np.float64(6.61638268044492e-05) np.float64(1.4034571266753596e-05)
- np.float64(7.811740537932813e-06) np.float64(2.0028871891290866e-10)]</t>
+          <t>[np.float64(7.330964429814085e-05) np.float64(1.4098636650195763e-05)
+ np.float64(7.825736662482424e-06) np.float64(2.0073002654613855e-10)]</t>
         </is>
       </c>
       <c r="AA87" t="inlineStr">
         <is>
-          <t>[np.float64(0.011388957983476522) np.float64(3.3082467526470174e-05)
- np.float64(2.021099192057567e-05) np.float64(1.0028963733584646e-08)]</t>
+          <t>[np.float64(0.011714016415584094) np.float64(3.287380373305882e-05)
+ np.float64(2.017621492874224e-05) np.float64(1.0024811238557403e-08)]</t>
         </is>
       </c>
       <c r="AB87" t="n">
-        <v>1.403304072852771e-05</v>
+        <v>1.407015260246788e-05</v>
       </c>
       <c r="AC87" t="n">
-        <v>203.2560847170322</v>
+        <v>202.7161705954565</v>
       </c>
     </row>
     <row r="88">
@@ -8668,92 +8668,92 @@
         <v>1.208785714285715</v>
       </c>
       <c r="D88" t="n">
-        <v>4.504557471430462</v>
+        <v>4.496085303914366</v>
       </c>
       <c r="E88" t="n">
-        <v>7435.498263688201</v>
+        <v>7405.464678781115</v>
       </c>
       <c r="F88" t="n">
-        <v>4055.375690814387</v>
+        <v>4035.652731138316</v>
       </c>
       <c r="G88" t="n">
-        <v>1889.707924489541</v>
+        <v>1886.434966768725</v>
       </c>
       <c r="H88" t="n">
-        <v>1132.906117856688</v>
+        <v>1128.642355680557</v>
       </c>
       <c r="I88" t="n">
-        <v>1346.453407392713</v>
+        <v>1341.622122199139</v>
       </c>
       <c r="J88" t="n">
         <v>60</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>[0.27271163 0.0970641  0.12742829 0.16685348]</t>
+          <t>[0.25885088 0.0966579  0.12728361 0.16678761]</t>
         </is>
       </c>
       <c r="L88" t="n">
-        <v>0.9457018723788311</v>
+        <v>0.9443063650157273</v>
       </c>
       <c r="M88" t="n">
-        <v>15.19877337355134</v>
+        <v>15.19695063566365</v>
       </c>
       <c r="N88" t="n">
         <v>0.13</v>
       </c>
       <c r="O88" t="n">
-        <v>0.008561868504976755</v>
+        <v>0.008616444902161419</v>
       </c>
       <c r="P88" t="n">
-        <v>0.2242740253110774</v>
+        <v>0.2238926814327824</v>
       </c>
       <c r="Q88" t="n">
-        <v>2.455055927537549</v>
+        <v>1.551714472330777</v>
       </c>
       <c r="R88" t="n">
-        <v>12.14033195190813</v>
+        <v>12.08313110565246</v>
       </c>
       <c r="S88" t="n">
-        <v>110.691589121239</v>
+        <v>113.9718352601311</v>
       </c>
       <c r="T88" t="n">
-        <v>2.949258492495082</v>
+        <v>2.945434100725326</v>
       </c>
       <c r="U88" t="n">
-        <v>55.55864696415711</v>
+        <v>55.28844241659493</v>
       </c>
       <c r="V88" t="n">
-        <v>84.34661461054148</v>
+        <v>84.33864663987916</v>
       </c>
       <c r="W88" t="n">
-        <v>25.2386117199045</v>
+        <v>25.17058894413309</v>
       </c>
       <c r="X88" t="n">
-        <v>29.90452320190928</v>
+        <v>29.79732370735009</v>
       </c>
       <c r="Y88" t="inlineStr">
         <is>
-          <t>[ 6.81779081  1.45596149  2.5485659  10.01120886]</t>
+          <t>[ 6.47127195  1.44986851  2.54567211 10.00725679]</t>
         </is>
       </c>
       <c r="Z88" t="inlineStr">
         <is>
-          <t>[np.float64(6.191637118207341e-05) np.float64(1.444309773317366e-05)
- np.float64(8.124951440699937e-06) np.float64(1.8957567981196618e-10)]</t>
+          <t>[np.float64(6.744041209999573e-05) np.float64(1.4505368565475832e-05)
+ np.float64(8.138850710183676e-06) np.float64(1.9000841163952098e-10)]</t>
         </is>
       </c>
       <c r="AA88" t="inlineStr">
         <is>
-          <t>[np.float64(0.01099532238656779) np.float64(3.322687921856607e-05)
- np.float64(2.0343842342288397e-05) np.float64(1.0007623887851597e-08)]</t>
+          <t>[np.float64(0.011322727981160284) np.float64(3.301757789667148e-05)
+ np.float64(2.0308802561442602e-05) np.float64(1.0003533567036087e-08)]</t>
         </is>
       </c>
       <c r="AB88" t="n">
-        <v>1.435356957686762e-05</v>
+        <v>1.439014546674721e-05</v>
       </c>
       <c r="AC88" t="n">
-        <v>207.504018998371</v>
+        <v>206.9568513748246</v>
       </c>
     </row>
     <row r="89">
@@ -8767,92 +8767,92 @@
         <v>1.216214285714286</v>
       </c>
       <c r="D89" t="n">
-        <v>4.472615380062596</v>
+        <v>4.464680111917428</v>
       </c>
       <c r="E89" t="n">
-        <v>7599.715750181387</v>
+        <v>7569.469219543911</v>
       </c>
       <c r="F89" t="n">
-        <v>4196.114768667233</v>
+        <v>4176.209308416053</v>
       </c>
       <c r="G89" t="n">
-        <v>1874.51868968347</v>
+        <v>1871.425320925595</v>
       </c>
       <c r="H89" t="n">
-        <v>1148.462205755778</v>
+        <v>1144.178271534816</v>
       </c>
       <c r="I89" t="n">
-        <v>1361.514206201623</v>
+        <v>1356.663391219407</v>
       </c>
       <c r="J89" t="n">
         <v>60</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>[0.27361664 0.09407082 0.12501723 0.16631447]</t>
+          <t>[0.2597546  0.09368701 0.12487123 0.16624943]</t>
         </is>
       </c>
       <c r="L89" t="n">
-        <v>0.8008314604390778</v>
+        <v>0.799502290395638</v>
       </c>
       <c r="M89" t="n">
-        <v>15.40924816848578</v>
+        <v>15.40739996034512</v>
       </c>
       <c r="N89" t="n">
         <v>0.13</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01458247223675374</v>
+        <v>0.01466951787431753</v>
       </c>
       <c r="P89" t="n">
-        <v>0.3144663788893579</v>
+        <v>0.3138766230009242</v>
       </c>
       <c r="Q89" t="n">
-        <v>2.463617796042525</v>
+        <v>1.560330917232939</v>
       </c>
       <c r="R89" t="n">
-        <v>12.36460597721921</v>
+        <v>12.30702378708524</v>
       </c>
       <c r="S89" t="n">
-        <v>108.0299372051718</v>
+        <v>111.3218790911599</v>
       </c>
       <c r="T89" t="n">
-        <v>3.110041467022167</v>
+        <v>3.105288584988521</v>
       </c>
       <c r="U89" t="n">
-        <v>57.4867723307411</v>
+        <v>57.21406752529993</v>
       </c>
       <c r="V89" t="n">
-        <v>83.66327052304847</v>
+        <v>83.66164716635383</v>
       </c>
       <c r="W89" t="n">
-        <v>25.58050397532527</v>
+        <v>25.51203785763212</v>
       </c>
       <c r="X89" t="n">
-        <v>30.23552997601718</v>
+        <v>30.12790125506571</v>
       </c>
       <c r="Y89" t="inlineStr">
         <is>
-          <t>[6.84041608 1.41106228 2.50034454 9.97886826]</t>
+          <t>[6.49386488 1.40530517 2.49742455 9.97496563]</t>
         </is>
       </c>
       <c r="Z89" t="inlineStr">
         <is>
-          <t>[np.float64(5.933250532955356e-05) np.float64(1.4832777097819685e-05)
- np.float64(8.432967535981871e-06) np.float64(1.7977833167524084e-10)]</t>
+          <t>[np.float64(6.381472769066923e-05) np.float64(1.4893327817692162e-05)
+ np.float64(8.4467458668928e-06) np.float64(1.8020236323894147e-10)]</t>
         </is>
       </c>
       <c r="AA89" t="inlineStr">
         <is>
-          <t>[np.float64(0.01072957420711236) np.float64(3.3361214873024174e-05)
- np.float64(2.0465519236819974e-05) np.float64(9.984964203629745e-09)]</t>
+          <t>[np.float64(0.011058404094592902) np.float64(3.3151383741678416e-05)
+ np.float64(2.0430268087070995e-05) np.float64(9.980932377763001e-09)]</t>
         </is>
       </c>
       <c r="AB89" t="n">
-        <v>1.46781399004534e-05</v>
+        <v>1.471421784348386e-05</v>
       </c>
       <c r="AC89" t="n">
-        <v>210.4532774908661</v>
+        <v>209.9022854755499</v>
       </c>
     </row>
     <row r="90">
@@ -8866,92 +8866,92 @@
         <v>1.224809523809524</v>
       </c>
       <c r="D90" t="n">
-        <v>4.442443460529037</v>
+        <v>4.434870497464201</v>
       </c>
       <c r="E90" t="n">
-        <v>7774.781659507596</v>
+        <v>7744.267586580421</v>
       </c>
       <c r="F90" t="n">
-        <v>4347.191646532627</v>
+        <v>4327.055304929504</v>
       </c>
       <c r="G90" t="n">
-        <v>1860.339821589883</v>
+        <v>1857.41007079138</v>
       </c>
       <c r="H90" t="n">
-        <v>1164.265655484811</v>
+        <v>1159.957569839155</v>
       </c>
       <c r="I90" t="n">
-        <v>1376.712708615634</v>
+        <v>1371.838666711902</v>
       </c>
       <c r="J90" t="n">
         <v>60</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>[0.27168876 0.09091678 0.1214253  0.16578609]</t>
+          <t>[0.25782465 0.09055638 0.121287   0.16572187]</t>
         </is>
       </c>
       <c r="L90" t="n">
-        <v>0.7912878349512124</v>
+        <v>0.7900062306615516</v>
       </c>
       <c r="M90" t="n">
-        <v>15.66310799982878</v>
+        <v>15.66123043480215</v>
       </c>
       <c r="N90" t="n">
         <v>0</v>
       </c>
       <c r="O90" t="n">
-        <v>0.015311475945848</v>
+        <v>0.0153986883137676</v>
       </c>
       <c r="P90" t="n">
-        <v>0.3001094446089756</v>
+        <v>0.2995601417486656</v>
       </c>
       <c r="Q90" t="n">
-        <v>2.478200268279279</v>
+        <v>1.575000435107256</v>
       </c>
       <c r="R90" t="n">
-        <v>12.67907235610856</v>
+        <v>12.62090041008617</v>
       </c>
       <c r="S90" t="n">
-        <v>105.2241356184701</v>
+        <v>108.525999098815</v>
       </c>
       <c r="T90" t="n">
-        <v>4.124878777142614</v>
+        <v>4.118183200675901</v>
       </c>
       <c r="U90" t="n">
-        <v>59.556525557497</v>
+        <v>59.28065767753421</v>
       </c>
       <c r="V90" t="n">
-        <v>83.0246053323112</v>
+        <v>83.02867579163504</v>
       </c>
       <c r="W90" t="n">
-        <v>25.92753926524105</v>
+        <v>25.85854279519988</v>
       </c>
       <c r="X90" t="n">
-        <v>30.56928094697398</v>
+        <v>30.46114217526905</v>
       </c>
       <c r="Y90" t="inlineStr">
         <is>
-          <t>[6.79221909 1.36375176 2.428506   9.94716547]</t>
+          <t>[6.44561618 1.35834564 2.42574002 9.94331225]</t>
         </is>
       </c>
       <c r="Z90" t="inlineStr">
         <is>
-          <t>[np.float64(6.0151544818167876e-05) np.float64(1.5280465895976454e-05)
- np.float64(8.79221464382246e-06) np.float64(1.680711094394364e-10)]</t>
+          <t>[np.float64(6.389694043872456e-05) np.float64(1.533903698257251e-05)
+ np.float64(8.805864213837675e-06) np.float64(1.6848378685393137e-10)]</t>
         </is>
       </c>
       <c r="AA90" t="inlineStr">
         <is>
-          <t>[np.float64(0.010448512175344012) np.float64(3.352361234555443e-05)
- np.float64(2.06210464178265e-05) np.float64(9.964823709842086e-09)]</t>
+          <t>[np.float64(0.010778554220208913) np.float64(3.331319610466006e-05)
+ np.float64(2.0585510592995327e-05) np.float64(9.960853007914075e-09)]</t>
         </is>
       </c>
       <c r="AB90" t="n">
-        <v>1.499661706068803e-05</v>
+        <v>1.503219730582322e-05</v>
       </c>
       <c r="AC90" t="n">
-        <v>213.5633189578883</v>
+        <v>213.0075740605384</v>
       </c>
     </row>
     <row r="91">
@@ -8965,92 +8965,92 @@
         <v>1.231166666666667</v>
       </c>
       <c r="D91" t="n">
-        <v>4.419592499446741</v>
+        <v>4.41234803635176</v>
       </c>
       <c r="E91" t="n">
-        <v>8009.928626566931</v>
+        <v>7979.032858907881</v>
       </c>
       <c r="F91" t="n">
-        <v>4551.733675955459</v>
+        <v>4531.265318098611</v>
       </c>
       <c r="G91" t="n">
-        <v>1849.261327033849</v>
+        <v>1846.48038056525</v>
       </c>
       <c r="H91" t="n">
-        <v>1184.280021623947</v>
+        <v>1179.939448303826</v>
       </c>
       <c r="I91" t="n">
-        <v>1395.807764234222</v>
+        <v>1390.902726897185</v>
       </c>
       <c r="J91" t="n">
         <v>60</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>[0.26475519 0.08797318 0.11810813 0.16525969]</t>
+          <t>[0.25088892 0.08763447 0.11797701 0.16519625]</t>
         </is>
       </c>
       <c r="L91" t="n">
-        <v>0.7935947135498538</v>
+        <v>0.7923202915554947</v>
       </c>
       <c r="M91" t="n">
-        <v>15.83960367995679</v>
+        <v>15.83770689664617</v>
       </c>
       <c r="N91" t="n">
         <v>0</v>
       </c>
       <c r="O91" t="n">
-        <v>0.000670029422731026</v>
+        <v>0.0006736798332940079</v>
       </c>
       <c r="P91" t="n">
-        <v>0.2791268130962146</v>
+        <v>0.2786213041753637</v>
       </c>
       <c r="Q91" t="n">
-        <v>2.493511744225127</v>
+        <v>1.590399123421024</v>
       </c>
       <c r="R91" t="n">
-        <v>12.97918180071754</v>
+        <v>12.92046055183483</v>
       </c>
       <c r="S91" t="n">
-        <v>101.0736225741894</v>
+        <v>104.3638113004056</v>
       </c>
       <c r="T91" t="n">
-        <v>3.973999692201412</v>
+        <v>3.967548441664462</v>
       </c>
       <c r="U91" t="n">
-        <v>62.3587513605898</v>
+        <v>62.07833485795098</v>
       </c>
       <c r="V91" t="n">
-        <v>82.52221382465926</v>
+        <v>82.53137735653222</v>
       </c>
       <c r="W91" t="n">
-        <v>26.36661395306889</v>
+        <v>26.29690476919883</v>
       </c>
       <c r="X91" t="n">
-        <v>30.98818782249038</v>
+        <v>30.87936907370758</v>
       </c>
       <c r="Y91" t="inlineStr">
         <is>
-          <t>[6.61887965 1.31959764 2.36216253 9.91558157]</t>
+          <t>[6.27222288 1.3145171  2.3595401  9.91177517]</t>
         </is>
       </c>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>[np.float64(5.543883483049865e-05) np.float64(1.559950113846865e-05)
- np.float64(9.059410788568588e-06) np.float64(1.6183410878445722e-10)]</t>
+          <t>[np.float64(5.8785685993967333e-05) np.float64(1.565669229081229e-05)
+ np.float64(9.072920961996796e-06) np.float64(1.6224009180773092e-10)]</t>
         </is>
       </c>
       <c r="AA91" t="inlineStr">
         <is>
-          <t>[np.float64(0.010034917506357542) np.float64(3.361745516035357e-05)
- np.float64(2.0702157805615325e-05) np.float64(9.939316124777795e-09)]</t>
+          <t>[np.float64(0.010363878493085904) np.float64(3.3406722637867085e-05)
+ np.float64(2.066650617837871e-05) np.float64(9.935399279068816e-09)]</t>
         </is>
       </c>
       <c r="AB91" t="n">
-        <v>1.531406291788073e-05</v>
+        <v>1.534917154473782e-05</v>
       </c>
       <c r="AC91" t="n">
-        <v>217.6881977350309</v>
+        <v>217.1257572612143</v>
       </c>
     </row>
     <row r="92">
@@ -9064,92 +9064,92 @@
         <v>1.236714285714286</v>
       </c>
       <c r="D92" t="n">
-        <v>4.396344263184724</v>
+        <v>4.389581632612501</v>
       </c>
       <c r="E92" t="n">
-        <v>8238.611456256433</v>
+        <v>8207.344452980349</v>
       </c>
       <c r="F92" t="n">
-        <v>4751.815906411794</v>
+        <v>4731.022742139083</v>
       </c>
       <c r="G92" t="n">
-        <v>1838.126150551065</v>
+        <v>1835.486159903465</v>
       </c>
       <c r="H92" t="n">
-        <v>1202.871935677704</v>
+        <v>1198.501180901918</v>
       </c>
       <c r="I92" t="n">
-        <v>1413.437347095495</v>
+        <v>1408.503690517212</v>
       </c>
       <c r="J92" t="n">
         <v>60</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>[0.25886631 0.08525395 0.11509708 0.1647336 ]</t>
+          <t>[0.2450011  0.08493518 0.11497256 0.1646709 ]</t>
         </is>
       </c>
       <c r="L92" t="n">
-        <v>0.9910290961999673</v>
+        <v>0.9893275069406439</v>
       </c>
       <c r="M92" t="n">
-        <v>15.99423131669445</v>
+        <v>15.99231867316731</v>
       </c>
       <c r="N92" t="n">
         <v>0</v>
       </c>
       <c r="O92" t="n">
-        <v>0.0003087159248315891</v>
+        <v>0.0003102857012115952</v>
       </c>
       <c r="P92" t="n">
-        <v>0.1535197534787449</v>
+        <v>0.1532262329337156</v>
       </c>
       <c r="Q92" t="n">
-        <v>2.494181773647858</v>
+        <v>1.591072803254318</v>
       </c>
       <c r="R92" t="n">
-        <v>13.25830861381375</v>
+        <v>13.1990818560102</v>
       </c>
       <c r="S92" t="n">
-        <v>97.26305358484329</v>
+        <v>100.5609144653227</v>
       </c>
       <c r="T92" t="n">
-        <v>2.672596471601558</v>
+        <v>2.66821217377082</v>
       </c>
       <c r="U92" t="n">
-        <v>65.09987791784158</v>
+        <v>64.81501156730543</v>
       </c>
       <c r="V92" t="n">
-        <v>82.01750372623302</v>
+        <v>82.03145538683187</v>
       </c>
       <c r="W92" t="n">
-        <v>26.77418744228151</v>
+        <v>26.70381661802525</v>
       </c>
       <c r="X92" t="n">
-        <v>31.37466500710712</v>
+        <v>31.26521886493279</v>
       </c>
       <c r="Y92" t="inlineStr">
         <is>
-          <t>[6.47165769 1.27880932 2.30194154 9.884016  ]</t>
+          <t>[6.12502738 1.27402773 2.29945111 9.88025405]</t>
         </is>
       </c>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>[np.float64(5.1798671134581064e-05) np.float64(1.588075186034402e-05)
- np.float64(9.302555611324296e-06) np.float64(1.5736959968872304e-10)]</t>
+          <t>[np.float64(5.4872618031518946e-05) np.float64(1.5936754602785536e-05)
+ np.float64(9.315917853018522e-06) np.float64(1.5777052153906021e-10)]</t>
         </is>
       </c>
       <c r="AA92" t="inlineStr">
         <is>
-          <t>[np.float64(0.009654991852219675) np.float64(3.368668134234133e-05)
- np.float64(2.0758248073290863e-05) np.float64(9.912042831843828e-09)]</t>
+          <t>[np.float64(0.009984775701700825) np.float64(3.347572978646262e-05)
+ np.float64(2.0722539847695134e-05) np.float64(9.90817581921222e-09)]</t>
         </is>
       </c>
       <c r="AB92" t="n">
-        <v>1.563144093817774e-05</v>
+        <v>1.56661018459905e-05</v>
       </c>
       <c r="AC92" t="n">
-        <v>221.6621974272323</v>
+        <v>221.0933057028788</v>
       </c>
     </row>
     <row r="93">
@@ -9163,92 +9163,92 @@
         <v>1.242833333333334</v>
       </c>
       <c r="D93" t="n">
-        <v>4.365087638869958</v>
+        <v>4.358665151332637</v>
       </c>
       <c r="E93" t="n">
-        <v>8393.674409600266</v>
+        <v>8362.15303115861</v>
       </c>
       <c r="F93" t="n">
-        <v>4888.173837212265</v>
+        <v>4867.156982686811</v>
       </c>
       <c r="G93" t="n">
-        <v>1824.124771148501</v>
+        <v>1821.619908200179</v>
       </c>
       <c r="H93" t="n">
-        <v>1214.962415668427</v>
+        <v>1210.571826897588</v>
       </c>
       <c r="I93" t="n">
-        <v>1424.838840555129</v>
+        <v>1419.886480239274</v>
       </c>
       <c r="J93" t="n">
         <v>60</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>[0.25627214 0.08282017 0.11401676 0.16421925]</t>
+          <t>[0.24240736 0.08251912 0.11389084 0.16415727]</t>
         </is>
       </c>
       <c r="L93" t="n">
-        <v>0.9553943190567145</v>
+        <v>0.9539469038884326</v>
       </c>
       <c r="M93" t="n">
-        <v>16.16362170770932</v>
+        <v>16.16169267649588</v>
       </c>
       <c r="N93" t="n">
         <v>0</v>
       </c>
       <c r="O93" t="n">
-        <v>0.0003444698069897807</v>
+        <v>0.0003461330744234951</v>
       </c>
       <c r="P93" t="n">
-        <v>0.1619190369466966</v>
+        <v>0.1616430114276431</v>
       </c>
       <c r="Q93" t="n">
-        <v>2.494490489572689</v>
+        <v>1.591383088955529</v>
       </c>
       <c r="R93" t="n">
-        <v>13.4118283672925</v>
+        <v>13.35230808894391</v>
       </c>
       <c r="S93" t="n">
-        <v>94.758664548401</v>
+        <v>98.06182762736618</v>
       </c>
       <c r="T93" t="n">
-        <v>2.107860083757489</v>
+        <v>2.10527886656188</v>
       </c>
       <c r="U93" t="n">
-        <v>66.96798156980805</v>
+        <v>66.68005066280931</v>
       </c>
       <c r="V93" t="n">
-        <v>81.38744338817702</v>
+        <v>81.40596388880243</v>
       </c>
       <c r="W93" t="n">
-        <v>27.03906826873541</v>
+        <v>26.9682629170654</v>
       </c>
       <c r="X93" t="n">
-        <v>31.62445136899795</v>
+        <v>31.51459546133295</v>
       </c>
       <c r="Y93" t="inlineStr">
         <is>
-          <t>[6.40680338 1.24230255 2.28033513 9.85315502]</t>
+          <t>[6.06018411 1.23778681 2.27781673 9.84943611]</t>
         </is>
       </c>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>[np.float64(5.04658306234239e-05) np.float64(1.617152772556572e-05)
- np.float64(9.557672833919065e-06) np.float64(1.5209759717095543e-10)]</t>
+          <t>[np.float64(5.336159475807248e-05) np.float64(1.622630628040857e-05)
+ np.float64(9.5708827934848e-06) np.float64(1.5249230794070841e-10)]</t>
         </is>
       </c>
       <c r="AA93" t="inlineStr">
         <is>
-          <t>[np.float64(0.009404860391066451) np.float64(3.376627467698505e-05)
- np.float64(2.0827168601039138e-05) np.float64(9.886271918713538e-09)]</t>
+          <t>[np.float64(0.009735216290925811) np.float64(3.355509673669163e-05)
+ np.float64(2.0791396009205643e-05) np.float64(9.882454472087091e-09)]</t>
         </is>
       </c>
       <c r="AB93" t="n">
-        <v>1.594187009465834e-05</v>
+        <v>1.59760974532253e-05</v>
       </c>
       <c r="AC93" t="n">
-        <v>224.3347938988339</v>
+        <v>223.7615178766496</v>
       </c>
     </row>
     <row r="94">
@@ -9262,92 +9262,92 @@
         <v>1.250642857142857</v>
       </c>
       <c r="D94" t="n">
-        <v>4.331809433386914</v>
+        <v>4.32568521697807</v>
       </c>
       <c r="E94" t="n">
-        <v>8517.08848135763</v>
+        <v>8485.415974040458</v>
       </c>
       <c r="F94" t="n">
-        <v>4997.30478706491</v>
+        <v>4976.154294312467</v>
       </c>
       <c r="G94" t="n">
-        <v>1809.31386605957</v>
+        <v>1806.939782425826</v>
       </c>
       <c r="H94" t="n">
-        <v>1224.132081199999</v>
+        <v>1219.73026355371</v>
       </c>
       <c r="I94" t="n">
-        <v>1433.43150099342</v>
+        <v>1428.468618383866</v>
       </c>
       <c r="J94" t="n">
         <v>60</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>[0.25343371 0.08055181 0.11267777 0.16371096]</t>
+          <t>[0.23956941 0.0802672  0.11255049 0.16364969]</t>
         </is>
       </c>
       <c r="L94" t="n">
-        <v>0.8963289743477322</v>
+        <v>0.8952994464227351</v>
       </c>
       <c r="M94" t="n">
-        <v>16.38606739851648</v>
+        <v>16.38411779903387</v>
       </c>
       <c r="N94" t="n">
         <v>0</v>
       </c>
       <c r="O94" t="n">
-        <v>0.0004712621915825505</v>
+        <v>0.0004734317540795142</v>
       </c>
       <c r="P94" t="n">
-        <v>0.200128736213969</v>
+        <v>0.1998617006663244</v>
       </c>
       <c r="Q94" t="n">
-        <v>2.494834959379679</v>
+        <v>1.591729222029953</v>
       </c>
       <c r="R94" t="n">
-        <v>13.5737474042392</v>
+        <v>13.51395110037156</v>
       </c>
       <c r="S94" t="n">
-        <v>92.84378476781316</v>
+        <v>96.14914360372427</v>
       </c>
       <c r="T94" t="n">
-        <v>3.326993280628219</v>
+        <v>3.323565751148544</v>
       </c>
       <c r="U94" t="n">
-        <v>68.46307558278927</v>
+        <v>68.17331383208079</v>
       </c>
       <c r="V94" t="n">
-        <v>80.7223699843377</v>
+        <v>80.74531553409395</v>
       </c>
       <c r="W94" t="n">
-        <v>27.23981899207932</v>
+        <v>27.16876780757481</v>
       </c>
       <c r="X94" t="n">
-        <v>31.81256976791843</v>
+        <v>31.7024834965543</v>
       </c>
       <c r="Y94" t="inlineStr">
         <is>
-          <t>[6.33584276 1.20827711 2.25355531 9.82265739]</t>
+          <t>[5.98923525 1.204008   2.25100984 9.81898152]</t>
         </is>
       </c>
       <c r="Z94" t="inlineStr">
         <is>
-          <t>[np.float64(5.279400060609062e-05) np.float64(1.652068124237972e-05)
- np.float64(9.866501508196008e-06) np.float64(1.4397402196545604e-10)]</t>
+          <t>[np.float64(5.562613878299036e-05) np.float64(1.6573970054118912e-05)
+ np.float64(9.879550076303892e-06) np.float64(1.4435873516940678e-10)]</t>
         </is>
       </c>
       <c r="AA94" t="inlineStr">
         <is>
-          <t>[np.float64(0.009212598779689657) np.float64(3.3887236879687844e-05)
- np.float64(2.0944132672719204e-05) np.float64(9.863697240232036e-09)]</t>
+          <t>[np.float64(0.009543226659226987) np.float64(3.367575670733491e-05)
+ np.float64(2.090821924631159e-05) np.float64(9.859933140795956e-09)]</t>
         </is>
       </c>
       <c r="AB94" t="n">
-        <v>1.624885263152835e-05</v>
+        <v>1.628264649384966e-05</v>
       </c>
       <c r="AC94" t="n">
-        <v>226.4426539825914</v>
+        <v>225.8667967432115</v>
       </c>
     </row>
     <row r="95">
@@ -9361,92 +9361,92 @@
         <v>1.256476190476191</v>
       </c>
       <c r="D95" t="n">
-        <v>4.306777672987258</v>
+        <v>4.300928796506811</v>
       </c>
       <c r="E95" t="n">
-        <v>8714.163681108112</v>
+        <v>8682.28814330669</v>
       </c>
       <c r="F95" t="n">
-        <v>5172.80306780271</v>
+        <v>5151.471773503607</v>
       </c>
       <c r="G95" t="n">
-        <v>1797.97342485746</v>
+        <v>1795.720181425618</v>
       </c>
       <c r="H95" t="n">
-        <v>1237.851330462629</v>
+        <v>1233.4353789942</v>
       </c>
       <c r="I95" t="n">
-        <v>1446.179066620104</v>
+        <v>1441.203051234708</v>
       </c>
       <c r="J95" t="n">
         <v>60</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>[0.24969359 0.07842169 0.11042506 0.16320944]</t>
+          <t>[0.2358299  0.07815244 0.1102966  0.16314889]</t>
         </is>
       </c>
       <c r="L95" t="n">
-        <v>0.7667046216932326</v>
+        <v>0.7655372196453927</v>
       </c>
       <c r="M95" t="n">
-        <v>16.54750040804276</v>
+        <v>16.54553651971128</v>
       </c>
       <c r="N95" t="n">
         <v>0</v>
       </c>
       <c r="O95" t="n">
-        <v>0.0006465805514961586</v>
+        <v>0.0006494231089359663</v>
       </c>
       <c r="P95" t="n">
-        <v>0.2462461643170999</v>
+        <v>0.2458267084636963</v>
       </c>
       <c r="Q95" t="n">
-        <v>2.495306221571262</v>
+        <v>1.592202653784032</v>
       </c>
       <c r="R95" t="n">
-        <v>13.77387614045317</v>
+        <v>13.71381280103788</v>
       </c>
       <c r="S95" t="n">
-        <v>89.677890831791</v>
+        <v>92.98640424213364</v>
       </c>
       <c r="T95" t="n">
-        <v>3.732343850481116</v>
+        <v>3.726681539975393</v>
       </c>
       <c r="U95" t="n">
-        <v>70.86740202889713</v>
+        <v>70.57516329699942</v>
       </c>
       <c r="V95" t="n">
-        <v>80.20959584316661</v>
+        <v>80.23657974323562</v>
       </c>
       <c r="W95" t="n">
-        <v>27.5399055209059</v>
+        <v>27.46854518175716</v>
       </c>
       <c r="X95" t="n">
-        <v>32.0914022788431</v>
+        <v>31.9810287491137</v>
       </c>
       <c r="Y95" t="inlineStr">
         <is>
-          <t>[6.24233984 1.17632533 2.20850117 9.79256624]</t>
+          <t>[5.89574745 1.17228664 2.20593199 9.7889334 ]</t>
         </is>
       </c>
       <c r="Z95" t="inlineStr">
         <is>
-          <t>[np.float64(5.102741283457081e-05) np.float64(1.6785605038534532e-05)
- np.float64(1.0109119599306274e-05) np.float64(1.3970843766523338e-10)]</t>
+          <t>[np.float64(5.381323311781259e-05) np.float64(1.6837822300933513e-05)
+ np.float64(1.0122020289897238e-05) np.float64(1.4008754922904402e-10)]</t>
         </is>
       </c>
       <c r="AA95" t="inlineStr">
         <is>
-          <t>[np.float64(0.008896507789098392) np.float64(3.3955997777628514e-05)
- np.float64(2.100661457449243e-05) np.float64(9.837662971246623e-09)]</t>
+          <t>[np.float64(0.009227457002688167) np.float64(3.3744337895129886e-05)
+ np.float64(2.097064424832517e-05) np.float64(9.833947812107882e-09)]</t>
         </is>
       </c>
       <c r="AB95" t="n">
-        <v>1.655185116438471e-05</v>
+        <v>1.658521164013403e-05</v>
       </c>
       <c r="AC95" t="n">
-        <v>229.7696472632196</v>
+        <v>229.1903624943601</v>
       </c>
     </row>
     <row r="96">
@@ -9460,92 +9460,92 @@
         <v>1.261928571428572</v>
       </c>
       <c r="D96" t="n">
-        <v>4.28484428621592</v>
+        <v>4.279242538233274</v>
       </c>
       <c r="E96" t="n">
-        <v>8937.188232320419</v>
+        <v>8904.974345666385</v>
       </c>
       <c r="F96" t="n">
-        <v>5372.450397961278</v>
+        <v>5350.816220214057</v>
       </c>
       <c r="G96" t="n">
-        <v>1787.949691605517</v>
+        <v>1785.805197321801</v>
       </c>
       <c r="H96" t="n">
-        <v>1252.59643936278</v>
+        <v>1248.158118201638</v>
       </c>
       <c r="I96" t="n">
-        <v>1459.788660016375</v>
+        <v>1454.791997620213</v>
       </c>
       <c r="J96" t="n">
         <v>60</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>[0.24431482 0.07628641 0.10792253 0.16270371]</t>
+          <t>[0.23045198 0.0760323  0.10780037 0.16264387]</t>
         </is>
       </c>
       <c r="L96" t="n">
-        <v>0.6863703774523815</v>
+        <v>0.6854821543281018</v>
       </c>
       <c r="M96" t="n">
-        <v>16.69911643280154</v>
+        <v>16.69713430218956</v>
       </c>
       <c r="N96" t="n">
         <v>0</v>
       </c>
       <c r="O96" t="n">
-        <v>0.0008999460139515736</v>
+        <v>0.0009037349206421661</v>
       </c>
       <c r="P96" t="n">
-        <v>0.3004285318975083</v>
+        <v>0.2999868290898302</v>
       </c>
       <c r="Q96" t="n">
-        <v>2.495952802122758</v>
+        <v>1.592852076892968</v>
       </c>
       <c r="R96" t="n">
-        <v>14.02012230477027</v>
+        <v>13.95963950950157</v>
       </c>
       <c r="S96" t="n">
-        <v>86.09246772353193</v>
+        <v>89.40602662993427</v>
       </c>
       <c r="T96" t="n">
-        <v>3.42495307826055</v>
+        <v>3.420831237646641</v>
       </c>
       <c r="U96" t="n">
-        <v>73.60257045206951</v>
+        <v>73.30618221693258</v>
       </c>
       <c r="V96" t="n">
-        <v>79.75471320413713</v>
+        <v>79.78524423461114</v>
       </c>
       <c r="W96" t="n">
-        <v>27.86221604776212</v>
+        <v>27.79036673376127</v>
       </c>
       <c r="X96" t="n">
-        <v>32.38889178858869</v>
+        <v>32.2780669397837</v>
       </c>
       <c r="Y96" t="inlineStr">
         <is>
-          <t>[6.10787044 1.1442961  2.1584506  9.76222268]</t>
+          <t>[5.76129944 1.14048449 2.15600736 9.75863205]</t>
         </is>
       </c>
       <c r="Z96" t="inlineStr">
         <is>
-          <t>[np.float64(4.9508059315506426e-05) np.float64(1.7030253461457122e-05)
- np.float64(1.0339773711952893e-05) np.float64(1.3615451199822403e-10)]</t>
+          <t>[np.float64(5.224973892443391e-05) np.float64(1.708096115148866e-05)
+ np.float64(1.0352524916774284e-05) np.float64(1.3652878432043122e-10)]</t>
         </is>
       </c>
       <c r="AA96" t="inlineStr">
         <is>
-          <t>[np.float64(0.008538482449089887) np.float64(3.40140783371762e-05)
- np.float64(2.10593004638272e-05) np.float64(9.810653858993249e-09)]</t>
+          <t>[np.float64(0.008869949320016179) np.float64(3.380224442445982e-05)
+ np.float64(2.1023313473336927e-05) np.float64(9.806986038835523e-09)]</t>
         </is>
       </c>
       <c r="AB96" t="n">
-        <v>1.685748154358855e-05</v>
+        <v>1.689041702194374e-05</v>
       </c>
       <c r="AC96" t="n">
-        <v>233.5019911137007</v>
+        <v>232.9170440343355</v>
       </c>
     </row>
     <row r="97">
@@ -9559,92 +9559,92 @@
         <v>1.268166666666667</v>
       </c>
       <c r="D97" t="n">
-        <v>4.261320845525506</v>
+        <v>4.256170371022683</v>
       </c>
       <c r="E97" t="n">
-        <v>9143.526464892748</v>
+        <v>9111.064255622965</v>
       </c>
       <c r="F97" t="n">
-        <v>5558.060481227199</v>
+        <v>5536.202926644712</v>
       </c>
       <c r="G97" t="n">
-        <v>1777.526766148838</v>
+        <v>1775.488525821979</v>
       </c>
       <c r="H97" t="n">
-        <v>1265.563323435432</v>
+        <v>1261.109396971624</v>
       </c>
       <c r="I97" t="n">
-        <v>1471.678633295504</v>
+        <v>1466.667661630386</v>
       </c>
       <c r="J97" t="n">
         <v>60</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>[0.23698372 0.07406576 0.10517308 0.16220784]</t>
+          <t>[0.22312201 0.07382734 0.10505759 0.16214868]</t>
         </is>
       </c>
       <c r="L97" t="n">
-        <v>0.6542344077847814</v>
+        <v>0.6534622286640497</v>
       </c>
       <c r="M97" t="n">
-        <v>16.87105270715058</v>
+        <v>16.86905101529594</v>
       </c>
       <c r="N97" t="n">
         <v>0</v>
       </c>
       <c r="O97" t="n">
-        <v>0.001049455619549174</v>
+        <v>0.001053517355256097</v>
       </c>
       <c r="P97" t="n">
-        <v>0.3253082720013606</v>
+        <v>0.3248706542851587</v>
       </c>
       <c r="Q97" t="n">
-        <v>2.49685274813671</v>
+        <v>1.593755811813611</v>
       </c>
       <c r="R97" t="n">
-        <v>14.32055083666777</v>
+        <v>14.2596263385914</v>
       </c>
       <c r="S97" t="n">
-        <v>82.81595142193945</v>
+        <v>86.13180312739298</v>
       </c>
       <c r="T97" t="n">
-        <v>3.060817738330788</v>
+        <v>3.057781678751545</v>
       </c>
       <c r="U97" t="n">
-        <v>76.14542859281262</v>
+        <v>75.84598009503254</v>
       </c>
       <c r="V97" t="n">
-        <v>79.28266710797135</v>
+        <v>79.31666956916773</v>
       </c>
       <c r="W97" t="n">
-        <v>28.14547994584423</v>
+        <v>28.07328973121995</v>
       </c>
       <c r="X97" t="n">
-        <v>32.64863037808077</v>
+        <v>32.53749294074021</v>
       </c>
       <c r="Y97" t="inlineStr">
         <is>
-          <t>[5.92459294 1.11098646 2.10346161 9.73247035]</t>
+          <t>[5.57805032 1.10741012 2.10115173 9.72892062]</t>
         </is>
       </c>
       <c r="Z97" t="inlineStr">
         <is>
-          <t>[np.float64(4.995034845593724e-05) np.float64(1.7284954289980326e-05)
- np.float64(1.0587471949581011e-05) np.float64(1.3161373201451573e-10)]</t>
+          <t>[np.float64(5.272103633812769e-05) np.float64(1.7334054747238732e-05)
+ np.float64(1.0600069490853017e-05) np.float64(1.3198163246916462e-10)]</t>
         </is>
       </c>
       <c r="AA97" t="inlineStr">
         <is>
-          <t>[np.float64(0.008210880849722185) np.float64(3.4086524731053624e-05)
- np.float64(2.1130198951638634e-05) np.float64(9.785215676838814e-09)]</t>
+          <t>[np.float64(0.008542600536484219) np.float64(3.387450154012144e-05)
+ np.float64(2.1094177042186685e-05) np.float64(9.781595421333143e-09)]</t>
         </is>
       </c>
       <c r="AB97" t="n">
-        <v>1.715727116496999e-05</v>
+        <v>1.718979471548021e-05</v>
       </c>
       <c r="AC97" t="n">
-        <v>236.9269441919613</v>
+        <v>236.3378752719821</v>
       </c>
     </row>
     <row r="98">
@@ -9658,92 +9658,92 @@
         <v>1.275309523809524</v>
       </c>
       <c r="D98" t="n">
-        <v>4.234475332537349</v>
+        <v>4.229262030974597</v>
       </c>
       <c r="E98" t="n">
-        <v>9329.667272091274</v>
+        <v>9297.020427658897</v>
       </c>
       <c r="F98" t="n">
-        <v>5726.431046031839</v>
+        <v>5704.406482790281</v>
       </c>
       <c r="G98" t="n">
-        <v>1765.857858988015</v>
+        <v>1763.792916841892</v>
       </c>
       <c r="H98" t="n">
-        <v>1276.564245140865</v>
+        <v>1272.099406738948</v>
       </c>
       <c r="I98" t="n">
-        <v>1481.685812997562</v>
+        <v>1476.664915098216</v>
       </c>
       <c r="J98" t="n">
         <v>60</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>[0.22865449 0.07186717 0.10241451 0.16170823]</t>
+          <t>[0.21479399 0.07164434 0.10230526 0.16164981]</t>
         </is>
       </c>
       <c r="L98" t="n">
-        <v>0.8808012377846159</v>
+        <v>0.8798837404048238</v>
       </c>
       <c r="M98" t="n">
-        <v>17.06980574374306</v>
+        <v>17.06778235904072</v>
       </c>
       <c r="N98" t="n">
         <v>0.13</v>
       </c>
       <c r="O98" t="n">
-        <v>0.0003956216913181651</v>
+        <v>0.0003971715907647632</v>
       </c>
       <c r="P98" t="n">
-        <v>0.1718717311026909</v>
+        <v>0.1716633869612038</v>
       </c>
       <c r="Q98" t="n">
-        <v>2.497902203756259</v>
+        <v>1.594809329168867</v>
       </c>
       <c r="R98" t="n">
-        <v>14.64585910866913</v>
+        <v>14.58449699287656</v>
       </c>
       <c r="S98" t="n">
-        <v>79.9128603305784</v>
+        <v>83.22836182228644</v>
       </c>
       <c r="T98" t="n">
-        <v>2.53151706102194</v>
+        <v>2.529517430933884</v>
       </c>
       <c r="U98" t="n">
-        <v>78.45210533063619</v>
+        <v>78.15036881422685</v>
       </c>
       <c r="V98" t="n">
-        <v>78.75581345777894</v>
+        <v>78.78733265992588</v>
       </c>
       <c r="W98" t="n">
-        <v>28.38562548295645</v>
+        <v>28.31319706526989</v>
       </c>
       <c r="X98" t="n">
-        <v>32.86708294131848</v>
+        <v>32.75572881842068</v>
       </c>
       <c r="Y98" t="inlineStr">
         <is>
-          <t>[5.71636222 1.07800759 2.04829011 9.70249371]</t>
+          <t>[5.36984975 1.07466515 2.04610512 9.69898858]</t>
         </is>
       </c>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>[np.float64(5.235360608512452e-05) np.float64(1.7553647499031964e-05)
- np.float64(1.0858869276569904e-05) np.float64(1.2590604059027233e-10)]</t>
+          <t>[np.float64(5.528854145522787e-05) np.float64(1.7601012236732887e-05)
+ np.float64(1.0871257302477593e-05) np.float64(1.262656390779032e-10)]</t>
         </is>
       </c>
       <c r="AA98" t="inlineStr">
         <is>
-          <t>[np.float64(0.007920142223940807) np.float64(3.4176868795641595e-05)
- np.float64(2.1223128453565154e-05) np.float64(9.760703836445266e-09)]</t>
+          <t>[np.float64(0.008251845500905804) np.float64(3.396466381531991e-05)
+ np.float64(2.1187030761480872e-05) np.float64(9.75713678620809e-09)]</t>
         </is>
       </c>
       <c r="AB98" t="n">
-        <v>1.74594664831479e-05</v>
+        <v>1.749154100064335e-05</v>
       </c>
       <c r="AC98" t="n">
-        <v>239.9877619302921</v>
+        <v>239.3956569507337</v>
       </c>
     </row>
     <row r="99">
@@ -9757,92 +9757,92 @@
         <v>1.2815</v>
       </c>
       <c r="D99" t="n">
-        <v>4.207500239996083</v>
+        <v>4.202524903066653</v>
       </c>
       <c r="E99" t="n">
-        <v>9485.289906064634</v>
+        <v>9452.520136250452</v>
       </c>
       <c r="F99" t="n">
-        <v>5868.086178076009</v>
+        <v>5845.949722298342</v>
       </c>
       <c r="G99" t="n">
-        <v>1754.169363683508</v>
+        <v>1752.206357846967</v>
       </c>
       <c r="H99" t="n">
-        <v>1285.09458866309</v>
+        <v>1280.623012194173</v>
       </c>
       <c r="I99" t="n">
-        <v>1489.369414583326</v>
+        <v>1484.34244745334</v>
       </c>
       <c r="J99" t="n">
         <v>60</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>[0.23058648 0.07018075 0.10064511 0.16121018]</t>
+          <t>[0.21672647 0.06997009 0.10053388 0.16115262]</t>
         </is>
       </c>
       <c r="L99" t="n">
-        <v>0.6779949489174042</v>
+        <v>0.677148387010393</v>
       </c>
       <c r="M99" t="n">
-        <v>17.23992114721741</v>
+        <v>17.2378797508368</v>
       </c>
       <c r="N99" t="n">
         <v>0.13</v>
       </c>
       <c r="O99" t="n">
-        <v>0.01611925482541053</v>
+        <v>0.01617951623114149</v>
       </c>
       <c r="P99" t="n">
-        <v>0.2543800563005681</v>
+        <v>0.2540201565650375</v>
       </c>
       <c r="Q99" t="n">
-        <v>2.498297825447577</v>
+        <v>1.595206500759631</v>
       </c>
       <c r="R99" t="n">
-        <v>14.81773083977182</v>
+        <v>14.75616037983777</v>
       </c>
       <c r="S99" t="n">
-        <v>77.59925169624458</v>
+        <v>80.9153407433371</v>
       </c>
       <c r="T99" t="n">
-        <v>3.171649011768441</v>
+        <v>3.168100016331798</v>
       </c>
       <c r="U99" t="n">
-        <v>80.39278063964133</v>
+        <v>80.08951119548729</v>
       </c>
       <c r="V99" t="n">
-        <v>78.2292109569205</v>
+        <v>78.26408783368746</v>
       </c>
       <c r="W99" t="n">
-        <v>28.57168700017393</v>
+        <v>28.49911161361492</v>
       </c>
       <c r="X99" t="n">
-        <v>33.03467555526389</v>
+        <v>32.92318905196915</v>
       </c>
       <c r="Y99" t="inlineStr">
         <is>
-          <t>[5.76466196 1.05271119 2.01290214 9.67261098]</t>
+          <t>[5.41816183 1.04955134 2.01067764 9.66915725]</t>
         </is>
       </c>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>[np.float64(5.4134121555669915e-05) np.float64(1.7780742600297687e-05)
- np.float64(1.1096249588689502e-05) np.float64(1.2186384500552554e-10)]</t>
+          <t>[np.float64(5.7237210396805604e-05) np.float64(1.7826699452920264e-05)
+ np.float64(1.1108383716963985e-05) np.float64(1.2221730277545915e-10)]</t>
         </is>
       </c>
       <c r="AA99" t="inlineStr">
         <is>
-          <t>[np.float64(0.007688124388135634) np.float64(3.424309336449569e-05)
- np.float64(2.1289613186329046e-05) np.float64(9.734610897562379e-09)]</t>
+          <t>[np.float64(0.008019859503327434) np.float64(3.403079182325076e-05)
+ np.float64(2.1253443929275506e-05) np.float64(9.73110173445147e-09)]</t>
         </is>
       </c>
       <c r="AB99" t="n">
-        <v>1.776081782782424e-05</v>
+        <v>1.7792374881234e-05</v>
       </c>
       <c r="AC99" t="n">
-        <v>242.519278991314</v>
+        <v>241.9251743816675</v>
       </c>
     </row>
     <row r="100">
@@ -9856,92 +9856,92 @@
         <v>1.288142857142857</v>
       </c>
       <c r="D100" t="n">
-        <v>4.183255673460392</v>
+        <v>4.178341665092916</v>
       </c>
       <c r="E100" t="n">
-        <v>9682.103377877465</v>
+        <v>9649.113378740698</v>
       </c>
       <c r="F100" t="n">
-        <v>6048.209867479111</v>
+        <v>6025.871857825416</v>
       </c>
       <c r="G100" t="n">
-        <v>1743.856435816788</v>
+        <v>1741.860470651242</v>
       </c>
       <c r="H100" t="n">
-        <v>1295.151757072726</v>
+        <v>1290.668926885425</v>
       </c>
       <c r="I100" t="n">
-        <v>1498.344063167298</v>
+        <v>1493.307053631373</v>
       </c>
       <c r="J100" t="n">
         <v>60</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>[0.22888846 0.06842041 0.09852326 0.1607234 ]</t>
+          <t>[0.21502709 0.06822242 0.09841664 0.1606667 ]</t>
         </is>
       </c>
       <c r="L100" t="n">
-        <v>0.8837176055398879</v>
+        <v>0.8827827721743235</v>
       </c>
       <c r="M100" t="n">
-        <v>17.42273902185541</v>
+        <v>17.42067905277824</v>
       </c>
       <c r="N100" t="n">
         <v>0.13</v>
       </c>
       <c r="O100" t="n">
-        <v>0.007643181300695783</v>
+        <v>0.00767140226567319</v>
       </c>
       <c r="P100" t="n">
-        <v>0.1513547795494281</v>
+        <v>0.1511693464393241</v>
       </c>
       <c r="Q100" t="n">
-        <v>2.514417080272987</v>
+        <v>1.611386016990773</v>
       </c>
       <c r="R100" t="n">
-        <v>15.07211089607239</v>
+        <v>15.0101805364028</v>
       </c>
       <c r="S100" t="n">
-        <v>74.6558453115432</v>
+        <v>77.97385210157906</v>
       </c>
       <c r="T100" t="n">
-        <v>2.172580377624312</v>
+        <v>2.171053207521798</v>
       </c>
       <c r="U100" t="n">
-        <v>82.86047518446384</v>
+        <v>82.5544444522082</v>
       </c>
       <c r="V100" t="n">
-        <v>77.76263715060949</v>
+        <v>77.7948659179132</v>
       </c>
       <c r="W100" t="n">
-        <v>28.79089555712245</v>
+        <v>28.71807488170412</v>
       </c>
       <c r="X100" t="n">
-        <v>33.23028923946228</v>
+        <v>33.11858384937711</v>
       </c>
       <c r="Y100" t="inlineStr">
         <is>
-          <t>[5.72221161 1.02630617 1.97046511 9.64340406]</t>
+          <t>[5.37567723 1.02333631 1.96833286 9.64000198]</t>
         </is>
       </c>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>[np.float64(5.5996468109008116e-05) np.float64(1.8008985734752566e-05)
- np.float64(1.1341430292870232e-05) np.float64(1.1739042427573474e-10)]</t>
+          <t>[np.float64(5.9276285598767515e-05) np.float64(1.8053513385919586e-05)
+ np.float64(1.1353294188469253e-05) np.float64(1.1773683968935218e-10)]</t>
         </is>
       </c>
       <c r="AA100" t="inlineStr">
         <is>
-          <t>[np.float64(0.007393254269314492) np.float64(3.431805894706767e-05)
- np.float64(2.136591178467401e-05) np.float64(9.70961952481028e-09)]</t>
+          <t>[np.float64(0.007725167586259663) np.float64(3.410565558174392e-05)
+ np.float64(2.1329655605835342e-05) np.float64(9.706169413126536e-09)]</t>
         </is>
       </c>
       <c r="AB100" t="n">
-        <v>1.805546576264313e-05</v>
+        <v>1.80865027253444e-05</v>
       </c>
       <c r="AC100" t="n">
-        <v>245.6909280030824</v>
+        <v>245.0932743979994</v>
       </c>
     </row>
     <row r="101">
@@ -9955,92 +9955,92 @@
         <v>1.295071428571429</v>
       </c>
       <c r="D101" t="n">
-        <v>4.15573295139764</v>
+        <v>4.151045328208239</v>
       </c>
       <c r="E101" t="n">
-        <v>9818.290859616809</v>
+        <v>9785.205130327735</v>
       </c>
       <c r="F101" t="n">
-        <v>6173.572389955631</v>
+        <v>6151.146259329164</v>
       </c>
       <c r="G101" t="n">
-        <v>1732.190112270948</v>
+        <v>1730.289692505498</v>
       </c>
       <c r="H101" t="n">
-        <v>1301.568132998102</v>
+        <v>1297.080792553054</v>
       </c>
       <c r="I101" t="n">
-        <v>1504.006814536637</v>
+        <v>1498.965824487642</v>
       </c>
       <c r="J101" t="n">
         <v>60</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>[0.23092823 0.06690656 0.09712681 0.16023415]</t>
+          <t>[0.2170662  0.06671944 0.09701826 0.16017826]</t>
         </is>
       </c>
       <c r="L101" t="n">
-        <v>0.7751554402620371</v>
+        <v>0.7739986855315345</v>
       </c>
       <c r="M101" t="n">
-        <v>17.61396208220789</v>
+        <v>17.6118837712133</v>
       </c>
       <c r="N101" t="n">
         <v>0.13</v>
       </c>
       <c r="O101" t="n">
-        <v>0.01011199826414083</v>
+        <v>0.01014761175911561</v>
       </c>
       <c r="P101" t="n">
-        <v>0.1790395677545412</v>
+        <v>0.1787432051112689</v>
       </c>
       <c r="Q101" t="n">
-        <v>2.522060261573683</v>
+        <v>1.619057419256446</v>
       </c>
       <c r="R101" t="n">
-        <v>15.22346567562182</v>
+        <v>15.16134988284213</v>
       </c>
       <c r="S101" t="n">
-        <v>72.72130722463299</v>
+        <v>76.03911170125005</v>
       </c>
       <c r="T101" t="n">
-        <v>2.556860551105967</v>
+        <v>2.553394464442635</v>
       </c>
       <c r="U101" t="n">
-        <v>84.57794174239216</v>
+        <v>84.27070375280954</v>
       </c>
       <c r="V101" t="n">
-        <v>77.23785419653582</v>
+        <v>77.2732348098678</v>
       </c>
       <c r="W101" t="n">
-        <v>28.93064193321432</v>
+        <v>28.85772302599306</v>
       </c>
       <c r="X101" t="n">
-        <v>33.35362194187528</v>
+        <v>33.24182985763704</v>
       </c>
       <c r="Y101" t="inlineStr">
         <is>
-          <t>[5.77320571 1.00359838 1.94253615 9.61404875]</t>
+          <t>[5.42665506 1.00079165 1.94036518 9.61069574]</t>
         </is>
       </c>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>[np.float64(5.791764023624969e-05) np.float64(1.8233272722821827e-05)
- np.float64(1.1589556306186133e-05) np.float64(1.1275253204098993e-10)]</t>
+          <t>[np.float64(6.140681203535999e-05) np.float64(1.8276392644419175e-05)
+ np.float64(1.1601147386525688e-05) np.float64(1.13091352463596e-10)]</t>
         </is>
       </c>
       <c r="AA101" t="inlineStr">
         <is>
-          <t>[np.float64(0.007199063605401704) np.float64(3.4397856666511494e-05)
- np.float64(2.1447490748411546e-05) np.float64(9.684631213426146e-09)]</t>
+          <t>[np.float64(0.007530920317356012) np.float64(3.4185353380963264e-05)
+ np.float64(2.141114848524525e-05) np.float64(9.681238099672136e-09)]</t>
         </is>
       </c>
       <c r="AB101" t="n">
-        <v>1.835172779883193e-05</v>
+        <v>1.838227073214596e-05</v>
       </c>
       <c r="AC101" t="n">
-        <v>247.8635083807067</v>
+        <v>247.2643276055211</v>
       </c>
     </row>
     <row r="102">
@@ -10054,92 +10054,92 @@
         <v>1.302261904761905</v>
       </c>
       <c r="D102" t="n">
-        <v>4.130989875206183</v>
+        <v>4.126506526955647</v>
       </c>
       <c r="E102" t="n">
-        <v>9980.272838004017</v>
+        <v>9946.967525533239</v>
       </c>
       <c r="F102" t="n">
-        <v>6323.576958055236</v>
+        <v>6300.947480854899</v>
       </c>
       <c r="G102" t="n">
-        <v>1721.688822369103</v>
+        <v>1719.874666535781</v>
       </c>
       <c r="H102" t="n">
-        <v>1308.526415983964</v>
+        <v>1304.02964287281</v>
       </c>
       <c r="I102" t="n">
-        <v>1510.068385421078</v>
+        <v>1505.019178291182</v>
       </c>
       <c r="J102" t="n">
         <v>60</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>[0.23187421 0.06547989 0.09549685 0.15975411]</t>
+          <t>[0.21801139 0.065303   0.0953922  0.15969905]</t>
         </is>
       </c>
       <c r="L102" t="n">
-        <v>0.6206991383599381</v>
+        <v>0.6200486017983035</v>
       </c>
       <c r="M102" t="n">
-        <v>17.81325132698622</v>
+        <v>17.81115466132431</v>
       </c>
       <c r="N102" t="n">
         <v>0.13</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02112937091855633</v>
+        <v>0.02120053824807984</v>
       </c>
       <c r="P102" t="n">
-        <v>0.2858990298162891</v>
+        <v>0.2855539245595651</v>
       </c>
       <c r="Q102" t="n">
-        <v>2.532172259837824</v>
+        <v>1.629205031015562</v>
       </c>
       <c r="R102" t="n">
-        <v>15.40250524337636</v>
+        <v>15.3400930879534</v>
       </c>
       <c r="S102" t="n">
-        <v>70.41229650845905</v>
+        <v>73.73199100346172</v>
       </c>
       <c r="T102" t="n">
-        <v>2.572957893463183</v>
+        <v>2.571187014915129</v>
       </c>
       <c r="U102" t="n">
-        <v>86.63300432535675</v>
+        <v>86.32298048771212</v>
       </c>
       <c r="V102" t="n">
-        <v>76.76425902275916</v>
+        <v>76.80242237248305</v>
       </c>
       <c r="W102" t="n">
-        <v>29.08207032414361</v>
+        <v>29.00894614021063</v>
       </c>
       <c r="X102" t="n">
-        <v>33.48553579582456</v>
+        <v>33.37356488883056</v>
       </c>
       <c r="Y102" t="inlineStr">
         <is>
-          <t>[5.79685519 0.98219832 1.90993705 9.58524687]</t>
+          <t>[5.45028463 0.97954493 1.90784408 9.58194317]</t>
         </is>
       </c>
       <c r="Z102" t="inlineStr">
         <is>
-          <t>[np.float64(5.9539188487515554e-05) np.float64(1.8454159893790123e-05)
- np.float64(1.1841380158452383e-05) np.float64(1.0801832984842939e-10)]</t>
+          <t>[np.float64(6.321661009907792e-05) np.float64(1.8495891709904546e-05)
+ np.float64(1.1852687354904486e-05) np.float64(1.0834909245274596e-10)]</t>
         </is>
       </c>
       <c r="AA102" t="inlineStr">
         <is>
-          <t>[np.float64(0.00696754052856612) np.float64(3.4482179303525315e-05)
- np.float64(2.153488411914713e-05) np.float64(9.6602859860403e-09)]</t>
+          <t>[np.float64(0.0072995556330701) np.float64(3.426957650274725e-05)
+ np.float64(2.1498444148416328e-05) np.float64(9.656950572968087e-09)]</t>
         </is>
       </c>
       <c r="AB102" t="n">
-        <v>1.8642522094616e-05</v>
+        <v>1.867256859929494e-05</v>
       </c>
       <c r="AC102" t="n">
-        <v>250.4203689318127</v>
+        <v>249.8177220699638</v>
       </c>
     </row>
     <row r="103">
@@ -10153,92 +10153,92 @@
         <v>1.310761904761905</v>
       </c>
       <c r="D103" t="n">
-        <v>4.09639147918805</v>
+        <v>4.091881633739951</v>
       </c>
       <c r="E103" t="n">
-        <v>10144.88338203987</v>
+        <v>10111.46477378529</v>
       </c>
       <c r="F103" t="n">
-        <v>6476.776464020602</v>
+        <v>6454.041544862052</v>
       </c>
       <c r="G103" t="n">
-        <v>1707.035997076159</v>
+        <v>1705.205520454884</v>
       </c>
       <c r="H103" t="n">
-        <v>1314.999137733374</v>
+        <v>1310.49790967015</v>
       </c>
       <c r="I103" t="n">
-        <v>1515.523534984275</v>
+        <v>1510.470573262295</v>
       </c>
       <c r="J103" t="n">
         <v>60</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>[0.22855223 0.06388888 0.09344805 0.15926848]</t>
+          <t>[0.21468778 0.06372336 0.09334825 0.15921421]</t>
         </is>
       </c>
       <c r="L103" t="n">
-        <v>0.6094702327035896</v>
+        <v>0.6088637330150991</v>
       </c>
       <c r="M103" t="n">
-        <v>18.05929084623084</v>
+        <v>18.0571726578087</v>
       </c>
       <c r="N103" t="n">
         <v>0.25</v>
       </c>
       <c r="O103" t="n">
-        <v>0.02206434405191254</v>
+        <v>0.02213910049433293</v>
       </c>
       <c r="P103" t="n">
-        <v>0.2859161685345133</v>
+        <v>0.285584647985502</v>
       </c>
       <c r="Q103" t="n">
-        <v>2.55330163075638</v>
+        <v>1.650405569263642</v>
       </c>
       <c r="R103" t="n">
-        <v>15.68840427319265</v>
+        <v>15.62564701251296</v>
       </c>
       <c r="S103" t="n">
-        <v>68.11309404270662</v>
+        <v>71.43185725608178</v>
       </c>
       <c r="T103" t="n">
-        <v>2.454258210523978</v>
+        <v>2.452833520150079</v>
       </c>
       <c r="U103" t="n">
-        <v>88.73183755708227</v>
+        <v>88.42036916461012</v>
       </c>
       <c r="V103" t="n">
-        <v>76.10551744500513</v>
+        <v>76.14159983691454</v>
       </c>
       <c r="W103" t="n">
-        <v>29.2228154204929</v>
+        <v>29.14959436654409</v>
       </c>
       <c r="X103" t="n">
-        <v>33.60415445125216</v>
+        <v>33.49210190311167</v>
       </c>
       <c r="Y103" t="inlineStr">
         <is>
-          <t>[5.71380579 0.95833327 1.86896093 9.55610905]</t>
+          <t>[5.36719462 0.9558504  1.86696498 9.55285235]</t>
         </is>
       </c>
       <c r="Z103" t="inlineStr">
         <is>
-          <t>[np.float64(6.355226260730895e-05) np.float64(1.870656435834767e-05)
- np.float64(1.2137812919749967e-05) np.float64(1.0203776083832877e-10)]</t>
+          <t>[np.float64(6.750304532465281e-05) np.float64(1.8746679984299573e-05)
+ np.float64(1.2148788401117445e-05) np.float64(1.0235792511741964e-10)]</t>
         </is>
       </c>
       <c r="AA103" t="inlineStr">
         <is>
-          <t>[np.float64(0.006736560149861512) np.float64(3.459256538866424e-05)
- np.float64(2.1651157404860234e-05) np.float64(9.636832806007164e-09)]</t>
+          <t>[np.float64(0.0070684790227455675) np.float64(3.4379841865404785e-05)
+ np.float64(2.1614592107479895e-05) np.float64(9.63355529437876e-09)]</t>
         </is>
       </c>
       <c r="AB103" t="n">
-        <v>1.893685958504835e-05</v>
+        <v>1.896643305854149e-05</v>
       </c>
       <c r="AC103" t="n">
-        <v>252.9933268252759</v>
+        <v>252.3889090848789</v>
       </c>
     </row>
     <row r="104">
@@ -10252,92 +10252,92 @@
         <v>1.319452380952381</v>
       </c>
       <c r="D104" t="n">
-        <v>4.059911104371032</v>
+        <v>4.055463017893786</v>
       </c>
       <c r="E104" t="n">
-        <v>10303.23955438503</v>
+        <v>10269.72902079292</v>
       </c>
       <c r="F104" t="n">
-        <v>6624.558968515172</v>
+        <v>6601.7382620052</v>
       </c>
       <c r="G104" t="n">
-        <v>1691.787231125371</v>
+        <v>1689.94441621373</v>
       </c>
       <c r="H104" t="n">
-        <v>1320.822120413609</v>
+        <v>1316.317512124402</v>
       </c>
       <c r="I104" t="n">
-        <v>1519.977113894271</v>
+        <v>1514.92156688156</v>
       </c>
       <c r="J104" t="n">
         <v>60</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>[0.22985095 0.06238774 0.09147289 0.15879468]</t>
+          <t>[0.2159848  0.06223293 0.09137775 0.15874116]</t>
         </is>
       </c>
       <c r="L104" t="n">
-        <v>0.6002911184230364</v>
+        <v>0.5997214230174154</v>
       </c>
       <c r="M104" t="n">
-        <v>18.31271087969907</v>
+        <v>18.31057185130777</v>
       </c>
       <c r="N104" t="n">
         <v>0.25</v>
       </c>
       <c r="O104" t="n">
-        <v>0.02288684862825828</v>
+        <v>0.02296332813904957</v>
       </c>
       <c r="P104" t="n">
-        <v>0.2831858754452947</v>
+        <v>0.2828698731142831</v>
       </c>
       <c r="Q104" t="n">
-        <v>2.575365974808293</v>
+        <v>1.672544669757975</v>
       </c>
       <c r="R104" t="n">
-        <v>15.97432044172716</v>
+        <v>15.91123166049846</v>
       </c>
       <c r="S104" t="n">
-        <v>65.99729955033931</v>
+        <v>69.31427136656991</v>
       </c>
       <c r="T104" t="n">
-        <v>2.541671677624844</v>
+        <v>2.540087216374858</v>
       </c>
       <c r="U104" t="n">
-        <v>90.75645786865788</v>
+        <v>90.44381418947125</v>
       </c>
       <c r="V104" t="n">
-        <v>75.42027251727566</v>
+        <v>75.4544269618724</v>
       </c>
       <c r="W104" t="n">
-        <v>29.34930862782542</v>
+        <v>29.27601414490566</v>
       </c>
       <c r="X104" t="n">
-        <v>33.70089997006436</v>
+        <v>33.58879126140711</v>
       </c>
       <c r="Y104" t="inlineStr">
         <is>
-          <t>[5.74627376 0.93581616 1.82945781 9.52768078]</t>
+          <t>[5.39961999 0.93349398 1.82755509 9.52446954]</t>
         </is>
       </c>
       <c r="Z104" t="inlineStr">
         <is>
-          <t>[np.float64(6.823951134386937e-05) np.float64(1.8952588947702372e-05)
- np.float64(1.2436012810348525e-05) np.float64(9.62703874516184e-11)]</t>
+          <t>[np.float64(7.255008483796802e-05) np.float64(1.8991142174420774e-05)
+ np.float64(1.244665693920649e-05) np.float64(9.65798335364859e-11)]</t>
         </is>
       </c>
       <c r="AA104" t="inlineStr">
         <is>
-          <t>[np.float64(0.006523514494400553) np.float64(3.470459147391454e-05)
- np.float64(2.176952458975914e-05) np.float64(9.613868900227335e-09)]</t>
+          <t>[np.float64(0.006855216088461704) np.float64(3.449175321320282e-05)
+ np.float64(2.1732840822465752e-05) np.float64(9.610647839386777e-09)]</t>
         </is>
       </c>
       <c r="AB104" t="n">
-        <v>1.922417237671375e-05</v>
+        <v>1.925328852427065e-05</v>
       </c>
       <c r="AC104" t="n">
-        <v>255.4475850357999</v>
+        <v>254.841742605029</v>
       </c>
     </row>
     <row r="105">
@@ -10351,92 +10351,92 @@
         <v>1.326928571428572</v>
       </c>
       <c r="D105" t="n">
-        <v>4.023251978675552</v>
+        <v>4.018780223007228</v>
       </c>
       <c r="E105" t="n">
-        <v>10468.66381678859</v>
+        <v>10435.05015880954</v>
       </c>
       <c r="F105" t="n">
-        <v>6779.3689012818</v>
+        <v>6756.451687287507</v>
       </c>
       <c r="G105" t="n">
-        <v>1676.463287536899</v>
+        <v>1674.610593971178</v>
       </c>
       <c r="H105" t="n">
-        <v>1326.473722178439</v>
+        <v>1321.965590718212</v>
       </c>
       <c r="I105" t="n">
-        <v>1523.78941370175</v>
+        <v>1518.731490126649</v>
       </c>
       <c r="J105" t="n">
         <v>60</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>[0.23107302 0.06097894 0.0896349  0.15831581]</t>
+          <t>[0.21720512 0.06083416 0.08954424 0.158263  ]</t>
         </is>
       </c>
       <c r="L105" t="n">
-        <v>0.6045457610102589</v>
+        <v>0.6039715768400653</v>
       </c>
       <c r="M105" t="n">
-        <v>18.52069154685068</v>
+        <v>18.51853644825399</v>
       </c>
       <c r="N105" t="n">
         <v>0.25</v>
       </c>
       <c r="O105" t="n">
-        <v>0.02066455632590852</v>
+        <v>0.02073397780946702</v>
       </c>
       <c r="P105" t="n">
-        <v>0.2563599651000923</v>
+        <v>0.2560722177739735</v>
       </c>
       <c r="Q105" t="n">
-        <v>2.598252823436551</v>
+        <v>1.695507997897024</v>
       </c>
       <c r="R105" t="n">
-        <v>16.25750631717246</v>
+        <v>16.19410153361275</v>
       </c>
       <c r="S105" t="n">
-        <v>63.78434170366533</v>
+        <v>67.10135498345785</v>
       </c>
       <c r="T105" t="n">
-        <v>2.673950428619245</v>
+        <v>2.672035992719421</v>
       </c>
       <c r="U105" t="n">
-        <v>92.87735394756069</v>
+        <v>92.56338811583885</v>
       </c>
       <c r="V105" t="n">
-        <v>74.73128391206336</v>
+        <v>74.76360494398061</v>
       </c>
       <c r="W105" t="n">
-        <v>29.47195612343418</v>
+        <v>29.39858518287989</v>
       </c>
       <c r="X105" t="n">
-        <v>33.78363209510663</v>
+        <v>33.67147181179187</v>
       </c>
       <c r="Y105" t="inlineStr">
         <is>
-          <t>[5.77682542 0.91468407 1.79269798 9.49894833]</t>
+          <t>[5.430128  0.9125124 1.7908848 9.4957802]</t>
         </is>
       </c>
       <c r="Z105" t="inlineStr">
         <is>
-          <t>[np.float64(6.829465555214357e-05) np.float64(1.914837584990631e-05)
- np.float64(1.26800842407827e-05) np.float64(9.20641084841468e-11)]</t>
+          <t>[np.float64(7.281573406825152e-05) np.float64(1.918572213688891e-05)
+ np.float64(1.2690460290929468e-05) np.float64(9.236537027806265e-11)]</t>
         </is>
       </c>
       <c r="AA105" t="inlineStr">
         <is>
-          <t>[np.float64(0.0063019734255714875) np.float64(3.47908743158162e-05)
- np.float64(2.1860236037951226e-05) np.float64(9.589025915850578e-09)]</t>
+          <t>[np.float64(0.006633622995985219) np.float64(3.4577951281887536e-05)
+ np.float64(2.1823469748840647e-05) np.float64(9.585856389283716e-09)]</t>
         </is>
       </c>
       <c r="AB105" t="n">
-        <v>1.951466501015604e-05</v>
+        <v>1.95433476578855e-05</v>
       </c>
       <c r="AC105" t="n">
-        <v>257.9892567134247</v>
+        <v>257.3818298214039</v>
       </c>
     </row>
   </sheetData>

--- a/data/wofost81/output/example_output_endtime.xlsx
+++ b/data/wofost81/output/example_output_endtime.xlsx
@@ -4740,7 +4740,7 @@
         <v>6.692254434677304</v>
       </c>
       <c r="N48" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="O48" t="n">
         <v>0.02678317299336893</v>
@@ -4829,7 +4829,7 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>[0.27319568 0.24735526 0.2518694  0.18199833]</t>
+          <t>[0.27239568 0.24735526 0.2518694  0.18199833]</t>
         </is>
       </c>
       <c r="L49" t="n">
@@ -4839,10 +4839,10 @@
         <v>6.88689250423259</v>
       </c>
       <c r="N49" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="O49" t="n">
-        <v>0.04908568605655463</v>
+        <v>0.02908568605655462</v>
       </c>
       <c r="P49" t="n">
         <v>0.05690962804814671</v>
@@ -4854,7 +4854,7 @@
         <v>0.1485511942252488</v>
       </c>
       <c r="S49" t="n">
-        <v>168.6030359595942</v>
+        <v>168.1031576811742</v>
       </c>
       <c r="T49" t="n">
         <v>1.455316881315192</v>
@@ -4873,18 +4873,18 @@
       </c>
       <c r="Y49" t="inlineStr">
         <is>
-          <t>[ 6.8298919   3.71032887  5.03738801 10.91989988]</t>
+          <t>[ 6.8098919   3.71032887  5.03738801 10.91989988]</t>
         </is>
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>[np.float64(0.0006955299130873612) np.float64(6.654358008638044e-06)
+          <t>[np.float64(0.0006947512976858548) np.float64(6.654358008638044e-06)
  np.float64(4.6430109624524935e-06) np.float64(1.9842615238466584e-09)]</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
         <is>
-          <t>[np.float64(0.019874000237701958) np.float64(1.380001124157162e-05)
+          <t>[np.float64(0.019815126700009473) np.float64(1.380001124157162e-05)
  np.float64(9.643596799825419e-06) np.float64(9.094751939641575e-09)]</t>
         </is>
       </c>
@@ -4928,7 +4928,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>[0.27286992 0.24678824 0.25137903 0.18183935]</t>
+          <t>[0.2701143  0.24671428 0.25137903 0.18183935]</t>
         </is>
       </c>
       <c r="L50" t="n">
@@ -4938,22 +4938,22 @@
         <v>7.057614822951352</v>
       </c>
       <c r="N50" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="O50" t="n">
-        <v>0.09896522000984212</v>
+        <v>0.02896522000984211</v>
       </c>
       <c r="P50" t="n">
         <v>0.07061820609640417</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.1819407549827948</v>
+        <v>0.1619407549827948</v>
       </c>
       <c r="R50" t="n">
         <v>0.2054608222733955</v>
       </c>
       <c r="S50" t="n">
-        <v>178.2670544620976</v>
+        <v>176.9495732271184</v>
       </c>
       <c r="T50" t="n">
         <v>1.727121685834878</v>
@@ -4972,18 +4972,18 @@
       </c>
       <c r="Y50" t="inlineStr">
         <is>
-          <t>[ 6.82174812  3.70182366  5.02758065 10.91036092]</t>
+          <t>[ 6.75285757  3.70071421  5.02758065 10.91036092]</t>
         </is>
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>[np.float64(0.0005149686991950378) np.float64(6.659829223003363e-06)
+          <t>[np.float64(0.0005131319461431249) np.float64(6.659352906111709e-06)
  np.float64(4.646192195698963e-06) np.float64(1.896102962749271e-09)]</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
         <is>
-          <t>[np.float64(0.01992880067955451) np.float64(1.4262299613445915e-05)
+          <t>[np.float64(0.0197820145942109) np.float64(1.4258014270061667e-05)
  np.float64(9.97398007800656e-06) np.float64(9.17459296370137e-09)]</t>
         </is>
       </c>
@@ -5027,7 +5027,7 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>[0.2699918  0.24625787 0.25088351 0.18167661]</t>
+          <t>[0.26738553 0.24595612 0.25086766 0.18167661]</t>
         </is>
       </c>
       <c r="L51" t="n">
@@ -5037,22 +5037,22 @@
         <v>7.241976722553984</v>
       </c>
       <c r="N51" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="O51" t="n">
-        <v>0.1028620194472961</v>
+        <v>0.03286201944729613</v>
       </c>
       <c r="P51" t="n">
         <v>0.1012268435664967</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.2809059749926369</v>
+        <v>0.1909059749926369</v>
       </c>
       <c r="R51" t="n">
         <v>0.2760790283697996</v>
       </c>
       <c r="S51" t="n">
-        <v>186.7175301137532</v>
+        <v>185.2888287856119</v>
       </c>
       <c r="T51" t="n">
         <v>1.976147498680955</v>
@@ -5071,19 +5071,19 @@
       </c>
       <c r="Y51" t="inlineStr">
         <is>
-          <t>[ 6.74979508  3.69386808  5.01767013 10.90059664]</t>
+          <t>[ 6.68463829  3.68934185  5.01735314 10.90059664]</t>
         </is>
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>[np.float64(0.0003601608133320135) np.float64(6.6179520633434755e-06)
- np.float64(4.615997561095954e-06) np.float64(1.7974785931780062e-09)]</t>
+          <t>[np.float64(0.0003596235805181676) np.float64(6.6162271859968935e-06)
+ np.float64(4.6159289879047205e-06) np.float64(1.7974785931780062e-09)]</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
         <is>
-          <t>[np.float64(0.01984689657863849) np.float64(1.4814674272440856e-05)
- np.float64(1.0365666077311735e-05) np.float64(9.26463103571468e-09)]</t>
+          <t>[np.float64(0.019695113816683686) np.float64(1.4795755248452844e-05)
+ np.float64(1.0365009960261824e-05) np.float64(9.26463103571468e-09)]</t>
         </is>
       </c>
       <c r="AB51" t="n">
@@ -5126,7 +5126,7 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>[0.26626794 0.24551332 0.25039185 0.18151009]</t>
+          <t>[0.26339193 0.24507617 0.25031521 0.18150993]</t>
         </is>
       </c>
       <c r="L52" t="n">
@@ -5136,22 +5136,22 @@
         <v>7.401829626715098</v>
       </c>
       <c r="N52" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="O52" t="n">
-        <v>0.1109796921900588</v>
+        <v>0.03097969219005878</v>
       </c>
       <c r="P52" t="n">
         <v>0.1186490639314271</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.383767994439933</v>
+        <v>0.223767994439933</v>
       </c>
       <c r="R52" t="n">
         <v>0.3773058719362964</v>
       </c>
       <c r="S52" t="n">
-        <v>194.5801526153124</v>
+        <v>192.7483868799912</v>
       </c>
       <c r="T52" t="n">
         <v>2.38967051054974</v>
@@ -5170,23 +5170,23 @@
       </c>
       <c r="Y52" t="inlineStr">
         <is>
-          <t>[ 6.65669861  3.68269984  5.00783709 10.89060553]</t>
+          <t>[ 6.58479814  3.67614258  5.00630428 10.89059607]</t>
         </is>
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>[np.float64(0.00025955563815965724) np.float64(6.666407269955506e-06)
- np.float64(4.649717449751542e-06) np.float64(1.7289554639695488e-09)]</t>
+          <t>[np.float64(0.00025916270123646447) np.float64(6.664361688835357e-06)
+ np.float64(4.6494100267195135e-06) np.float64(1.728955196122674e-09)]</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
         <is>
-          <t>[np.float64(0.01970194436859666) np.float64(1.5181743858225437e-05)
- np.float64(1.0638038841658685e-05) np.float64(9.324317033912087e-09)]</t>
+          <t>[np.float64(0.019516464031233176) np.float64(1.5151167635512803e-05)
+ np.float64(1.0634746427159888e-05) np.float64(9.324308936285296e-09)]</t>
         </is>
       </c>
       <c r="AB52" t="n">
-        <v>5.792840274686879e-06</v>
+        <v>5.792923929423545e-06</v>
       </c>
       <c r="AC52" t="n">
         <v>9.337485981455552</v>
@@ -5225,7 +5225,7 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>[0.26169372 0.24455565 0.24985716 0.18133986]</t>
+          <t>[0.25895649 0.24399019 0.24970555 0.18133894]</t>
         </is>
       </c>
       <c r="L53" t="n">
@@ -5235,22 +5235,22 @@
         <v>7.568575137774608</v>
       </c>
       <c r="N53" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="O53" t="n">
-        <v>0.1095189502084686</v>
+        <v>0.02951895020846859</v>
       </c>
       <c r="P53" t="n">
         <v>0.1500279479754719</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.4947476866299918</v>
+        <v>0.2547476866299918</v>
       </c>
       <c r="R53" t="n">
         <v>0.4959549358677234</v>
       </c>
       <c r="S53" t="n">
-        <v>195.1576926334986</v>
+        <v>193.2563484778304</v>
       </c>
       <c r="T53" t="n">
         <v>2.892574023157102</v>
@@ -5269,23 +5269,23 @@
       </c>
       <c r="Y53" t="inlineStr">
         <is>
-          <t>[ 6.54234295  3.66833473  4.9971431  10.88039152]</t>
+          <t>[ 6.4739122   3.65985279  4.99411092 10.8803364 ]</t>
         </is>
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>[np.float64(0.00018828109984373413) np.float64(6.687349935606659e-06)
- np.float64(4.664634486677196e-06) np.float64(1.6565168752462699e-09)]</t>
+          <t>[np.float64(0.0001879759782899992) np.float64(6.685425383921497e-06)
+ np.float64(4.664139470895332e-06) np.float64(1.6565155639908338e-09)]</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
         <is>
-          <t>[np.float64(0.01946294463904456) np.float64(1.5578473236797293e-05)
- np.float64(1.0940649162114016e-05) np.float64(9.387665726948966e-09)]</t>
+          <t>[np.float64(0.01927329058297657) np.float64(1.5535264908352727e-05)
+ np.float64(1.0933816846098838e-05) np.float64(9.387618031357836e-09)]</t>
         </is>
       </c>
       <c r="AB53" t="n">
-        <v>5.88373923155088e-06</v>
+        <v>5.884229300016535e-06</v>
       </c>
       <c r="AC53" t="n">
         <v>11.72715649200529</v>
@@ -5324,7 +5324,7 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>[0.25631713 0.24306155 0.24924417 0.18116551]</t>
+          <t>[0.25364874 0.2424996  0.24900838 0.18116309]</t>
         </is>
       </c>
       <c r="L54" t="n">
@@ -5334,22 +5334,22 @@
         <v>7.755712477917146</v>
       </c>
       <c r="N54" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="O54" t="n">
-        <v>0.1048572683609384</v>
+        <v>0.02485726836093835</v>
       </c>
       <c r="P54" t="n">
         <v>0.1717247895173912</v>
       </c>
       <c r="Q54" t="n">
-        <v>0.6042666368384604</v>
+        <v>0.2842666368384604</v>
       </c>
       <c r="R54" t="n">
         <v>0.6459828838431954</v>
       </c>
       <c r="S54" t="n">
-        <v>191.9722257370105</v>
+        <v>190.0324449386864</v>
       </c>
       <c r="T54" t="n">
         <v>3.409228989654852</v>
@@ -5368,23 +5368,23 @@
       </c>
       <c r="Y54" t="inlineStr">
         <is>
-          <t>[ 6.40792827  3.64592325  4.98488339 10.86993049]</t>
+          <t>[ 6.34121851  3.63749399  4.98016763 10.86978528]</t>
         </is>
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>[np.float64(0.00014002481219339155) np.float64(6.635871566812454e-06)
- np.float64(4.628650986391272e-06) np.float64(1.568418001670111e-09)]</t>
+          <t>[np.float64(0.00013960842585692014) np.float64(6.63566443484369e-06)
+ np.float64(4.628141981976964e-06) np.float64(1.568415759909523e-09)]</t>
         </is>
       </c>
       <c r="AA54" t="inlineStr">
         <is>
-          <t>[np.float64(0.019156841635136937) np.float64(1.6088423988723426e-05)
- np.float64(1.133308768528226e-05) np.float64(9.466385478193971e-09)]</t>
+          <t>[np.float64(0.01896327184146561) np.float64(1.6039656941616307e-05)
+ np.float64(1.1321844058964865e-05) np.float64(9.46625794851075e-09)]</t>
         </is>
       </c>
       <c r="AB54" t="n">
-        <v>5.977530454862422e-06</v>
+        <v>5.978828169300518e-06</v>
       </c>
       <c r="AC54" t="n">
         <v>14.6197305151624</v>
@@ -5423,7 +5423,7 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>[0.25063218 0.24119746 0.24845697 0.18098629]</t>
+          <t>[0.2479558  0.24074201 0.24815828 0.18098154]</t>
         </is>
       </c>
       <c r="L55" t="n">
@@ -5433,22 +5433,22 @@
         <v>7.931638006979861</v>
       </c>
       <c r="N55" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="O55" t="n">
-        <v>0.1048678541455056</v>
+        <v>0.02486785414550562</v>
       </c>
       <c r="P55" t="n">
         <v>0.2167305563884873</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.7091239051993987</v>
+        <v>0.3091239051993987</v>
       </c>
       <c r="R55" t="n">
         <v>0.8177076733605866</v>
       </c>
       <c r="S55" t="n">
-        <v>188.2677689090525</v>
+        <v>186.2903503621471</v>
       </c>
       <c r="T55" t="n">
         <v>3.947316468413689</v>
@@ -5467,23 +5467,23 @@
       </c>
       <c r="Y55" t="inlineStr">
         <is>
-          <t>[ 6.26580452  3.61796189  4.96913948 10.85917747]</t>
+          <t>[ 6.1988951   3.61113012  4.96316555 10.85889258]</t>
         </is>
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>[np.float64(0.0001099411143470881) np.float64(6.632524077687252e-06)
- np.float64(4.6235298011906255e-06) np.float64(1.4949507021507872e-09)]</t>
+          <t>[np.float64(0.0001092849800281186) np.float64(6.6343943432095855e-06)
+ np.float64(4.623204505237683e-06) np.float64(1.4949480398946691e-09)]</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
         <is>
-          <t>[np.float64(0.018793550363961145) np.float64(1.6513916285992074e-05)
- np.float64(1.1658748717583164e-05) np.float64(9.530152341755704e-09)]</t>
+          <t>[np.float64(0.01859622316717059) np.float64(1.646778021213156e-05)
+ np.float64(1.1643733442771915e-05) np.float64(9.529899228862137e-09)]</t>
         </is>
       </c>
       <c r="AB55" t="n">
-        <v>6.074534814438325e-06</v>
+        <v>6.077092565935172e-06</v>
       </c>
       <c r="AC55" t="n">
         <v>18.02895950481725</v>
@@ -5522,7 +5522,7 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>[0.24197514 0.23892677 0.24745871 0.18080051]</t>
+          <t>[0.24091333 0.23849184 0.24713523 0.18079282]</t>
         </is>
       </c>
       <c r="L56" t="n">
@@ -5532,22 +5532,22 @@
         <v>8.149867611222133</v>
       </c>
       <c r="N56" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="O56" t="n">
-        <v>0.06233619941734861</v>
+        <v>0.02233619941734861</v>
       </c>
       <c r="P56" t="n">
         <v>0.255450524274318</v>
       </c>
       <c r="Q56" t="n">
-        <v>0.8139917593449043</v>
+        <v>0.3339917593449043</v>
       </c>
       <c r="R56" t="n">
         <v>1.034438229749074</v>
       </c>
       <c r="S56" t="n">
-        <v>182.7877595107434</v>
+        <v>181.9678705513998</v>
       </c>
       <c r="T56" t="n">
         <v>4.625398918000061</v>
@@ -5566,23 +5566,23 @@
       </c>
       <c r="Y56" t="inlineStr">
         <is>
-          <t>[ 6.04937858  3.58390162  4.94917419 10.84803055]</t>
+          <t>[ 6.02283326  3.57737757  4.94270469 10.84756943]</t>
         </is>
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>[np.float64(9.081167566835179e-05) np.float64(6.511294101050267e-06)
- np.float64(4.529168314833805e-06) np.float64(1.3919732480083252e-09)]</t>
+          <t>[np.float64(9.054527799400842e-05) np.float64(6.514971449928997e-06)
+ np.float64(4.529578660338316e-06) np.float64(1.3919747518331683e-09)]</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
         <is>
-          <t>[np.float64(0.01824964328043504) np.float64(1.720503696191805e-05)
- np.float64(1.2152185563617679e-05) np.float64(9.622987345913537e-09)]</t>
+          <t>[np.float64(0.01816781475251715) np.float64(1.7157143664138056e-05)
+ np.float64(1.2134643389718609e-05) np.float64(9.622569721240213e-09)]</t>
         </is>
       </c>
       <c r="AB56" t="n">
-        <v>6.175959314284613e-06</v>
+        <v>6.180120522769426e-06</v>
       </c>
       <c r="AC56" t="n">
         <v>21.97627597323094</v>
@@ -5621,7 +5621,7 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>[0.23318507 0.23616215 0.24621364 0.18060611]</t>
+          <t>[0.23288894 0.23581624 0.24587577 0.18059526]</t>
         </is>
       </c>
       <c r="L57" t="n">
@@ -5631,22 +5631,22 @@
         <v>8.419523234761524</v>
       </c>
       <c r="N57" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="O57" t="n">
-        <v>0.03650459520759917</v>
+        <v>0.01650459520759917</v>
       </c>
       <c r="P57" t="n">
         <v>0.2540847900413074</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.8763279587622529</v>
+        <v>0.3563279587622529</v>
       </c>
       <c r="R57" t="n">
         <v>1.289888754023392</v>
       </c>
       <c r="S57" t="n">
-        <v>177.2579652747596</v>
+        <v>177.0177446546514</v>
       </c>
       <c r="T57" t="n">
         <v>5.434083668856679</v>
@@ -5665,23 +5665,23 @@
       </c>
       <c r="Y57" t="inlineStr">
         <is>
-          <t>[ 5.82962664  3.54243227  4.92427273 10.83636657]</t>
+          <t>[ 5.82222359  3.53724364  4.91751531 10.83571568]</t>
         </is>
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>[np.float64(8.205763680447943e-05) np.float64(6.351144177510665e-06)
- np.float64(4.398819089180321e-06) np.float64(1.268325870738267e-09)]</t>
+          <t>[np.float64(8.191935583538511e-05) np.float64(6.357260103597847e-06)
+ np.float64(4.400229656548072e-06) np.float64(1.2683389162289472e-09)]</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr">
         <is>
-          <t>[np.float64(0.017697704861080334) np.float64(1.811221941455479e-05)
- np.float64(1.2776125658003186e-05) np.float64(9.735912708233469e-09)]</t>
+          <t>[np.float64(0.01767375406633854) np.float64(1.8068095617729955e-05)
+ np.float64(1.2756250868180846e-05) np.float64(9.735309107150244e-09)]</t>
         </is>
       </c>
       <c r="AB57" t="n">
-        <v>6.283179463785874e-06</v>
+        <v>6.28908501971133e-06</v>
       </c>
       <c r="AC57" t="n">
         <v>26.601674891231</v>
@@ -5720,7 +5720,7 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>[0.22609941 0.2334708  0.24467598 0.1804007 ]</t>
+          <t>[0.22539497 0.23314105 0.24434624 0.18038657]</t>
         </is>
       </c>
       <c r="L58" t="n">
@@ -5730,22 +5730,22 @@
         <v>8.642755353134088</v>
       </c>
       <c r="N58" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="O58" t="n">
-        <v>0.03435518726414936</v>
+        <v>0.004355187264149365</v>
       </c>
       <c r="P58" t="n">
         <v>0.09566177675187916</v>
       </c>
       <c r="Q58" t="n">
-        <v>0.9128325539698521</v>
+        <v>0.3728325539698521</v>
       </c>
       <c r="R58" t="n">
         <v>1.543973544064699</v>
       </c>
       <c r="S58" t="n">
-        <v>171.9236862764116</v>
+        <v>171.3750613120562</v>
       </c>
       <c r="T58" t="n">
         <v>2.920606700085695</v>
@@ -5764,23 +5764,23 @@
       </c>
       <c r="Y58" t="inlineStr">
         <is>
-          <t>[ 5.65248525  3.50206207  4.89351962 10.8240419 ]</t>
+          <t>[ 5.63487428  3.4971158   4.88692478 10.82319397]</t>
         </is>
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>[np.float64(7.5473959704712e-05) np.float64(6.2818360956639975e-06)
- np.float64(4.32925070840447e-06) np.float64(1.1784893995017336e-09)]</t>
+          <t>[np.float64(7.508816048555677e-05) np.float64(6.288935254567037e-06)
+ np.float64(4.331431945002837e-06) np.float64(1.1785137846921043e-09)]</t>
         </is>
       </c>
       <c r="AA58" t="inlineStr">
         <is>
-          <t>[np.float64(0.017164512154392457) np.float64(1.880984949333385e-05)
- np.float64(1.3214246801957415e-05) np.float64(9.81433602442161e-09)]</t>
+          <t>[np.float64(0.01710980850954431) np.float64(1.8766181540612813e-05)
+ np.float64(1.3193514727762594e-05) np.float64(9.813538652331781e-09)]</t>
         </is>
       </c>
       <c r="AB58" t="n">
-        <v>6.397311014269792e-06</v>
+        <v>6.405040883264379e-06</v>
       </c>
       <c r="AC58" t="n">
         <v>32.03575856008768</v>
@@ -5819,7 +5819,7 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>[0.2246845  0.23302933 0.24293264 0.18018144]</t>
+          <t>[0.22355356 0.23274376 0.24261243 0.18016413]</t>
         </is>
       </c>
       <c r="L59" t="n">
@@ -5829,22 +5829,22 @@
         <v>8.787753205840053</v>
       </c>
       <c r="N59" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="O59" t="n">
-        <v>0.04577318842785193</v>
+        <v>0.005773188427851934</v>
       </c>
       <c r="P59" t="n">
         <v>0.1240650863065865</v>
       </c>
       <c r="Q59" t="n">
-        <v>0.9471877412340014</v>
+        <v>0.3771877412340015</v>
       </c>
       <c r="R59" t="n">
         <v>1.639635320816579</v>
       </c>
       <c r="S59" t="n">
-        <v>169.2328938234128</v>
+        <v>168.53557401808</v>
       </c>
       <c r="T59" t="n">
         <v>4.339947439365768</v>
@@ -5863,23 +5863,23 @@
       </c>
       <c r="Y59" t="inlineStr">
         <is>
-          <t>[ 5.6171126   3.49543994  4.85865274 10.81088659]</t>
+          <t>[ 5.58883889  3.49115645  4.85224865 10.80984788]</t>
         </is>
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>[np.float64(6.833654444178552e-05) np.float64(6.427022009694034e-06)
- np.float64(4.4146335373775896e-06) np.float64(1.1436774537599951e-09)]</t>
+          <t>[np.float64(6.770796062215396e-05) np.float64(6.434704657445978e-06)
+ np.float64(4.4170850412775455e-06) np.float64(1.1437056473694073e-09)]</t>
         </is>
       </c>
       <c r="AA59" t="inlineStr">
         <is>
-          <t>[np.float64(0.01689550396941168) np.float64(1.9070250023126428e-05)
- np.float64(1.3308005251798727e-05) np.float64(9.836931063588267e-09)]</t>
+          <t>[np.float64(0.016826011428468655) np.float64(1.9030018315553798e-05)
+ np.float64(1.3287022772463506e-05) np.float64(9.83595273575336e-09)]</t>
         </is>
       </c>
       <c r="AB59" t="n">
-        <v>6.519480080020604e-06</v>
+        <v>6.528981422275574e-06</v>
       </c>
       <c r="AC59" t="n">
         <v>34.95636526017337</v>
@@ -5918,7 +5918,7 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>[0.22203999 0.23161048 0.24151564 0.1799464 ]</t>
+          <t>[0.22091314 0.2313082  0.24121205 0.17992602]</t>
         </is>
       </c>
       <c r="L60" t="n">
@@ -5931,19 +5931,19 @@
         <v>0</v>
       </c>
       <c r="O60" t="n">
-        <v>0.04918076354870189</v>
+        <v>0.009180763548701889</v>
       </c>
       <c r="P60" t="n">
         <v>0.2537081700321514</v>
       </c>
       <c r="Q60" t="n">
-        <v>0.9929609296618533</v>
+        <v>0.3829609296618534</v>
       </c>
       <c r="R60" t="n">
         <v>1.763700407123165</v>
       </c>
       <c r="S60" t="n">
-        <v>164.921157071853</v>
+        <v>164.2049443456972</v>
       </c>
       <c r="T60" t="n">
         <v>5.814914177750331</v>
@@ -5962,23 +5962,23 @@
       </c>
       <c r="Y60" t="inlineStr">
         <is>
-          <t>[ 5.55099984  3.47415717  4.83031281 10.79678377]</t>
+          <t>[ 5.52282842  3.46962294  4.82424092 10.79556131]</t>
         </is>
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>[np.float64(6.157012488021963e-05) np.float64(6.621179708209561e-06)
- np.float64(4.5403407038145835e-06) np.float64(1.1258158207594357e-09)]</t>
+          <t>[np.float64(6.078517533175076e-05) np.float64(6.628886524246985e-06)
+ np.float64(4.542958724273593e-06) np.float64(1.1258452573758962e-09)]</t>
         </is>
       </c>
       <c r="AA60" t="inlineStr">
         <is>
-          <t>[np.float64(0.016464403882965804) np.float64(1.9171693164071978e-05)
- np.float64(1.3310765643051412e-05) np.float64(9.841676976422736e-09)]</t>
+          <t>[np.float64(0.016393056348640033) np.float64(1.9130506719289227e-05)
+ np.float64(1.3290080911505978e-05) np.float64(9.84052655238629e-09)]</t>
         </is>
       </c>
       <c r="AB60" t="n">
-        <v>6.650637281681515e-06</v>
+        <v>6.661847155881382e-06</v>
       </c>
       <c r="AC60" t="n">
         <v>39.29631269953914</v>
@@ -6017,7 +6017,7 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>[0.21393364 0.22775852 0.24013555 0.17969891]</t>
+          <t>[0.2144094  0.22745151 0.23984086 0.17967566]</t>
         </is>
       </c>
       <c r="L61" t="n">
@@ -6036,13 +6036,13 @@
         <v>0.2346853130182636</v>
       </c>
       <c r="Q61" t="n">
-        <v>1.042141693210555</v>
+        <v>0.3921416932105553</v>
       </c>
       <c r="R61" t="n">
         <v>2.017408577155317</v>
       </c>
       <c r="S61" t="n">
-        <v>157.8708850788446</v>
+        <v>158.2990793266722</v>
       </c>
       <c r="T61" t="n">
         <v>6.129618792871213</v>
@@ -6061,23 +6061,23 @@
       </c>
       <c r="Y61" t="inlineStr">
         <is>
-          <t>[ 5.34834098  3.41637779  4.80271102 10.78193486]</t>
+          <t>[ 5.3602349   3.4117726   4.7968173  10.78053986]</t>
         </is>
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>[np.float64(5.753538988246639e-05) np.float64(6.776766291987391e-06)
- np.float64(4.636929316483225e-06) np.float64(1.0982522328107879e-09)]</t>
+          <t>[np.float64(5.714252813587274e-05) np.float64(6.784667804253901e-06)
+ np.float64(4.639756940336195e-06) np.float64(1.0982871515453966e-09)]</t>
         </is>
       </c>
       <c r="AA61" t="inlineStr">
         <is>
-          <t>[np.float64(0.015758940239545435) np.float64(1.9384745152838348e-05)
- np.float64(1.3385856912732558e-05) np.float64(9.855400088701649e-09)]</t>
+          <t>[np.float64(0.01580185869272674) np.float64(1.9343053559478776e-05)
+ np.float64(1.3365005873762336e-05) np.float64(9.854083401533891e-09)]</t>
         </is>
       </c>
       <c r="AB61" t="n">
-        <v>6.789042038378868e-06</v>
+        <v>6.801859722710369e-06</v>
       </c>
       <c r="AC61" t="n">
         <v>45.11122687728947</v>
@@ -6116,7 +6116,7 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>[0.2081661  0.22481385 0.23826172 0.17943945]</t>
+          <t>[0.20862714 0.22453489 0.23797269 0.17941344]</t>
         </is>
       </c>
       <c r="L62" t="n">
@@ -6135,13 +6135,13 @@
         <v>0.2438556289074763</v>
       </c>
       <c r="Q62" t="n">
-        <v>1.048859174545658</v>
+        <v>0.398859174545658</v>
       </c>
       <c r="R62" t="n">
         <v>2.25209389017358</v>
       </c>
       <c r="S62" t="n">
-        <v>151.7283656619656</v>
+        <v>152.1558648572791</v>
       </c>
       <c r="T62" t="n">
         <v>6.964904944020089</v>
@@ -6160,23 +6160,23 @@
       </c>
       <c r="Y62" t="inlineStr">
         <is>
-          <t>[ 5.20415262  3.37220778  4.7652343  10.76636716]</t>
+          <t>[ 5.21567855  3.36802341  4.75945376 10.76480615]</t>
         </is>
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>[np.float64(5.706154464945426e-05) np.float64(6.860577148603396e-06)
- np.float64(4.67047336807075e-06) np.float64(1.0550242831016905e-09)]</t>
+          <t>[np.float64(5.674091084912951e-05) np.float64(6.8691185261762876e-06)
+ np.float64(4.673620849299622e-06) np.float64(1.055071762125454e-09)]</t>
         </is>
       </c>
       <c r="AA62" t="inlineStr">
         <is>
-          <t>[np.float64(0.015143074651392197) np.float64(1.98133214927701e-05)
- np.float64(1.3552603232958517e-05) np.float64(9.884066527505245e-09)]</t>
+          <t>[np.float64(0.015185907133207348) np.float64(1.9773523603705226e-05)
+ np.float64(1.3531307246039892e-05) np.float64(9.882582056782638e-09)]</t>
         </is>
       </c>
       <c r="AB62" t="n">
-        <v>6.934657147433883e-06</v>
+        <v>6.949027064422326e-06</v>
       </c>
       <c r="AC62" t="n">
         <v>51.24084567016068</v>
@@ -6215,7 +6215,7 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>[0.20228975 0.22183348 0.23620883 0.17916318]</t>
+          <t>[0.20273807 0.22157284 0.23593004 0.17913448]</t>
         </is>
       </c>
       <c r="L63" t="n">
@@ -6234,13 +6234,13 @@
         <v>0.2416165328730277</v>
       </c>
       <c r="Q63" t="n">
-        <v>1.05425156670233</v>
+        <v>0.4042515667023306</v>
       </c>
       <c r="R63" t="n">
         <v>2.495949519081056</v>
       </c>
       <c r="S63" t="n">
-        <v>144.7918543194905</v>
+        <v>145.2188317339934</v>
       </c>
       <c r="T63" t="n">
         <v>6.445721266012678</v>
@@ -6259,23 +6259,23 @@
       </c>
       <c r="Y63" t="inlineStr">
         <is>
-          <t>[ 5.05724385  3.32750223  4.72417667 10.74979109]</t>
+          <t>[ 5.06845181  3.32359267  4.71860074 10.74806862]</t>
         </is>
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>[np.float64(5.775658952536503e-05) np.float64(6.924843729232468e-06)
- np.float64(4.684097789179714e-06) np.float64(1.0084446961651306e-09)]</t>
+          <t>[np.float64(5.7486124323109273e-05) np.float64(6.9339639661948506e-06)
+ np.float64(4.687613238500223e-06) np.float64(1.008507784853475e-09)]</t>
         </is>
       </c>
       <c r="AA63" t="inlineStr">
         <is>
-          <t>[np.float64(0.014447414167014668) np.float64(2.032320335062619e-05)
- np.float64(1.3741551349406254e-05) np.float64(9.915082719717466e-09)]</t>
+          <t>[np.float64(0.014490183283978376) np.float64(2.0284798460230474e-05)
+ np.float64(1.3720067997210197e-05) np.float64(9.913431115322035e-09)]</t>
         </is>
       </c>
       <c r="AB63" t="n">
-        <v>7.090291094677277e-06</v>
+        <v>7.106176251748149e-06</v>
       </c>
       <c r="AC63" t="n">
         <v>58.20575061418077</v>
@@ -6314,7 +6314,7 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>[0.19659466 0.21904782 0.23401261 0.17886845]</t>
+          <t>[0.19703185 0.21880054 0.23374541 0.17883717]</t>
         </is>
       </c>
       <c r="L64" t="n">
@@ -6324,7 +6324,7 @@
         <v>9.537065509089159</v>
       </c>
       <c r="N64" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="O64" t="n">
         <v>0.002517059600520149</v>
@@ -6333,13 +6333,13 @@
         <v>0.187046735345527</v>
       </c>
       <c r="Q64" t="n">
-        <v>1.058405936829419</v>
+        <v>0.4084059368294196</v>
       </c>
       <c r="R64" t="n">
         <v>2.737566051954084</v>
       </c>
       <c r="S64" t="n">
-        <v>138.4041798589602</v>
+        <v>138.8307618426806</v>
       </c>
       <c r="T64" t="n">
         <v>5.577526949912857</v>
@@ -6358,23 +6358,23 @@
       </c>
       <c r="Y64" t="inlineStr">
         <is>
-          <t>[ 4.9148666   3.28571723  4.68025218 10.73210693]</t>
+          <t>[ 4.92579628  3.28200813  4.67490829 10.73023024]</t>
         </is>
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>[np.float64(5.801995161931578e-05) np.float64(7.0295445402954896e-06)
- np.float64(4.723958978139189e-06) np.float64(9.700987315827116e-10)]</t>
+          <t>[np.float64(5.77843453801605e-05) np.float64(7.039121889389484e-06)
+ np.float64(4.7277732248060435e-06) np.float64(9.701755479163846e-10)]</t>
         </is>
       </c>
       <c r="AA64" t="inlineStr">
         <is>
-          <t>[np.float64(0.013806683816677438) np.float64(2.0791365108271095e-05)
- np.float64(1.3864073373145304e-05) np.float64(9.936773325443449e-09)]</t>
+          <t>[np.float64(0.013849406257429399) np.float64(2.0754141311020253e-05)
+ np.float64(1.3842593281293825e-05) np.float64(9.934962838269623e-09)]</t>
         </is>
       </c>
       <c r="AB64" t="n">
-        <v>7.256844683241644e-06</v>
+        <v>7.274181391643178e-06</v>
       </c>
       <c r="AC64" t="n">
         <v>64.65147188019345</v>
@@ -6413,32 +6413,32 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>[0.20244868 0.21759585 0.23174937 0.17855395]</t>
+          <t>[0.19287589 0.21735952 0.23149375 0.17852023]</t>
         </is>
       </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
       <c r="M65" t="n">
-        <v>9.707125373593955</v>
+        <v>9.707505850405131</v>
       </c>
       <c r="N65" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="O65" t="n">
-        <v>0.04528001204674795</v>
+        <v>0.002819031592961706</v>
       </c>
       <c r="P65" t="n">
         <v>0.2483699276303939</v>
       </c>
       <c r="Q65" t="n">
-        <v>1.06092299642994</v>
+        <v>0.4109229964299397</v>
       </c>
       <c r="R65" t="n">
         <v>2.924612787299611</v>
       </c>
       <c r="S65" t="n">
-        <v>133.1102717291426</v>
+        <v>133.357835517136</v>
       </c>
       <c r="T65" t="n">
         <v>6.756693776875757</v>
@@ -6457,23 +6457,23 @@
       </c>
       <c r="Y65" t="inlineStr">
         <is>
-          <t>[ 5.06121708  3.26393778  4.63498733 10.71323696]</t>
+          <t>[ 4.82189726  3.26039281  4.62987502 10.71121406]</t>
         </is>
       </c>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>[np.float64(6.168898737890896e-05) np.float64(7.1132278405189094e-06)
- np.float64(4.744214808400164e-06) np.float64(9.283399920407126e-10)]</t>
+          <t>[np.float64(5.9008326051048026e-05) np.float64(7.123281384432537e-06)
+ np.float64(4.748347656691566e-06) np.float64(9.284334590729615e-10)]</t>
         </is>
       </c>
       <c r="AA65" t="inlineStr">
         <is>
-          <t>[np.float64(0.013273966062558588) np.float64(2.1338041453595325e-05)
- np.float64(1.4015485548039354e-05) np.float64(9.960699812709907e-09)]</t>
+          <t>[np.float64(0.01329986351175133) np.float64(2.130179737029459e-05)
+ np.float64(1.3994025584671258e-05) np.float64(9.958734620610909e-09)]</t>
         </is>
       </c>
       <c r="AB65" t="n">
-        <v>7.43516720599706e-06</v>
+        <v>7.45388445666455e-06</v>
       </c>
       <c r="AC65" t="n">
         <v>70.22899883010631</v>
@@ -6512,35 +6512,35 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>[0.20513163 0.21434051 0.22965906 0.17821916]</t>
+          <t>[0.18725462 0.2141031  0.22941449 0.17818314]</t>
         </is>
       </c>
       <c r="L66" t="n">
-        <v>0.9748808428582498</v>
+        <v>0.8959811932440401</v>
       </c>
       <c r="M66" t="n">
-        <v>9.893183783223282</v>
+        <v>9.888352657177212</v>
       </c>
       <c r="N66" t="n">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="O66" t="n">
-        <v>0.07447840557852729</v>
+        <v>0.004601324779605361</v>
       </c>
       <c r="P66" t="n">
-        <v>0.4640300224380573</v>
+        <v>0.426474862287926</v>
       </c>
       <c r="Q66" t="n">
-        <v>1.106203008476688</v>
+        <v>0.4137420280229014</v>
       </c>
       <c r="R66" t="n">
         <v>3.172982714930005</v>
       </c>
       <c r="S66" t="n">
-        <v>126.6472362099982</v>
+        <v>126.6968155589448</v>
       </c>
       <c r="T66" t="n">
-        <v>8.043679513324673</v>
+        <v>7.334889332466961</v>
       </c>
       <c r="U66" t="n">
         <v>5.780244766176866</v>
@@ -6556,23 +6556,23 @@
       </c>
       <c r="Y66" t="inlineStr">
         <is>
-          <t>[ 5.12829079  3.21510772  4.59318115 10.69314954]</t>
+          <t>[ 4.68136557  3.21154648  4.58828975 10.69098838]</t>
         </is>
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>[np.float64(6.498346734532903e-05) np.float64(7.158370836256086e-06)
- np.float64(4.739021928817328e-06) np.float64(8.814230831811791e-10)]</t>
+          <t>[np.float64(6.0886532093125684e-05) np.float64(7.168838308344374e-06)
+ np.float64(4.7435004967739404e-06) np.float64(8.815368778297461e-10)]</t>
         </is>
       </c>
       <c r="AA66" t="inlineStr">
         <is>
-          <t>[np.float64(0.012625217665743314) np.float64(2.1972635311445442e-05)
- np.float64(1.4231340753026274e-05) np.float64(9.988561941136789e-09)]</t>
+          <t>[np.float64(0.012632112519122742) np.float64(2.1936169948435124e-05)
+ np.float64(1.420987193608122e-05) np.float64(9.986445401458398e-09)]</t>
         </is>
       </c>
       <c r="AB66" t="n">
-        <v>7.625715010323582e-06</v>
+        <v>7.645742460621808e-06</v>
       </c>
       <c r="AC66" t="n">
         <v>76.98569260698207</v>
@@ -6589,89 +6589,89 @@
         <v>1.039</v>
       </c>
       <c r="D67" t="n">
-        <v>2.894233621662098</v>
+        <v>2.867331259176268</v>
       </c>
       <c r="E67" t="n">
-        <v>2209.042862789887</v>
+        <v>2187.904824647691</v>
       </c>
       <c r="F67" t="n">
-        <v>524.3074147667311</v>
+        <v>515.2848948290459</v>
       </c>
       <c r="G67" t="n">
-        <v>1278.764202294395</v>
+        <v>1266.743839920744</v>
       </c>
       <c r="H67" t="n">
-        <v>405.0859508229967</v>
+        <v>402.2100704050887</v>
       </c>
       <c r="I67" t="n">
-        <v>536.9177961371122</v>
+        <v>532.1771329862115</v>
       </c>
       <c r="J67" t="n">
         <v>42.60000000000002</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>[0.20683795 0.20637923 0.22663136 0.17786594]</t>
+          <t>[0.17806387 0.20613036 0.22639486 0.17782774]</t>
         </is>
       </c>
       <c r="L67" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.8803974145986182</v>
       </c>
       <c r="M67" t="n">
-        <v>10.15728089958085</v>
+        <v>10.13752654022915</v>
       </c>
       <c r="N67" t="n">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="O67" t="n">
-        <v>0.05668715560670979</v>
+        <v>0.003546578502872137</v>
       </c>
       <c r="P67" t="n">
-        <v>0.4522284442639286</v>
+        <v>0.3970955990755108</v>
       </c>
       <c r="Q67" t="n">
-        <v>1.180681414055215</v>
+        <v>0.4183433528025068</v>
       </c>
       <c r="R67" t="n">
-        <v>3.637012737368063</v>
+        <v>3.599457577217931</v>
       </c>
       <c r="S67" t="n">
-        <v>119.8409524382501</v>
+        <v>119.5746569841254</v>
       </c>
       <c r="T67" t="n">
-        <v>8.2306965872743</v>
+        <v>7.136833200875152</v>
       </c>
       <c r="U67" t="n">
-        <v>7.183011582304218</v>
+        <v>7.059403059157932</v>
       </c>
       <c r="V67" t="n">
-        <v>58.822619269835</v>
+        <v>58.78354631734063</v>
       </c>
       <c r="W67" t="n">
-        <v>9.406577514984638</v>
+        <v>9.421186242495748</v>
       </c>
       <c r="X67" t="n">
-        <v>12.26021677459878</v>
+        <v>12.27866779493465</v>
       </c>
       <c r="Y67" t="inlineStr">
         <is>
-          <t>[ 5.17094876  3.09568838  4.53262717 10.67195647]</t>
+          <t>[ 4.45159684  3.09195542  4.52789713 10.66966461]</t>
         </is>
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>[np.float64(7.375319594622277e-05) np.float64(7.106479603281401e-06)
- np.float64(4.646587759162007e-06) np.float64(8.077246226075162e-10)]</t>
+          <t>[np.float64(6.780085874337666e-05) np.float64(7.117635339366908e-06)
+ np.float64(4.651566218015793e-06) np.float64(8.078729798600381e-10)]</t>
         </is>
       </c>
       <c r="AA67" t="inlineStr">
         <is>
-          <t>[np.float64(0.01194051740419895) np.float64(2.3005635482383066e-05)
- np.float64(1.4682930787483533e-05) np.float64(1.0042036864269439e-08)]</t>
+          <t>[np.float64(0.011917037385113538) np.float64(2.2967272849461607e-05)
+ np.float64(1.4661136888570162e-05) np.float64(1.0039761218488303e-08)]</t>
         </is>
       </c>
       <c r="AB67" t="n">
-        <v>7.82795038473371e-06</v>
+        <v>7.849223270019838e-06</v>
       </c>
       <c r="AC67" t="n">
         <v>84.18569260698207</v>
@@ -6688,92 +6688,92 @@
         <v>1.04802380952381</v>
       </c>
       <c r="D68" t="n">
-        <v>3.142360534060078</v>
+        <v>3.0747551923067</v>
       </c>
       <c r="E68" t="n">
-        <v>2462.813637210993</v>
+        <v>2407.949345678945</v>
       </c>
       <c r="F68" t="n">
-        <v>639.72236297345</v>
+        <v>615.3611429940601</v>
       </c>
       <c r="G68" t="n">
-        <v>1382.150415793554</v>
+        <v>1351.844802640003</v>
       </c>
       <c r="H68" t="n">
-        <v>440.0555635382251</v>
+        <v>432.5322054031955</v>
       </c>
       <c r="I68" t="n">
-        <v>591.9958343988937</v>
+        <v>579.9352744676397</v>
       </c>
       <c r="J68" t="n">
         <v>43.80000000000002</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>[0.20938457 0.20078847 0.22233789 0.1774851 ]</t>
+          <t>[0.16975886 0.20045759 0.22214736 0.17744482]</t>
         </is>
       </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
       <c r="M68" t="n">
-        <v>10.43380224045532</v>
+        <v>10.38554147371299</v>
       </c>
       <c r="N68" t="n">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="O68" t="n">
-        <v>0.02623874389155307</v>
+        <v>0.001679904553840522</v>
       </c>
       <c r="P68" t="n">
-        <v>0.2604094686539091</v>
+        <v>0.2589922292758689</v>
       </c>
       <c r="Q68" t="n">
-        <v>1.237368569661925</v>
+        <v>0.4218899313053789</v>
       </c>
       <c r="R68" t="n">
-        <v>4.089241181631991</v>
+        <v>3.996553176293442</v>
       </c>
       <c r="S68" t="n">
-        <v>113.0638052374642</v>
+        <v>112.549904589833</v>
       </c>
       <c r="T68" t="n">
-        <v>5.636737300617959</v>
+        <v>5.62414289102789</v>
       </c>
       <c r="U68" t="n">
-        <v>8.764196372736267</v>
+        <v>8.430447659018625</v>
       </c>
       <c r="V68" t="n">
-        <v>62.73006123017107</v>
+        <v>62.58922160096383</v>
       </c>
       <c r="W68" t="n">
-        <v>10.06857157454416</v>
+        <v>10.10047787179083</v>
       </c>
       <c r="X68" t="n">
-        <v>13.30959596427114</v>
+        <v>13.34856955947234</v>
       </c>
       <c r="Y68" t="inlineStr">
         <is>
-          <t>[ 5.23461417  3.01182708  4.44675776 10.64910617]</t>
+          <t>[ 4.24397146  3.00686387  4.44294714 10.64668935]</t>
         </is>
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>[np.float64(8.04775252104158e-05) np.float64(7.143591890570751e-06)
- np.float64(4.577608475648028e-06) np.float64(7.376045385651235e-10)]</t>
+          <t>[np.float64(7.371404551207067e-05) np.float64(7.155272671460363e-06)
+ np.float64(4.58318276840341e-06) np.float64(7.377850343968668e-10)]</t>
         </is>
       </c>
       <c r="AA68" t="inlineStr">
         <is>
-          <t>[np.float64(0.011258987697179656) np.float64(2.4103896649421157e-05)
- np.float64(1.5074070387481867e-05) np.float64(1.0090228684544244e-08)]</t>
+          <t>[np.float64(0.011211840813077203) np.float64(2.4054750169931173e-05)
+ np.float64(1.50543705070252e-05) np.float64(1.0087801198481454e-08)]</t>
         </is>
       </c>
       <c r="AB68" t="n">
-        <v>8.047233022409578e-06</v>
+        <v>8.069702924720042e-06</v>
       </c>
       <c r="AC68" t="n">
-        <v>91.38569260698208</v>
+        <v>91.32252580785723</v>
       </c>
     </row>
     <row r="69">
@@ -6787,92 +6787,92 @@
         <v>1.056119047619048</v>
       </c>
       <c r="D69" t="n">
-        <v>3.30515755330498</v>
+        <v>3.237188467025103</v>
       </c>
       <c r="E69" t="n">
-        <v>2642.873795519305</v>
+        <v>2587.607187671338</v>
       </c>
       <c r="F69" t="n">
-        <v>726.8131744005545</v>
+        <v>702.2573635981145</v>
       </c>
       <c r="G69" t="n">
-        <v>1449.982507145596</v>
+        <v>1419.52533377267</v>
       </c>
       <c r="H69" t="n">
-        <v>465.1928190673908</v>
+        <v>457.6132956588669</v>
       </c>
       <c r="I69" t="n">
-        <v>629.7468985189926</v>
+        <v>617.6019897279936</v>
       </c>
       <c r="J69" t="n">
         <v>45.00000000000002</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>[0.21777508 0.19915704 0.21900346 0.17706425]</t>
+          <t>[0.16398193 0.19880083 0.21884488 0.17702236]</t>
         </is>
       </c>
       <c r="L69" t="n">
-        <v>0.9999999999999998</v>
+        <v>0.9581828212889038</v>
       </c>
       <c r="M69" t="n">
-        <v>10.6717035999687</v>
+        <v>10.58890748789137</v>
       </c>
       <c r="N69" t="n">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="O69" t="n">
-        <v>0.02661216181152479</v>
+        <v>0.001691791021535081</v>
       </c>
       <c r="P69" t="n">
-        <v>0.3037381390429748</v>
+        <v>0.2896438120554161</v>
       </c>
       <c r="Q69" t="n">
-        <v>1.263607313553478</v>
+        <v>0.4235698358592195</v>
       </c>
       <c r="R69" t="n">
-        <v>4.349650650285899</v>
+        <v>4.255545405569311</v>
       </c>
       <c r="S69" t="n">
-        <v>107.8556362057607</v>
+        <v>107.075353445092</v>
       </c>
       <c r="T69" t="n">
-        <v>6.812615553561911</v>
+        <v>6.479792916988432</v>
       </c>
       <c r="U69" t="n">
-        <v>9.957340489287599</v>
+        <v>9.62092588129417</v>
       </c>
       <c r="V69" t="n">
-        <v>65.76621756383952</v>
+        <v>65.61859411725595</v>
       </c>
       <c r="W69" t="n">
-        <v>10.63114185702168</v>
+        <v>10.66179117879072</v>
       </c>
       <c r="X69" t="n">
-        <v>14.15446253219181</v>
+        <v>14.19154840493268</v>
       </c>
       <c r="Y69" t="inlineStr">
         <is>
-          <t>[ 5.44437711  2.98735566  4.3800692  10.62385499]</t>
+          <t>[ 4.09954816  2.98201247  4.37689754 10.62134153]</t>
         </is>
       </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>[np.float64(8.204540667683835e-05) np.float64(7.228298865971844e-06)
- np.float64(4.551302516511252e-06) np.float64(6.833595061611683e-10)]</t>
+          <t>[np.float64(7.548513895462337e-05) np.float64(7.2415068277202265e-06)
+ np.float64(4.5571290803252695e-06) np.float64(6.835638285080775e-10)]</t>
         </is>
       </c>
       <c r="AA69" t="inlineStr">
         <is>
-          <t>[np.float64(0.01073528128329286) np.float64(2.5003641764514057e-05)
- np.float64(1.5370886903841703e-05) np.float64(1.0120135914684103e-08)]</t>
+          <t>[np.float64(0.010662512823190452) np.float64(2.4947447057772024e-05)
+ np.float64(1.5352578495157988e-05) np.float64(1.0117591711346005e-08)]</t>
         </is>
       </c>
       <c r="AB69" t="n">
-        <v>8.290611045050548e-06</v>
+        <v>8.314009854962412e-06</v>
       </c>
       <c r="AC69" t="n">
-        <v>97.02242990760004</v>
+        <v>96.94666869888512</v>
       </c>
     </row>
     <row r="70">
@@ -6886,92 +6886,92 @@
         <v>1.064619047619048</v>
       </c>
       <c r="D70" t="n">
-        <v>3.49111473425469</v>
+        <v>3.413344908625422</v>
       </c>
       <c r="E70" t="n">
-        <v>2867.661221499104</v>
+        <v>2801.41287790002</v>
       </c>
       <c r="F70" t="n">
-        <v>841.0854680218565</v>
+        <v>810.9470134093668</v>
       </c>
       <c r="G70" t="n">
-        <v>1527.047737636555</v>
+        <v>1492.404446341173</v>
       </c>
       <c r="H70" t="n">
-        <v>497.213252690056</v>
+        <v>488.0694071707755</v>
       </c>
       <c r="I70" t="n">
-        <v>675.4041055432007</v>
+        <v>661.0286654825437</v>
       </c>
       <c r="J70" t="n">
         <v>46.20000000000002</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>[0.22530766 0.19595136 0.21582763 0.1766132 ]</t>
+          <t>[0.15790446 0.19551886 0.21569339 0.17657003]</t>
         </is>
       </c>
       <c r="L70" t="n">
-        <v>1</v>
+        <v>0.9983567804080845</v>
       </c>
       <c r="M70" t="n">
-        <v>10.92564535465014</v>
+        <v>10.79855645443272</v>
       </c>
       <c r="N70" t="n">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="O70" t="n">
-        <v>0.01951497234945869</v>
+        <v>0.001240736637698487</v>
       </c>
       <c r="P70" t="n">
-        <v>0.2571039253333101</v>
+        <v>0.2554687569264407</v>
       </c>
       <c r="Q70" t="n">
-        <v>1.290219475365002</v>
+        <v>0.4252616268807546</v>
       </c>
       <c r="R70" t="n">
-        <v>4.653388789328874</v>
+        <v>4.545189217624728</v>
       </c>
       <c r="S70" t="n">
-        <v>101.4926135858205</v>
+        <v>100.746071460892</v>
       </c>
       <c r="T70" t="n">
-        <v>6.067467123043357</v>
+        <v>6.046924006188602</v>
       </c>
       <c r="U70" t="n">
-        <v>11.52287091189944</v>
+        <v>11.10997408370833</v>
       </c>
       <c r="V70" t="n">
-        <v>69.21161800706028</v>
+        <v>68.87502216316783</v>
       </c>
       <c r="W70" t="n">
-        <v>11.34710922293352</v>
+        <v>11.3427807678781</v>
       </c>
       <c r="X70" t="n">
-        <v>15.17534409279863</v>
+        <v>15.16255595019854</v>
       </c>
       <c r="Y70" t="inlineStr">
         <is>
-          <t>[ 5.63269145  2.93927043  4.31655261 10.59679218]</t>
+          <t>[ 3.94761155  2.93278293  4.3138678  10.59420181]</t>
         </is>
       </c>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>[np.float64(8.284441999195524e-05) np.float64(7.314518607738212e-06)
- np.float64(4.540086667354557e-06) np.float64(6.294947888825855e-10)]</t>
+          <t>[np.float64(7.791855780153219e-05) np.float64(7.329165407507457e-06)
+ np.float64(4.546010737689635e-06) np.float64(6.297219632751145e-10)]</t>
         </is>
       </c>
       <c r="AA70" t="inlineStr">
         <is>
-          <t>[np.float64(0.010096264743993518) np.float64(2.5921540904395613e-05)
- np.float64(1.572815616408325e-05) np.float64(1.0147804078130744e-08)]</t>
+          <t>[np.float64(0.010027581386565697) np.float64(2.5850315333226505e-05)
+ np.float64(1.571077906294981e-05) np.float64(1.0145162880875096e-08)]</t>
         </is>
       </c>
       <c r="AB70" t="n">
-        <v>8.552576583369962e-06</v>
+        <v>8.576716812001138e-06</v>
       </c>
       <c r="AC70" t="n">
-        <v>103.835045461162</v>
+        <v>103.4264616158735</v>
       </c>
     </row>
     <row r="71">
@@ -6985,92 +6985,92 @@
         <v>1.072476190476191</v>
       </c>
       <c r="D71" t="n">
-        <v>3.643393770710012</v>
+        <v>3.567094876432728</v>
       </c>
       <c r="E71" t="n">
-        <v>3074.975144862179</v>
+        <v>3008.024881653661</v>
       </c>
       <c r="F71" t="n">
-        <v>951.7614868229725</v>
+        <v>921.2483074132746</v>
       </c>
       <c r="G71" t="n">
-        <v>1589.281780427436</v>
+        <v>1555.596316430809</v>
       </c>
       <c r="H71" t="n">
-        <v>527.4494948079812</v>
+        <v>518.2032759849018</v>
       </c>
       <c r="I71" t="n">
-        <v>716.1031676890105</v>
+        <v>701.5899295039328</v>
       </c>
       <c r="J71" t="n">
         <v>47.40000000000003</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>[0.23426297 0.19334918 0.21319253 0.17613375]</t>
+          <t>[0.1524996  0.19283024 0.21307189 0.17608955]</t>
         </is>
       </c>
       <c r="L71" t="n">
-        <v>1</v>
+        <v>0.8277934095839923</v>
       </c>
       <c r="M71" t="n">
-        <v>11.15445792864736</v>
+        <v>10.97951668438772</v>
       </c>
       <c r="N71" t="n">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="O71" t="n">
-        <v>0.02742895563824008</v>
+        <v>0.001729575760488852</v>
       </c>
       <c r="P71" t="n">
-        <v>0.3983522212516599</v>
+        <v>0.328402086556609</v>
       </c>
       <c r="Q71" t="n">
-        <v>1.309734447714461</v>
+        <v>0.4265023635184531</v>
       </c>
       <c r="R71" t="n">
-        <v>4.910492714662184</v>
+        <v>4.800657974551169</v>
       </c>
       <c r="S71" t="n">
-        <v>164.8500959481298</v>
+        <v>159.818551396971</v>
       </c>
       <c r="T71" t="n">
-        <v>7.789136175280417</v>
+        <v>6.308029237241727</v>
       </c>
       <c r="U71" t="n">
-        <v>13.03913236947473</v>
+        <v>12.62110181156186</v>
       </c>
       <c r="V71" t="n">
-        <v>71.98934636438457</v>
+        <v>71.69384106456062</v>
       </c>
       <c r="W71" t="n">
-        <v>12.02254007766373</v>
+        <v>12.01592476143632</v>
       </c>
       <c r="X71" t="n">
-        <v>16.08449815449222</v>
+        <v>16.06863181505157</v>
       </c>
       <c r="Y71" t="inlineStr">
         <is>
-          <t>[ 5.85657435  2.90023768  4.2638506  10.56802514]</t>
+          <t>[ 3.81249011  2.89245364  4.2614379  10.56537294]</t>
         </is>
       </c>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>[np.float64(0.005580807710954813) np.float64(7.428102281371794e-06)
- np.float64(4.558014164860604e-06) np.float64(5.861028696776529e-10)]</t>
+          <t>[np.float64(0.005577812705279443) np.float64(7.444541098158767e-06)
+ np.float64(4.563911000157598e-06) np.float64(5.863470333171481e-10)]</t>
         </is>
       </c>
       <c r="AA71" t="inlineStr">
         <is>
-          <t>[np.float64(0.015032212557123165) np.float64(2.6708479705660383e-05)
- np.float64(1.6033175137410847e-05) np.float64(1.0163253147475116e-08)]</t>
+          <t>[np.float64(0.01493486011655519) np.float64(2.6619549837764075e-05)
+ np.float64(1.6016077630495745e-05) np.float64(1.0160535228206758e-08)]</t>
         </is>
       </c>
       <c r="AB71" t="n">
-        <v>8.832005081975569e-06</v>
+        <v>8.856742638264177e-06</v>
       </c>
       <c r="AC71" t="n">
-        <v>109.9025125842053</v>
+        <v>109.4733856220622</v>
       </c>
     </row>
     <row r="72">
@@ -7084,92 +7084,92 @@
         <v>1.08002380952381</v>
       </c>
       <c r="D72" t="n">
-        <v>3.826025499040254</v>
+        <v>3.710432297045474</v>
       </c>
       <c r="E72" t="n">
-        <v>3350.115792706973</v>
+        <v>3230.84744013796</v>
       </c>
       <c r="F72" t="n">
-        <v>1105.132745093028</v>
+        <v>1045.455967871237</v>
       </c>
       <c r="G72" t="n">
-        <v>1663.451480972818</v>
+        <v>1612.976257231102</v>
       </c>
       <c r="H72" t="n">
-        <v>568.4428309497332</v>
+        <v>551.4017150794577</v>
       </c>
       <c r="I72" t="n">
-        <v>768.4077842650091</v>
+        <v>743.9488051455234</v>
       </c>
       <c r="J72" t="n">
         <v>48.60000000000003</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>[0.2400159  0.18743549 0.20965441 0.17563148]</t>
+          <t>[0.14692458 0.18683075 0.2095432  0.17558639]</t>
         </is>
       </c>
       <c r="L72" t="n">
-        <v>1</v>
+        <v>0.8350991144639853</v>
       </c>
       <c r="M72" t="n">
-        <v>11.37205295091432</v>
+        <v>11.14420129269852</v>
       </c>
       <c r="N72" t="n">
         <v>0</v>
       </c>
       <c r="O72" t="n">
-        <v>0.02126133138783186</v>
+        <v>0.001371075000432357</v>
       </c>
       <c r="P72" t="n">
-        <v>0.3567734731633513</v>
+        <v>0.2963185362993561</v>
       </c>
       <c r="Q72" t="n">
-        <v>1.337163403352701</v>
+        <v>0.4282319392789419</v>
       </c>
       <c r="R72" t="n">
-        <v>5.308844935913844</v>
+        <v>5.129060061107777</v>
       </c>
       <c r="S72" t="n">
-        <v>167.6182405874069</v>
+        <v>159.4763980463264</v>
       </c>
       <c r="T72" t="n">
-        <v>7.085478225837906</v>
+        <v>5.775572207702943</v>
       </c>
       <c r="U72" t="n">
-        <v>15.14031860777449</v>
+        <v>14.32274675983595</v>
       </c>
       <c r="V72" t="n">
-        <v>74.90868448078885</v>
+        <v>74.24349148009502</v>
       </c>
       <c r="W72" t="n">
-        <v>12.8490685072745</v>
+        <v>12.75687440007551</v>
       </c>
       <c r="X72" t="n">
-        <v>17.13819886015754</v>
+        <v>17.01403149213897</v>
       </c>
       <c r="Y72" t="inlineStr">
         <is>
-          <t>[ 6.00039741  2.81153237  4.19308823 10.53788858]</t>
+          <t>[ 3.67311459  2.80246128  4.19086395 10.53518311]</t>
         </is>
       </c>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>[np.float64(0.004326715540418389) np.float64(7.561636441626181e-06)
- np.float64(4.595772923344674e-06) np.float64(5.487856480711681e-10)]</t>
+          <t>[np.float64(0.0048287275931418626) np.float64(7.580315524745389e-06)
+ np.float64(4.60158771817114e-06) np.float64(5.490432941812741e-10)]</t>
         </is>
       </c>
       <c r="AA72" t="inlineStr">
         <is>
-          <t>[np.float64(0.015605890592815837) np.float64(2.742179161138258e-05)
- np.float64(1.6322236743791953e-05) np.float64(1.0171209976782171e-08)]</t>
+          <t>[np.float64(0.015061222696029188) np.float64(2.731198711097996e-05)
+ np.float64(1.6304790618953564e-05) np.float64(1.016842702111072e-08)]</t>
         </is>
       </c>
       <c r="AB72" t="n">
-        <v>9.125609004969865e-06</v>
+        <v>9.150862100583297e-06</v>
       </c>
       <c r="AC72" t="n">
-        <v>117.1025125842053</v>
+        <v>115.7814148593039</v>
       </c>
     </row>
     <row r="73">
@@ -7183,92 +7183,92 @@
         <v>1.088119047619048</v>
       </c>
       <c r="D73" t="n">
-        <v>3.975746260106697</v>
+        <v>3.832437305766788</v>
       </c>
       <c r="E73" t="n">
-        <v>3608.772101472538</v>
+        <v>3441.685458495819</v>
       </c>
       <c r="F73" t="n">
-        <v>1255.171879627681</v>
+        <v>1167.757078377249</v>
       </c>
       <c r="G73" t="n">
-        <v>1722.987654345085</v>
+        <v>1661.484341916448</v>
       </c>
       <c r="H73" t="n">
-        <v>607.7610532755158</v>
+        <v>583.4511018509795</v>
       </c>
       <c r="I73" t="n">
-        <v>816.0502011252441</v>
+        <v>782.7834765615422</v>
       </c>
       <c r="J73" t="n">
         <v>49.80000000000003</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>[0.23183991 0.18198098 0.2066653  0.17509756]</t>
+          <t>[0.14203459 0.1812176  0.2065852  0.17505168]</t>
         </is>
       </c>
       <c r="L73" t="n">
-        <v>1</v>
+        <v>0.7830760703077553</v>
       </c>
       <c r="M73" t="n">
-        <v>11.60975253359351</v>
+        <v>11.3157591969581</v>
       </c>
       <c r="N73" t="n">
         <v>0</v>
       </c>
       <c r="O73" t="n">
-        <v>0.001301203354574395</v>
+        <v>0.001448851551892293</v>
       </c>
       <c r="P73" t="n">
-        <v>0.4216567341708867</v>
+        <v>0.3281882414721066</v>
       </c>
       <c r="Q73" t="n">
-        <v>1.358424734740533</v>
+        <v>0.4296030142793743</v>
       </c>
       <c r="R73" t="n">
-        <v>5.665618409077195</v>
+        <v>5.425378597407134</v>
       </c>
       <c r="S73" t="n">
-        <v>168.7420967083693</v>
+        <v>159.1856877926602</v>
       </c>
       <c r="T73" t="n">
-        <v>7.534101376707973</v>
+        <v>5.734153429371347</v>
       </c>
       <c r="U73" t="n">
-        <v>17.19585475089924</v>
+        <v>15.99827197376832</v>
       </c>
       <c r="V73" t="n">
-        <v>77.55977123665232</v>
+        <v>76.39554367086201</v>
       </c>
       <c r="W73" t="n">
-        <v>13.72586252476908</v>
+        <v>13.47157381737885</v>
       </c>
       <c r="X73" t="n">
-        <v>18.20062192028264</v>
+        <v>17.88004235312861</v>
       </c>
       <c r="Y73" t="inlineStr">
         <is>
-          <t>[ 5.79599776  2.72971467  4.13330606 10.5058533 ]</t>
+          <t>[ 3.55086483  2.71826395  4.131704   10.50310054]</t>
         </is>
       </c>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>[np.float64(0.003143294500945005) np.float64(7.731177529852568e-06)
- np.float64(4.637547849913235e-06) np.float64(5.096781801057197e-10)]</t>
+          <t>[np.float64(0.004152922849797197) np.float64(7.752957396625621e-06)
+ np.float64(4.643369148034258e-06) np.float64(5.099489260594071e-10)]</t>
         </is>
       </c>
       <c r="AA73" t="inlineStr">
         <is>
-          <t>[np.float64(0.016043306859283755) np.float64(2.813702370749986e-05)
- np.float64(1.668914287412077e-05) np.float64(1.0179009657363383e-08)]</t>
+          <t>[np.float64(0.015169423999292936) np.float64(2.799426578629965e-05)
+ np.float64(1.6672717651463916e-05) np.float64(1.0176167774438994e-08)]</t>
         </is>
       </c>
       <c r="AB73" t="n">
-        <v>9.438686878812236e-06</v>
+        <v>9.464398248519224e-06</v>
       </c>
       <c r="AC73" t="n">
-        <v>124.1879908100432</v>
+        <v>121.5569870670068</v>
       </c>
     </row>
     <row r="74">
@@ -7282,92 +7282,92 @@
         <v>1.095285714285715</v>
       </c>
       <c r="D74" t="n">
-        <v>4.119005467074782</v>
+        <v>3.939302584769252</v>
       </c>
       <c r="E74" t="n">
-        <v>3893.999064854895</v>
+        <v>3658.769764699138</v>
       </c>
       <c r="F74" t="n">
-        <v>1427.550832283262</v>
+        <v>1298.953529433412</v>
       </c>
       <c r="G74" t="n">
-        <v>1779.024221596054</v>
+        <v>1702.857904015814</v>
       </c>
       <c r="H74" t="n">
-        <v>652.0418602288091</v>
+        <v>617.152923521649</v>
       </c>
       <c r="I74" t="n">
-        <v>866.7974112787651</v>
+        <v>821.4068338251512</v>
       </c>
       <c r="J74" t="n">
         <v>51.00000000000004</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>[0.22334881 0.17508605 0.20294935 0.1745486 ]</t>
+          <t>[0.13728319 0.17429245 0.20287311 0.17450613]</t>
         </is>
       </c>
       <c r="L74" t="n">
-        <v>1</v>
+        <v>0.7524176027258077</v>
       </c>
       <c r="M74" t="n">
-        <v>11.81426126929745</v>
+        <v>11.45706910459713</v>
       </c>
       <c r="N74" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="O74" t="n">
-        <v>0.001280536716780617</v>
+        <v>0.00146529481592111</v>
       </c>
       <c r="P74" t="n">
-        <v>0.4699069229901063</v>
+        <v>0.3511324867333666</v>
       </c>
       <c r="Q74" t="n">
-        <v>1.359725938095107</v>
+        <v>0.4310518658312666</v>
       </c>
       <c r="R74" t="n">
-        <v>6.087275143248082</v>
+        <v>5.75356683887924</v>
       </c>
       <c r="S74" t="n">
-        <v>168.6468910671737</v>
+        <v>158.5838189966211</v>
       </c>
       <c r="T74" t="n">
-        <v>7.421895506208061</v>
+        <v>5.372409110760461</v>
       </c>
       <c r="U74" t="n">
-        <v>19.55744640228069</v>
+        <v>17.79566335323775</v>
       </c>
       <c r="V74" t="n">
-        <v>79.84128158239031</v>
+        <v>78.22376161313731</v>
       </c>
       <c r="W74" t="n">
-        <v>14.65550007317061</v>
+        <v>14.2224403738973</v>
       </c>
       <c r="X74" t="n">
-        <v>19.26381953909076</v>
+        <v>18.74055925791501</v>
       </c>
       <c r="Y74" t="inlineStr">
         <is>
-          <t>[ 5.58372036  2.6262907   4.05898697 10.47291582]</t>
+          <t>[ 3.43207972  2.61438672  4.05746213 10.47036766]</t>
         </is>
       </c>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>[np.float64(0.002195900787739297) np.float64(7.946391663303421e-06)
- np.float64(4.710791964954315e-06) np.float64(4.807536751158099e-10)]</t>
+          <t>[np.float64(0.0035233829493360137) np.float64(7.972465179682134e-06)
+ np.float64(4.716425430726548e-06) np.float64(4.810348360997584e-10)]</t>
         </is>
       </c>
       <c r="AA74" t="inlineStr">
         <is>
-          <t>[np.float64(0.016286260716437403) np.float64(2.8680608452057123e-05)
- np.float64(1.69664444043177e-05) np.float64(1.0175670362256355e-08)]</t>
+          <t>[np.float64(0.015232122299586691) np.float64(2.851857658944396e-05)
+ np.float64(1.694929326957188e-05) np.float64(1.0173018861721864e-08)]</t>
         </is>
       </c>
       <c r="AB74" t="n">
-        <v>9.761324879781624e-06</v>
+        <v>9.785028275287023e-06</v>
       </c>
       <c r="AC74" t="n">
-        <v>131.3879908100432</v>
+        <v>127.2911404963782</v>
       </c>
     </row>
     <row r="75">
@@ -7381,92 +7381,92 @@
         <v>1.102452380952381</v>
       </c>
       <c r="D75" t="n">
-        <v>4.242888577943761</v>
+        <v>4.026769034363283</v>
       </c>
       <c r="E75" t="n">
-        <v>4183.196643245265</v>
+        <v>3869.032818654688</v>
       </c>
       <c r="F75" t="n">
-        <v>1608.547202415863</v>
+        <v>1430.548163630451</v>
       </c>
       <c r="G75" t="n">
-        <v>1826.171664575341</v>
+        <v>1735.632801923234</v>
       </c>
       <c r="H75" t="n">
-        <v>697.7681287663036</v>
+        <v>650.3985161099351</v>
       </c>
       <c r="I75" t="n">
-        <v>916.6609185605512</v>
+        <v>857.6604338046463</v>
       </c>
       <c r="J75" t="n">
         <v>52.20000000000004</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>[0.22410837 0.16733454 0.19841603 0.17399464]</t>
+          <t>[0.13277348 0.16653176 0.19835342 0.17395528]</t>
         </is>
       </c>
       <c r="L75" t="n">
-        <v>1</v>
+        <v>0.7443058332547978</v>
       </c>
       <c r="M75" t="n">
-        <v>12.0187321663981</v>
+        <v>11.59223870809401</v>
       </c>
       <c r="N75" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="O75" t="n">
-        <v>0.0195224906443236</v>
+        <v>0.001329915906759141</v>
       </c>
       <c r="P75" t="n">
-        <v>0.461368108746524</v>
+        <v>0.3407829878814821</v>
       </c>
       <c r="Q75" t="n">
-        <v>1.361006474811888</v>
+        <v>0.4325171606471877</v>
       </c>
       <c r="R75" t="n">
-        <v>6.557182066238188</v>
+        <v>6.104699325612606</v>
       </c>
       <c r="S75" t="n">
-        <v>166.8537624535548</v>
+        <v>157.9582605178094</v>
       </c>
       <c r="T75" t="n">
-        <v>6.980179148820097</v>
+        <v>4.969487547632088</v>
       </c>
       <c r="U75" t="n">
-        <v>22.03709667309733</v>
+        <v>19.59850984173717</v>
       </c>
       <c r="V75" t="n">
-        <v>81.79974885398174</v>
+        <v>79.66514331041896</v>
       </c>
       <c r="W75" t="n">
-        <v>15.63344023668805</v>
+        <v>14.96254663204217</v>
       </c>
       <c r="X75" t="n">
-        <v>20.35987519936081</v>
+        <v>19.54762913202996</v>
       </c>
       <c r="Y75" t="inlineStr">
         <is>
-          <t>[ 5.60270937  2.51001813  3.9683205  10.43967839]</t>
+          <t>[ 3.31933701  2.49797645  3.9670684  10.43731658]</t>
         </is>
       </c>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>[np.float64(0.001525298738433024) np.float64(8.20673213545713e-06)
- np.float64(4.79500412388324e-06) np.float64(4.5374088646285406e-10)]</t>
+          <t>[np.float64(0.0029465816314856023) np.float64(8.237316543686222e-06)
+ np.float64(4.800480346714161e-06) np.float64(4.5402873606820867e-10)]</t>
         </is>
       </c>
       <c r="AA75" t="inlineStr">
         <is>
-          <t>[np.float64(0.016268699620789258) np.float64(2.9175591393622605e-05)
- np.float64(1.723717612403481e-05) np.float64(1.017005527100619e-08)]</t>
+          <t>[np.float64(0.015277370149999744) np.float64(2.8994635244191126e-05)
+ np.float64(1.7219159789014782e-05) np.float64(1.0167580403571545e-08)]</t>
         </is>
       </c>
       <c r="AB75" t="n">
-        <v>1.008760367881283e-05</v>
+        <v>1.010947385710572e-05</v>
       </c>
       <c r="AC75" t="n">
-        <v>138.5879908100432</v>
+        <v>132.6635496071386</v>
       </c>
     </row>
     <row r="76">
@@ -7480,92 +7480,92 @@
         <v>1.110190476190477</v>
       </c>
       <c r="D76" t="n">
-        <v>4.342454065243269</v>
+        <v>4.096735550223151</v>
       </c>
       <c r="E76" t="n">
-        <v>4463.671425740471</v>
+        <v>4069.582771633143</v>
       </c>
       <c r="F76" t="n">
-        <v>1789.701857646911</v>
+        <v>1560.080513259907</v>
       </c>
       <c r="G76" t="n">
-        <v>1863.03633182392</v>
+        <v>1761.306322852786</v>
       </c>
       <c r="H76" t="n">
-        <v>742.3689615598508</v>
+        <v>682.2897786326139</v>
       </c>
       <c r="I76" t="n">
-        <v>963.4925830751715</v>
+        <v>891.1468243911884</v>
       </c>
       <c r="J76" t="n">
         <v>53.40000000000004</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>[0.22448901 0.15984043 0.1937115  0.17342957]</t>
+          <t>[0.12870039 0.15900822 0.19366954 0.17339269]</t>
         </is>
       </c>
       <c r="L76" t="n">
-        <v>0.9948438716091298</v>
+        <v>0.726956578024607</v>
       </c>
       <c r="M76" t="n">
-        <v>12.24295946210362</v>
+        <v>11.73410581251003</v>
       </c>
       <c r="N76" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="O76" t="n">
-        <v>0.01785028633610019</v>
+        <v>0.001235036357871423</v>
       </c>
       <c r="P76" t="n">
-        <v>0.4637268376151539</v>
+        <v>0.3361099951481048</v>
       </c>
       <c r="Q76" t="n">
-        <v>1.380528965456212</v>
+        <v>0.4338470765539468</v>
       </c>
       <c r="R76" t="n">
-        <v>7.018550174984712</v>
+        <v>6.445482313494089</v>
       </c>
       <c r="S76" t="n">
-        <v>163.8189846398873</v>
+        <v>157.237172215521</v>
       </c>
       <c r="T76" t="n">
-        <v>6.99676631888239</v>
+        <v>4.905979676379796</v>
       </c>
       <c r="U76" t="n">
-        <v>24.51891544976268</v>
+        <v>21.37310303166073</v>
       </c>
       <c r="V76" t="n">
-        <v>83.43432377241075</v>
+        <v>80.78830439865813</v>
       </c>
       <c r="W76" t="n">
-        <v>16.62553532076247</v>
+        <v>15.67193169935988</v>
       </c>
       <c r="X76" t="n">
-        <v>21.43180284627633</v>
+        <v>20.29249601911443</v>
       </c>
       <c r="Y76" t="inlineStr">
         <is>
-          <t>[ 5.61222514  2.39760643  3.87423003 10.40577419]</t>
+          <t>[ 3.21750987  2.38512332  3.87339072 10.40356163]</t>
         </is>
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>[np.float64(0.0010496563111627626) np.float64(8.527359367959029e-06)
- np.float64(4.884562530389147e-06) np.float64(4.246630671146582e-10)]</t>
+          <t>[np.float64(0.0024376335237471193) np.float64(8.562816261656698e-06)
+ np.float64(4.8898501520876865e-06) np.float64(4.249547952872961e-10)]</t>
         </is>
       </c>
       <c r="AA76" t="inlineStr">
         <is>
-          <t>[np.float64(0.016080020829824865) np.float64(2.967460859140047e-05)
- np.float64(1.755403957039233e-05) np.float64(1.0165773142310987e-08)]</t>
+          <t>[np.float64(0.015296062316604414) np.float64(2.946878131226247e-05)
+ np.float64(1.7535053709141424e-05) np.float64(1.016344162859817e-08)]</t>
         </is>
       </c>
       <c r="AB76" t="n">
-        <v>1.042120315924682e-05</v>
+        <v>1.044160101464859e-05</v>
       </c>
       <c r="AC76" t="n">
-        <v>145.5681699588633</v>
+        <v>137.6330371547707</v>
       </c>
     </row>
     <row r="77">
@@ -7579,92 +7579,92 @@
         <v>1.117666666666667</v>
       </c>
       <c r="D77" t="n">
-        <v>4.430269921759837</v>
+        <v>4.157131076276687</v>
       </c>
       <c r="E77" t="n">
-        <v>4753.588033956896</v>
+        <v>4272.865963172108</v>
       </c>
       <c r="F77" t="n">
-        <v>1982.33901880923</v>
+        <v>1695.153481900768</v>
       </c>
       <c r="G77" t="n">
-        <v>1895.156813465185</v>
+        <v>1783.01273741521</v>
       </c>
       <c r="H77" t="n">
-        <v>787.5738635571774</v>
+        <v>713.9864682695274</v>
       </c>
       <c r="I77" t="n">
-        <v>1010.211957858711</v>
+        <v>923.9054292573617</v>
       </c>
       <c r="J77" t="n">
         <v>54.60000000000004</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>[0.22504596 0.15243549 0.18868218 0.17286556]</t>
+          <t>[0.1249712  0.15165231 0.18869111 0.17282256]</t>
         </is>
       </c>
       <c r="L77" t="n">
-        <v>0.962247954292446</v>
+        <v>0.6753126978939517</v>
       </c>
       <c r="M77" t="n">
-        <v>12.45784345820989</v>
+        <v>11.86353001784902</v>
       </c>
       <c r="N77" t="n">
         <v>0</v>
       </c>
       <c r="O77" t="n">
-        <v>0.01882902960298325</v>
+        <v>0.001321102651266359</v>
       </c>
       <c r="P77" t="n">
-        <v>0.501615210797095</v>
+        <v>0.349043656267677</v>
       </c>
       <c r="Q77" t="n">
-        <v>1.398379251792312</v>
+        <v>0.4350821129118183</v>
       </c>
       <c r="R77" t="n">
-        <v>7.482277012599866</v>
+        <v>6.781592308642193</v>
       </c>
       <c r="S77" t="n">
-        <v>159.5553312289804</v>
+        <v>155.738094123077</v>
       </c>
       <c r="T77" t="n">
-        <v>6.493711998474955</v>
+        <v>4.315794261977397</v>
       </c>
       <c r="U77" t="n">
-        <v>27.15804455768646</v>
+        <v>23.22360270204053</v>
       </c>
       <c r="V77" t="n">
-        <v>84.85536380811773</v>
+        <v>81.73211732173196</v>
       </c>
       <c r="W77" t="n">
-        <v>17.63019274150924</v>
+        <v>16.37637553287855</v>
       </c>
       <c r="X77" t="n">
-        <v>22.47011870351918</v>
+        <v>21.02054041292948</v>
       </c>
       <c r="Y77" t="inlineStr">
         <is>
-          <t>[ 5.62614908  2.2865324   3.77364351 10.37193369]</t>
+          <t>[ 3.12427994  2.27478464  3.77382219 10.36935374]</t>
         </is>
       </c>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>[np.float64(0.0007333793249252508) np.float64(8.89135808093048e-06)
- np.float64(4.99660701872071e-06) np.float64(3.993515967830206e-10)]</t>
+          <t>[np.float64(0.0020327789714118106) np.float64(8.931269006476003e-06)
+ np.float64(5.001648879312908e-06) np.float64(3.996410278596345e-10)]</t>
         </is>
       </c>
       <c r="AA77" t="inlineStr">
         <is>
-          <t>[np.float64(0.015729433945618022) np.float64(3.0090996500976078e-05)
- np.float64(1.783727999110259e-05) np.float64(1.0157719768042682e-08)]</t>
+          <t>[np.float64(0.015216139263126625) np.float64(2.9862549628401768e-05)
+ np.float64(1.7817154737083256e-05) np.float64(1.0155028696970135e-08)]</t>
         </is>
       </c>
       <c r="AB77" t="n">
-        <v>1.075485160524625e-05</v>
+        <v>1.077886800520555e-05</v>
       </c>
       <c r="AC77" t="n">
-        <v>152.5649362777457</v>
+        <v>142.5390168311505</v>
       </c>
     </row>
     <row r="78">
@@ -7678,92 +7678,92 @@
         <v>1.125690476190476</v>
       </c>
       <c r="D78" t="n">
-        <v>4.497522084612096</v>
+        <v>4.196813445286773</v>
       </c>
       <c r="E78" t="n">
-        <v>5029.767227665517</v>
+        <v>4456.417771408312</v>
       </c>
       <c r="F78" t="n">
-        <v>2170.803700595993</v>
+        <v>1820.409235841154</v>
       </c>
       <c r="G78" t="n">
-        <v>1918.775997965017</v>
+        <v>1795.869953978143</v>
       </c>
       <c r="H78" t="n">
-        <v>829.8108682483492</v>
+        <v>742.0576581424508</v>
       </c>
       <c r="I78" t="n">
-        <v>1053.178419195362</v>
+        <v>952.4614242472439</v>
       </c>
       <c r="J78" t="n">
         <v>55.80000000000005</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>[0.21474527 0.14521534 0.18263919 0.17230281]</t>
+          <t>[0.12138375 0.1445252  0.18269016 0.17226001]</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>0.8962030544761553</v>
+        <v>0.6159000511774908</v>
       </c>
       <c r="M78" t="n">
-        <v>12.69258207809423</v>
+        <v>11.99766465725289</v>
       </c>
       <c r="N78" t="n">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="O78" t="n">
-        <v>0.001247883619557593</v>
+        <v>0.001563583795866347</v>
       </c>
       <c r="P78" t="n">
-        <v>0.5649344221173349</v>
+        <v>0.3847547056300852</v>
       </c>
       <c r="Q78" t="n">
-        <v>1.417208281395295</v>
+        <v>0.4364032155630846</v>
       </c>
       <c r="R78" t="n">
-        <v>7.98389222339696</v>
+        <v>7.13063596490987</v>
       </c>
       <c r="S78" t="n">
-        <v>154.4231969049094</v>
+        <v>154.2156701872978</v>
       </c>
       <c r="T78" t="n">
-        <v>5.682802083583957</v>
+        <v>3.621710779251685</v>
       </c>
       <c r="U78" t="n">
-        <v>29.74001069816511</v>
+        <v>24.93960653102381</v>
       </c>
       <c r="V78" t="n">
-        <v>85.89639255826742</v>
+        <v>82.27833250546851</v>
       </c>
       <c r="W78" t="n">
-        <v>18.56810062818062</v>
+        <v>16.99971969666504</v>
       </c>
       <c r="X78" t="n">
-        <v>23.42422478288395</v>
+        <v>21.65465007834231</v>
       </c>
       <c r="Y78" t="inlineStr">
         <is>
-          <t>[ 5.36863178  2.17823005  3.65278375 10.33816885]</t>
+          <t>[ 3.03459387  2.16787805  3.65380321 10.33560062]</t>
         </is>
       </c>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>[np.float64(0.0005100199405946733) np.float64(9.325012212827419e-06)
- np.float64(5.1275759809360175e-06) np.float64(3.726951483836564e-10)]</t>
+          <t>[np.float64(0.001703862424788046) np.float64(9.369485969720421e-06)
+ np.float64(5.132078866412323e-06) np.float64(3.729870827847993e-10)]</t>
         </is>
       </c>
       <c r="AA78" t="inlineStr">
         <is>
-          <t>[np.float64(0.01527390091285418) np.float64(3.0494795178494983e-05)
- np.float64(1.815388010860638e-05) np.float64(1.0151014620475896e-08)]</t>
+          <t>[np.float64(0.015119109937306432) np.float64(3.0251670525067035e-05)
+ np.float64(1.8132682343358555e-05) np.float64(1.014833298225869e-08)]</t>
         </is>
       </c>
       <c r="AB78" t="n">
-        <v>1.108846756490775e-05</v>
+        <v>1.111236460306835e-05</v>
       </c>
       <c r="AC78" t="n">
-        <v>159.0586482762207</v>
+        <v>146.8548110931279</v>
       </c>
     </row>
     <row r="79">
@@ -7777,92 +7777,92 @@
         <v>1.134809523809524</v>
       </c>
       <c r="D79" t="n">
-        <v>4.540440890393547</v>
+        <v>4.213271343210392</v>
       </c>
       <c r="E79" t="n">
-        <v>5278.477817903611</v>
+        <v>4614.923700759853</v>
       </c>
       <c r="F79" t="n">
-        <v>2345.313262740768</v>
+        <v>1931.626053355873</v>
       </c>
       <c r="G79" t="n">
-        <v>1932.398620586631</v>
+        <v>1798.733147517895</v>
       </c>
       <c r="H79" t="n">
-        <v>867.0487652877118</v>
+        <v>765.7897697170755</v>
       </c>
       <c r="I79" t="n">
-        <v>1090.398585538115</v>
+        <v>976.1822358585599</v>
       </c>
       <c r="J79" t="n">
         <v>57.00000000000005</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>[0.21928562 0.13803612 0.1747283  0.17173973]</t>
+          <t>[0.11780665 0.13745205 0.17484017 0.17169678]</t>
         </is>
       </c>
       <c r="L79" t="n">
-        <v>0.8866330542867233</v>
+        <v>0.5872285657298105</v>
       </c>
       <c r="M79" t="n">
-        <v>12.97275241383059</v>
+        <v>12.14944035418875</v>
       </c>
       <c r="N79" t="n">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="O79" t="n">
-        <v>0.02117912542704553</v>
+        <v>0.001527605971805129</v>
       </c>
       <c r="P79" t="n">
-        <v>0.5538506551063406</v>
+        <v>0.3633197343824763</v>
       </c>
       <c r="Q79" t="n">
-        <v>1.418456165014852</v>
+        <v>0.4379667993589509</v>
       </c>
       <c r="R79" t="n">
-        <v>8.548826645514296</v>
+        <v>7.515390670539955</v>
       </c>
       <c r="S79" t="n">
-        <v>150.2887521386729</v>
+        <v>152.9021125048448</v>
       </c>
       <c r="T79" t="n">
-        <v>5.428628006091877</v>
+        <v>3.273906434170363</v>
       </c>
       <c r="U79" t="n">
-        <v>32.13079169954853</v>
+        <v>26.46327693097547</v>
       </c>
       <c r="V79" t="n">
-        <v>86.49163701610658</v>
+        <v>82.375499965228</v>
       </c>
       <c r="W79" t="n">
-        <v>19.39425218903826</v>
+        <v>17.52623495608205</v>
       </c>
       <c r="X79" t="n">
-        <v>24.24998297451712</v>
+        <v>22.18091463932929</v>
       </c>
       <c r="Y79" t="inlineStr">
         <is>
-          <t>[ 5.48214039  2.07054185  3.49456593 10.30438395]</t>
+          <t>[ 2.94516633  2.06178079  3.49680343 10.30180692]</t>
         </is>
       </c>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>[np.float64(0.00037085726711750546) np.float64(9.889318415892364e-06)
- np.float64(5.314596981071379e-06) np.float64(3.4301593388647666e-10)]</t>
+          <t>[np.float64(0.001434953890046753) np.float64(9.937971894381944e-06)
+ np.float64(5.318229067300196e-06) np.float64(3.433089516451644e-10)]</t>
         </is>
       </c>
       <c r="AA79" t="inlineStr">
         <is>
-          <t>[np.float64(0.01489026577904759) np.float64(3.092235188500262e-05)
- np.float64(1.850966215920065e-05) np.float64(1.0147232529377594e-08)]</t>
+          <t>[np.float64(0.015031639650025817) np.float64(3.066724034638511e-05)
+ np.float64(1.848777709706712e-05) np.float64(1.0144541407795309e-08)]</t>
         </is>
       </c>
       <c r="AB79" t="n">
-        <v>1.142308062086257e-05</v>
+        <v>1.14470616590985e-05</v>
       </c>
       <c r="AC79" t="n">
-        <v>164.7414503598046</v>
+        <v>150.4765218723796</v>
       </c>
     </row>
     <row r="80">
@@ -7876,92 +7876,92 @@
         <v>1.144428571428572</v>
       </c>
       <c r="D80" t="n">
-        <v>4.568699771332051</v>
+        <v>4.215671341116058</v>
       </c>
       <c r="E80" t="n">
-        <v>5524.133954197976</v>
+        <v>4763.074431350537</v>
       </c>
       <c r="F80" t="n">
-        <v>2523.056005469869</v>
+        <v>2038.819456255258</v>
       </c>
       <c r="G80" t="n">
-        <v>1940.143756648905</v>
+        <v>1795.775211033133</v>
       </c>
       <c r="H80" t="n">
-        <v>902.9332778446925</v>
+        <v>787.4310640580269</v>
       </c>
       <c r="I80" t="n">
-        <v>1125.526276522241</v>
+        <v>997.3671049270289</v>
       </c>
       <c r="J80" t="n">
         <v>58.20000000000005</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>[0.22295784 0.13151323 0.16695827 0.17117988]</t>
+          <t>[0.11457558 0.13101748 0.1671438  0.17113637]</t>
         </is>
       </c>
       <c r="L80" t="n">
-        <v>0.8436180027538327</v>
+        <v>0.5401874951208967</v>
       </c>
       <c r="M80" t="n">
-        <v>13.27627100037225</v>
+        <v>12.3047654480728</v>
       </c>
       <c r="N80" t="n">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="O80" t="n">
-        <v>0.0216308422488749</v>
+        <v>0.001580704689939453</v>
       </c>
       <c r="P80" t="n">
-        <v>0.5598683979654669</v>
+        <v>0.3548458249775965</v>
       </c>
       <c r="Q80" t="n">
-        <v>1.439635290441898</v>
+        <v>0.4394944053307561</v>
       </c>
       <c r="R80" t="n">
-        <v>9.102677300620638</v>
+        <v>7.878710404922431</v>
       </c>
       <c r="S80" t="n">
-        <v>146.0959368040678</v>
+        <v>151.5322068498668</v>
       </c>
       <c r="T80" t="n">
-        <v>4.657074271859925</v>
+        <v>2.595087675010215</v>
       </c>
       <c r="U80" t="n">
-        <v>34.5658672749372</v>
+        <v>27.93182655069704</v>
       </c>
       <c r="V80" t="n">
-        <v>86.82443898049374</v>
+        <v>82.21163394162323</v>
       </c>
       <c r="W80" t="n">
-        <v>20.18955978644546</v>
+        <v>18.00587044729164</v>
       </c>
       <c r="X80" t="n">
-        <v>25.02851715342472</v>
+        <v>22.65043438809212</v>
       </c>
       <c r="Y80" t="inlineStr">
         <is>
-          <t>[ 5.57394595  1.97269843  3.33916542 10.27079254]</t>
+          <t>[ 2.8643896   1.96526225  3.34287598 10.26818228]</t>
         </is>
       </c>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>[np.float64(0.0002744136086955566) np.float64(1.0535234761288737e-05)
- np.float64(5.5778846567614824e-06) np.float64(3.142649819639847e-10)]</t>
+          <t>[np.float64(0.001216354780067577) np.float64(1.0583690830044701e-05)
+ np.float64(5.5802649349690885e-06) np.float64(3.1455720983381417e-10)]</t>
         </is>
       </c>
       <c r="AA80" t="inlineStr">
         <is>
-          <t>[np.float64(0.01449155106321242) np.float64(3.132515970274314e-05)
- np.float64(1.8845115969429162e-05) np.float64(1.0142636524750255e-08)]</t>
+          <t>[np.float64(0.014928904487097452) np.float64(3.10596253085791e-05)
+ np.float64(1.882413452536764e-05) np.float64(1.013991352064757e-08)]</t>
         </is>
       </c>
       <c r="AB80" t="n">
-        <v>1.175655018636088e-05</v>
+        <v>1.178085794868938e-05</v>
       </c>
       <c r="AC80" t="n">
-        <v>170.1700783658965</v>
+        <v>153.75042830655</v>
       </c>
     </row>
     <row r="81">
@@ -7975,92 +7975,92 @@
         <v>1.155166666666667</v>
       </c>
       <c r="D81" t="n">
-        <v>4.576353621571759</v>
+        <v>4.198243573961216</v>
       </c>
       <c r="E81" t="n">
-        <v>5742.664036762892</v>
+        <v>4884.847177666797</v>
       </c>
       <c r="F81" t="n">
-        <v>2686.21680882948</v>
+        <v>2129.738467876301</v>
       </c>
       <c r="G81" t="n">
-        <v>1939.536742683615</v>
+        <v>1784.537785041306</v>
       </c>
       <c r="H81" t="n">
-        <v>934.0144993020683</v>
+        <v>804.7506278055224</v>
       </c>
       <c r="I81" t="n">
-        <v>1155.258662654282</v>
+        <v>1013.935049584069</v>
       </c>
       <c r="J81" t="n">
         <v>59.40000000000006</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>[0.22623937 0.12523312 0.15916979 0.17062044]</t>
+          <t>[0.11155097 0.12482285 0.1594304  0.17057597]</t>
         </is>
       </c>
       <c r="L81" t="n">
-        <v>0.9353269880568811</v>
+        <v>0.6465468290648746</v>
       </c>
       <c r="M81" t="n">
-        <v>13.63948118202786</v>
+        <v>12.48071350087949</v>
       </c>
       <c r="N81" t="n">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01443864909017482</v>
+        <v>0.001068461925054356</v>
       </c>
       <c r="P81" t="n">
-        <v>0.3970425980618617</v>
+        <v>0.2714516098176425</v>
       </c>
       <c r="Q81" t="n">
-        <v>1.461266132690773</v>
+        <v>0.4410751100206955</v>
       </c>
       <c r="R81" t="n">
-        <v>9.662545698586104</v>
+        <v>8.233556229900028</v>
       </c>
       <c r="S81" t="n">
-        <v>142.4694983253024</v>
+        <v>150.5230910177857</v>
       </c>
       <c r="T81" t="n">
-        <v>5.037397446802807</v>
+        <v>3.205595588046378</v>
       </c>
       <c r="U81" t="n">
-        <v>36.80117028096389</v>
+        <v>29.17741700990533</v>
       </c>
       <c r="V81" t="n">
-        <v>86.7857691025593</v>
+        <v>81.6768399094064</v>
       </c>
       <c r="W81" t="n">
-        <v>20.87766472820306</v>
+        <v>18.38930703198574</v>
       </c>
       <c r="X81" t="n">
-        <v>25.68676032626009</v>
+        <v>23.01723093142972</v>
       </c>
       <c r="Y81" t="inlineStr">
         <is>
-          <t>[ 5.65598421  1.87849679  3.18339586 10.23722624]</t>
+          <t>[ 2.78877437  1.87234277  3.18860808 10.23455837]</t>
         </is>
       </c>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>[np.float64(0.00021201346688133355) np.float64(1.13328038919642e-05)
- np.float64(5.985248951126025e-06) np.float64(2.8552519491417013e-10)]</t>
+          <t>[np.float64(0.001038317325520933) np.float64(1.1380286807971007e-05)
+ np.float64(5.985730613092288e-06) np.float64(2.8581491753537857e-10)]</t>
         </is>
       </c>
       <c r="AA81" t="inlineStr">
         <is>
-          <t>[np.float64(0.014141632154994595) np.float64(3.171422144287741e-05)
- np.float64(1.918379521542639e-05) np.float64(1.0137976755700616e-08)]</t>
+          <t>[np.float64(0.014854822515970097) np.float64(3.1439040339476214e-05)
+ np.float64(1.9164186249423526e-05) np.float64(1.0135199206236274e-08)]</t>
         </is>
       </c>
       <c r="AB81" t="n">
-        <v>1.209054574735542e-05</v>
+        <v>1.21154240157867e-05</v>
       </c>
       <c r="AC81" t="n">
-        <v>174.8271526377564</v>
+        <v>156.3455159815602</v>
       </c>
     </row>
     <row r="82">
@@ -8074,92 +8074,92 @@
         <v>1.16502380952381</v>
       </c>
       <c r="D82" t="n">
-        <v>4.580640756075723</v>
+        <v>4.195038210921818</v>
       </c>
       <c r="E82" t="n">
-        <v>5987.471045293312</v>
+        <v>5040.632436772373</v>
       </c>
       <c r="F82" t="n">
-        <v>2874.546840491932</v>
+        <v>2249.584067706221</v>
       </c>
       <c r="G82" t="n">
-        <v>1937.726153388753</v>
+        <v>1780.388904283193</v>
       </c>
       <c r="H82" t="n">
-        <v>967.2756115277346</v>
+        <v>825.916651676</v>
       </c>
       <c r="I82" t="n">
-        <v>1186.69402087013</v>
+        <v>1033.93923759376</v>
       </c>
       <c r="J82" t="n">
         <v>60</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>[0.23371542 0.12048877 0.15347928 0.17006365]</t>
+          <t>[0.10929257 0.1201412  0.15381289 0.17001789]</t>
         </is>
       </c>
       <c r="L82" t="n">
-        <v>0.8953851966712262</v>
+        <v>0.5960345005147003</v>
       </c>
       <c r="M82" t="n">
-        <v>13.95399773572411</v>
+        <v>12.62501178367529</v>
       </c>
       <c r="N82" t="n">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01483796821217778</v>
+        <v>0.001097403832979746</v>
       </c>
       <c r="P82" t="n">
-        <v>0.4142883380708459</v>
+        <v>0.2727027866372701</v>
       </c>
       <c r="Q82" t="n">
-        <v>1.475704781780948</v>
+        <v>0.4421435719457498</v>
       </c>
       <c r="R82" t="n">
-        <v>10.05958829664797</v>
+        <v>8.50500783971767</v>
       </c>
       <c r="S82" t="n">
-        <v>138.2719256632778</v>
+        <v>148.6459830093762</v>
       </c>
       <c r="T82" t="n">
-        <v>5.203232052691946</v>
+        <v>3.240992413926934</v>
       </c>
       <c r="U82" t="n">
-        <v>39.38129171473948</v>
+        <v>30.81930172757524</v>
       </c>
       <c r="V82" t="n">
-        <v>86.69264723601248</v>
+        <v>81.46412348209938</v>
       </c>
       <c r="W82" t="n">
-        <v>21.61313721349634</v>
+        <v>18.85733191564507</v>
       </c>
       <c r="X82" t="n">
-        <v>26.38186158674212</v>
+        <v>23.45956520371568</v>
       </c>
       <c r="Y82" t="inlineStr">
         <is>
-          <t>[ 5.84288561  1.80733156  3.06958567 10.20381901]</t>
+          <t>[ 2.73231437  1.80211806  3.07625784 10.20107325]</t>
         </is>
       </c>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>[np.float64(0.0001683368744220309) np.float64(1.1994052140373986e-05)
- np.float64(6.3538523567058375e-06) np.float64(2.615143609086215e-10)]</t>
+          <t>[np.float64(0.0008911453341156248) np.float64(1.2040526039698898e-05)
+ np.float64(6.352135852269272e-06) np.float64(2.6180048465004527e-10)]</t>
         </is>
       </c>
       <c r="AA82" t="inlineStr">
         <is>
-          <t>[np.float64(0.013730379291671733) np.float64(3.2042099113592485e-05)
- np.float64(1.946746566819713e-05) np.float64(1.012868162291067e-08)]</t>
+          <t>[np.float64(0.01468855629187139) np.float64(3.175834537746165e-05)
+ np.float64(1.9449314003488267e-05) np.float64(1.0125830264543578e-08)]</t>
         </is>
       </c>
       <c r="AB82" t="n">
-        <v>1.242360541531037e-05</v>
+        <v>1.2449257761567e-05</v>
       </c>
       <c r="AC82" t="n">
-        <v>179.8645500845592</v>
+        <v>159.5511115696065</v>
       </c>
     </row>
     <row r="83">
@@ -8173,92 +8173,92 @@
         <v>1.1725</v>
       </c>
       <c r="D83" t="n">
-        <v>4.581088925011311</v>
+        <v>4.183697459282636</v>
       </c>
       <c r="E83" t="n">
-        <v>6247.032732700412</v>
+        <v>5202.308381899069</v>
       </c>
       <c r="F83" t="n">
-        <v>3078.833012553638</v>
+        <v>2376.829965490007</v>
       </c>
       <c r="G83" t="n">
-        <v>1934.701744576783</v>
+        <v>1772.551039401792</v>
       </c>
       <c r="H83" t="n">
-        <v>1000.494563483702</v>
+        <v>846.6080931104051</v>
       </c>
       <c r="I83" t="n">
-        <v>1218.225234739925</v>
+        <v>1053.579419680401</v>
       </c>
       <c r="J83" t="n">
         <v>60</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>[0.24061036 0.11579513 0.1476072  0.16950276]</t>
+          <t>[0.10712261 0.11550875 0.14799709 0.16945542]</t>
         </is>
       </c>
       <c r="L83" t="n">
-        <v>0.8722189832288811</v>
+        <v>0.5666130592704521</v>
       </c>
       <c r="M83" t="n">
-        <v>14.16774799970297</v>
+        <v>12.71898124310862</v>
       </c>
       <c r="N83" t="n">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01440965080463991</v>
+        <v>0.001068654136459793</v>
       </c>
       <c r="P83" t="n">
-        <v>0.3997268586610115</v>
+        <v>0.2566717864437174</v>
       </c>
       <c r="Q83" t="n">
-        <v>1.490542749993125</v>
+        <v>0.4432409757787296</v>
       </c>
       <c r="R83" t="n">
-        <v>10.47387663471881</v>
+        <v>8.77771062635494</v>
       </c>
       <c r="S83" t="n">
-        <v>133.7172470408012</v>
+        <v>146.4699995190294</v>
       </c>
       <c r="T83" t="n">
-        <v>4.692568501239026</v>
+        <v>2.840600986413151</v>
       </c>
       <c r="U83" t="n">
-        <v>42.18001227198484</v>
+        <v>32.56257052721311</v>
       </c>
       <c r="V83" t="n">
-        <v>86.54488640396406</v>
+        <v>81.08376390258188</v>
       </c>
       <c r="W83" t="n">
-        <v>22.34685883750521</v>
+        <v>19.31435289669407</v>
       </c>
       <c r="X83" t="n">
-        <v>27.07830539623324</v>
+        <v>23.89336655649589</v>
       </c>
       <c r="Y83" t="inlineStr">
         <is>
-          <t>[ 6.01525895  1.73692693  2.952144   10.17016566]</t>
+          <t>[ 2.67806522  1.73263131  2.95994177 10.16732504]</t>
         </is>
       </c>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>[np.float64(0.00013559598011689603) np.float64(1.2440184154316689e-05)
- np.float64(6.625830302417507e-06) np.float64(2.4690869577154187e-10)]</t>
+          <t>[np.float64(0.0007688940582260631) np.float64(1.2485767557790482e-05)
+ np.float64(6.622368160995806e-06) np.float64(2.471917386964957e-10)]</t>
         </is>
       </c>
       <c r="AA83" t="inlineStr">
         <is>
-          <t>[np.float64(0.013282072986462773) np.float64(3.225708508937428e-05)
- np.float64(1.9633423966528175e-05) np.float64(1.0109696306051799e-08)]</t>
+          <t>[np.float64(0.014489151537372553) np.float64(3.196579928662575e-05)
+ np.float64(1.9616050826244695e-05) np.float64(1.0106753573451966e-08)]</t>
         </is>
       </c>
       <c r="AB83" t="n">
-        <v>1.275951523526988e-05</v>
+        <v>1.278611213201861e-05</v>
       </c>
       <c r="AC83" t="n">
-        <v>185.0677821372512</v>
+        <v>162.7921039835335</v>
       </c>
     </row>
     <row r="84">
@@ -8272,92 +8272,92 @@
         <v>1.179214285714286</v>
       </c>
       <c r="D84" t="n">
-        <v>4.572802467368057</v>
+        <v>4.162392466317091</v>
       </c>
       <c r="E84" t="n">
-        <v>6485.888578147158</v>
+        <v>5346.897459289718</v>
       </c>
       <c r="F84" t="n">
-        <v>3270.037116833758</v>
+        <v>2492.573521941222</v>
       </c>
       <c r="G84" t="n">
-        <v>1928.163118042952</v>
+        <v>1760.710678731967</v>
       </c>
       <c r="H84" t="n">
-        <v>1029.634976628205</v>
+        <v>864.2479605520642</v>
       </c>
       <c r="I84" t="n">
-        <v>1245.999170256988</v>
+        <v>1070.392103097918</v>
       </c>
       <c r="J84" t="n">
         <v>60</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>[0.24759585 0.11127363 0.14221911 0.1689496 ]</t>
+          <t>[0.10509285 0.11104532 0.14265961 0.16890049]</t>
         </is>
       </c>
       <c r="L84" t="n">
-        <v>0.936621261492851</v>
+        <v>0.6502189801112191</v>
       </c>
       <c r="M84" t="n">
-        <v>14.35651913945484</v>
+        <v>12.79847767630297</v>
       </c>
       <c r="N84" t="n">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01109519422218389</v>
+        <v>0.0008259290112299614</v>
       </c>
       <c r="P84" t="n">
-        <v>0.30728888629109</v>
+        <v>0.2107506901679423</v>
       </c>
       <c r="Q84" t="n">
-        <v>1.504952400797765</v>
+        <v>0.4443096299151894</v>
       </c>
       <c r="R84" t="n">
-        <v>10.87360349337982</v>
+        <v>9.034382412798658</v>
       </c>
       <c r="S84" t="n">
-        <v>129.5744430403925</v>
+        <v>144.5148334974855</v>
       </c>
       <c r="T84" t="n">
-        <v>4.354982091730575</v>
+        <v>2.839774236796098</v>
       </c>
       <c r="U84" t="n">
-        <v>44.79950850062249</v>
+        <v>34.14825725059475</v>
       </c>
       <c r="V84" t="n">
-        <v>86.24137216833228</v>
+        <v>80.52413410242262</v>
       </c>
       <c r="W84" t="n">
-        <v>22.98995133008796</v>
+        <v>19.70364272129718</v>
       </c>
       <c r="X84" t="n">
-        <v>27.69124143567543</v>
+        <v>24.26440146366622</v>
       </c>
       <c r="Y84" t="inlineStr">
         <is>
-          <t>[ 6.18989627  1.66910443  2.84438223 10.1369761 ]</t>
+          <t>[ 2.62732131  1.66567979  2.85319226 10.13402953]</t>
         </is>
       </c>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>[np.float64(0.00011244686544403581) np.float64(1.2841472971531116e-05)
- np.float64(6.899413408892552e-06) np.float64(2.3583850100198303e-10)]</t>
+          <t>[np.float64(0.0006666200944168096) np.float64(1.288614782539918e-05)
+ np.float64(6.8944419939982815e-06) np.float64(2.3611893006544756e-10)]</t>
         </is>
       </c>
       <c r="AA84" t="inlineStr">
         <is>
-          <t>[np.float64(0.012872886463544899) np.float64(3.2416201135380354e-05)
- np.float64(1.9755370596593716e-05) np.float64(1.0087608758586012e-08)]</t>
+          <t>[np.float64(0.014308620353634996) np.float64(3.211795056130696e-05)
+ np.float64(1.973832594203573e-05) np.float64(1.0084563003415209e-08)]</t>
         </is>
       </c>
       <c r="AB84" t="n">
-        <v>1.309109265762333e-05</v>
+        <v>1.311874591869665e-05</v>
       </c>
       <c r="AC84" t="n">
-        <v>189.7603506384902</v>
+        <v>165.6327049699466</v>
       </c>
     </row>
     <row r="85">
@@ -8371,92 +8371,92 @@
         <v>1.18652380952381</v>
       </c>
       <c r="D85" t="n">
-        <v>4.558144026861921</v>
+        <v>4.14873933254465</v>
       </c>
       <c r="E85" t="n">
-        <v>6711.67161604042</v>
+        <v>5494.124896879492</v>
       </c>
       <c r="F85" t="n">
-        <v>3453.505187953853</v>
+        <v>2612.208434477564</v>
       </c>
       <c r="G85" t="n">
-        <v>1919.329827723162</v>
+        <v>1752.656382756137</v>
       </c>
       <c r="H85" t="n">
-        <v>1055.967729790499</v>
+        <v>881.4188862732486</v>
       </c>
       <c r="I85" t="n">
-        <v>1271.207907691716</v>
+        <v>1086.830086446973</v>
       </c>
       <c r="J85" t="n">
         <v>60</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>[0.256884   0.10734863 0.13828847 0.16839793]</t>
+          <t>[0.10338263 0.10716344 0.13878063 0.16835027]</t>
         </is>
       </c>
       <c r="L85" t="n">
-        <v>0.9579442419788584</v>
+        <v>0.6865421870421128</v>
       </c>
       <c r="M85" t="n">
-        <v>14.56416030385108</v>
+        <v>12.88231819151106</v>
       </c>
       <c r="N85" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="O85" t="n">
-        <v>0.009416648334657031</v>
+        <v>0.0006962922354943193</v>
       </c>
       <c r="P85" t="n">
-        <v>0.2562058110362985</v>
+        <v>0.1813832258068369</v>
       </c>
       <c r="Q85" t="n">
-        <v>1.516047595019949</v>
+        <v>0.4451355589264193</v>
       </c>
       <c r="R85" t="n">
-        <v>11.18089237967091</v>
+        <v>9.2451331029666</v>
       </c>
       <c r="S85" t="n">
-        <v>125.7363603054364</v>
+        <v>142.4475255559704</v>
       </c>
       <c r="T85" t="n">
-        <v>4.050363039993623</v>
+        <v>2.737339497221911</v>
       </c>
       <c r="U85" t="n">
-        <v>47.31302107496779</v>
+        <v>35.78725555234264</v>
       </c>
       <c r="V85" t="n">
-        <v>85.83632212113429</v>
+        <v>80.13879316241193</v>
       </c>
       <c r="W85" t="n">
-        <v>23.5706402623674</v>
+        <v>20.08229536205339</v>
       </c>
       <c r="X85" t="n">
-        <v>28.247143613274</v>
+        <v>24.62689128540874</v>
       </c>
       <c r="Y85" t="inlineStr">
         <is>
-          <t>[ 6.42210011  1.61022945  2.76576944 10.10387596]</t>
+          <t>[ 2.58456566  1.60745163  2.77561258 10.1010164 ]</t>
         </is>
       </c>
       <c r="Z85" t="inlineStr">
         <is>
-          <t>[np.float64(9.62076322157404e-05) np.float64(1.3265827197917295e-05)
- np.float64(7.206120028078752e-06) np.float64(2.234889838875306e-10)]</t>
+          <t>[np.float64(0.0005800181641541173) np.float64(1.3309481749963707e-05)
+ np.float64(7.199324578232136e-06) np.float64(2.2376732554747336e-10)]</t>
         </is>
       </c>
       <c r="AA85" t="inlineStr">
         <is>
-          <t>[np.float64(0.01249235580184119) np.float64(3.25757656167251e-05)
- np.float64(1.9900580569859646e-05) np.float64(1.0066856661427566e-08)]</t>
+          <t>[np.float64(0.01411414134899392) np.float64(3.2269185359231855e-05)
+ np.float64(1.9883956101186455e-05) np.float64(1.0063900198042202e-08)]</t>
         </is>
       </c>
       <c r="AB85" t="n">
-        <v>1.342210880035231e-05</v>
+        <v>1.344889001760647e-05</v>
       </c>
       <c r="AC85" t="n">
-        <v>194.1153327302208</v>
+        <v>168.4724792067427</v>
       </c>
     </row>
     <row r="86">
@@ -8470,92 +8470,92 @@
         <v>1.194095238095238</v>
       </c>
       <c r="D86" t="n">
-        <v>4.538477520767436</v>
+        <v>4.135746577023414</v>
       </c>
       <c r="E86" t="n">
-        <v>6925.967314852498</v>
+        <v>5638.951440735173</v>
       </c>
       <c r="F86" t="n">
-        <v>3630.458330564363</v>
+        <v>2731.79791859108</v>
       </c>
       <c r="G86" t="n">
-        <v>1908.494442871372</v>
+        <v>1745.367904941766</v>
       </c>
       <c r="H86" t="n">
-        <v>1079.707611396043</v>
+        <v>897.4629087316229</v>
       </c>
       <c r="I86" t="n">
-        <v>1294.063522376038</v>
+        <v>1102.276498581125</v>
       </c>
       <c r="J86" t="n">
         <v>60</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>[0.26204978 0.10377354 0.13535372 0.16785718]</t>
+          <t>[0.10183123 0.10361706 0.13590264 0.16780796]</t>
         </is>
       </c>
       <c r="L86" t="n">
-        <v>0.9075819409863487</v>
+        <v>0.6074108989769373</v>
       </c>
       <c r="M86" t="n">
-        <v>14.78051079942795</v>
+        <v>12.96647267995178</v>
       </c>
       <c r="N86" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01169037622450942</v>
+        <v>0.0008550571865446241</v>
       </c>
       <c r="P86" t="n">
-        <v>0.3047669436627478</v>
+        <v>0.2014958478088451</v>
       </c>
       <c r="Q86" t="n">
-        <v>1.525464243354606</v>
+        <v>0.4458318511619137</v>
       </c>
       <c r="R86" t="n">
-        <v>11.43709819070721</v>
+        <v>9.426516328773436</v>
       </c>
       <c r="S86" t="n">
-        <v>122.1159837030674</v>
+        <v>140.3796134633081</v>
       </c>
       <c r="T86" t="n">
-        <v>4.550474825242118</v>
+        <v>2.849337651774591</v>
       </c>
       <c r="U86" t="n">
-        <v>49.73727912873178</v>
+        <v>37.42563148469781</v>
       </c>
       <c r="V86" t="n">
-        <v>85.34283678787278</v>
+        <v>79.79030231337299</v>
       </c>
       <c r="W86" t="n">
-        <v>24.09371746560535</v>
+        <v>20.43580438689426</v>
       </c>
       <c r="X86" t="n">
-        <v>28.75073715287143</v>
+        <v>24.96723274934033</v>
       </c>
       <c r="Y86" t="inlineStr">
         <is>
-          <t>[ 6.55124438  1.55660307  2.70707448 10.07143057]</t>
+          <t>[ 2.54578063  1.55425585  2.71805271 10.06847756]</t>
         </is>
       </c>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>[np.float64(8.34965029502021e-05) np.float64(1.3697914450476455e-05)
- np.float64(7.524439175073276e-06) np.float64(2.1114121614132446e-10)]</t>
+          <t>[np.float64(0.000506532844056632) np.float64(1.37405189559411e-05)
+ np.float64(7.517014300530057e-06) np.float64(2.1141587761329055e-10)]</t>
         </is>
       </c>
       <c r="AA86" t="inlineStr">
         <is>
-          <t>[np.float64(0.012133108018772203) np.float64(3.273473328928199e-05)
- np.float64(2.0048896870140615e-05) np.float64(1.004672488925022e-08)]</t>
+          <t>[np.float64(0.013917490979973007) np.float64(3.241939308450848e-05)
+ np.float64(2.0033968383711086e-05) np.float64(1.0043678736383446e-08)]</t>
         </is>
       </c>
       <c r="AB86" t="n">
-        <v>1.374690419958785e-05</v>
+        <v>1.377461911353586e-05</v>
       </c>
       <c r="AC86" t="n">
-        <v>198.1656957702144</v>
+        <v>171.2098187039647</v>
       </c>
     </row>
     <row r="87">
@@ -8569,92 +8569,92 @@
         <v>1.201261904761905</v>
       </c>
       <c r="D87" t="n">
-        <v>4.519329036867708</v>
+        <v>4.112493290005668</v>
       </c>
       <c r="E87" t="n">
-        <v>7171.92017159596</v>
+        <v>5792.957948230439</v>
       </c>
       <c r="F87" t="n">
-        <v>3836.904131290347</v>
+        <v>2861.066580796677</v>
       </c>
       <c r="G87" t="n">
-        <v>1898.296157733415</v>
+        <v>1733.421229572405</v>
       </c>
       <c r="H87" t="n">
-        <v>1105.464731517482</v>
+        <v>913.5910568879841</v>
       </c>
       <c r="I87" t="n">
-        <v>1319.034374249631</v>
+        <v>1117.912314880038</v>
       </c>
       <c r="J87" t="n">
         <v>60</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>[0.26118548 0.10023414 0.13137895 0.16731945]</t>
+          <t>[0.10028177 0.10011538 0.1319664  0.16726855]</t>
         </is>
       </c>
       <c r="L87" t="n">
-        <v>0.8181241161164223</v>
+        <v>0.4960611230337995</v>
       </c>
       <c r="M87" t="n">
-        <v>14.98288476491504</v>
+        <v>13.04243882166705</v>
       </c>
       <c r="N87" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01455985275166151</v>
+        <v>0.001062027193823274</v>
       </c>
       <c r="P87" t="n">
-        <v>0.3412659712825024</v>
+        <v>0.2043462479568412</v>
       </c>
       <c r="Q87" t="n">
-        <v>1.537154619579116</v>
+        <v>0.4466869083484583</v>
       </c>
       <c r="R87" t="n">
-        <v>11.74186513436996</v>
+        <v>9.628012176582281</v>
       </c>
       <c r="S87" t="n">
-        <v>117.8992518828719</v>
+        <v>138.09064712901</v>
       </c>
       <c r="T87" t="n">
-        <v>4.240680779368081</v>
+        <v>2.320874646466391</v>
       </c>
       <c r="U87" t="n">
-        <v>52.56558659867775</v>
+        <v>39.1966121569145</v>
       </c>
       <c r="V87" t="n">
-        <v>84.87733864967038</v>
+        <v>79.22963908662975</v>
       </c>
       <c r="W87" t="n">
-        <v>24.66075433243119</v>
+        <v>20.79086172852128</v>
       </c>
       <c r="X87" t="n">
-        <v>29.30046451142766</v>
+        <v>25.3114515223475</v>
       </c>
       <c r="Y87" t="inlineStr">
         <is>
-          <t>[ 6.52963691  1.50351208  2.62757901 10.03916717]</t>
+          <t>[ 2.50704414  1.50173069  2.63932795 10.03611307]</t>
         </is>
       </c>
       <c r="Z87" t="inlineStr">
         <is>
-          <t>[np.float64(7.330964429814085e-05) np.float64(1.4098636650195763e-05)
- np.float64(7.825736662482424e-06) np.float64(2.0073002654613855e-10)]</t>
+          <t>[np.float64(0.00044394838777292125) np.float64(1.4140186063393978e-05)
+ np.float64(7.817794364916329e-06) np.float64(2.0100135691821157e-10)]</t>
         </is>
       </c>
       <c r="AA87" t="inlineStr">
         <is>
-          <t>[np.float64(0.011714016415584094) np.float64(3.287380373305882e-05)
- np.float64(2.017621492874224e-05) np.float64(1.0024811238557403e-08)]</t>
+          <t>[np.float64(0.013697154035503348) np.float64(3.255293931974684e-05)
+ np.float64(2.01629813595234e-05) np.float64(1.0021667283000643e-08)]</t>
         </is>
       </c>
       <c r="AB87" t="n">
-        <v>1.407015260246788e-05</v>
+        <v>1.409887885431468e-05</v>
       </c>
       <c r="AC87" t="n">
-        <v>202.7161705954565</v>
+        <v>174.0591563557392</v>
       </c>
     </row>
     <row r="88">
@@ -8668,92 +8668,92 @@
         <v>1.208785714285715</v>
       </c>
       <c r="D88" t="n">
-        <v>4.496085303914366</v>
+        <v>4.071508068592993</v>
       </c>
       <c r="E88" t="n">
-        <v>7405.464678781115</v>
+        <v>5920.774106471967</v>
       </c>
       <c r="F88" t="n">
-        <v>4035.652731138316</v>
+        <v>2969.839348756963</v>
       </c>
       <c r="G88" t="n">
-        <v>1886.434966768725</v>
+        <v>1713.573628688532</v>
       </c>
       <c r="H88" t="n">
-        <v>1128.642355680557</v>
+        <v>926.2758976208968</v>
       </c>
       <c r="I88" t="n">
-        <v>1341.622122199139</v>
+        <v>1130.274323308458</v>
       </c>
       <c r="J88" t="n">
         <v>60</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>[0.25885088 0.0966579  0.12728361 0.16678761]</t>
+          <t>[0.09871406 0.09657919 0.12790848 0.16673498]</t>
         </is>
       </c>
       <c r="L88" t="n">
-        <v>0.9443063650157273</v>
+        <v>0.6636555816959273</v>
       </c>
       <c r="M88" t="n">
-        <v>15.19695063566365</v>
+        <v>13.11960348290759</v>
       </c>
       <c r="N88" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="O88" t="n">
-        <v>0.008616444902161419</v>
+        <v>0.0006332708952481276</v>
       </c>
       <c r="P88" t="n">
-        <v>0.2238926814327824</v>
+        <v>0.1552542414720124</v>
       </c>
       <c r="Q88" t="n">
-        <v>1.551714472330777</v>
+        <v>0.4477489355422815</v>
       </c>
       <c r="R88" t="n">
-        <v>12.08313110565246</v>
+        <v>9.832358424539123</v>
       </c>
       <c r="S88" t="n">
-        <v>113.9718352601311</v>
+        <v>136.2417385046812</v>
       </c>
       <c r="T88" t="n">
-        <v>2.945434100725326</v>
+        <v>1.915139438536159</v>
       </c>
       <c r="U88" t="n">
-        <v>55.28844241659493</v>
+        <v>40.68679907797041</v>
       </c>
       <c r="V88" t="n">
-        <v>84.33864663987916</v>
+        <v>78.31156828702387</v>
       </c>
       <c r="W88" t="n">
-        <v>25.17058894413309</v>
+        <v>21.06988820699305</v>
       </c>
       <c r="X88" t="n">
-        <v>29.79732370735009</v>
+        <v>25.58337670857948</v>
       </c>
       <c r="Y88" t="inlineStr">
         <is>
-          <t>[ 6.47127195  1.44986851  2.54567211 10.00725679]</t>
+          <t>[ 2.46785143  1.44868786  2.55816967 10.00409861]</t>
         </is>
       </c>
       <c r="Z88" t="inlineStr">
         <is>
-          <t>[np.float64(6.744041209999573e-05) np.float64(1.4505368565475832e-05)
- np.float64(8.138850710183676e-06) np.float64(1.9000841163952098e-10)]</t>
+          <t>[np.float64(0.00039052697633855735) np.float64(1.4545960359273592e-05)
+ np.float64(8.1303988847065e-06) np.float64(1.9027626348253344e-10)]</t>
         </is>
       </c>
       <c r="AA88" t="inlineStr">
         <is>
-          <t>[np.float64(0.011322727981160284) np.float64(3.301757789667148e-05)
- np.float64(2.0308802561442602e-05) np.float64(1.0003533567036087e-08)]</t>
+          <t>[np.float64(0.01351946216950183) np.float64(3.269187540762392e-05)
+ np.float64(2.029741461023495e-05) np.float64(1.000028885596138e-08)]</t>
         </is>
       </c>
       <c r="AB88" t="n">
-        <v>1.439014546674721e-05</v>
+        <v>1.44199140590641e-05</v>
       </c>
       <c r="AC88" t="n">
-        <v>206.9568513748246</v>
+        <v>176.3800310022056</v>
       </c>
     </row>
     <row r="89">
@@ -8767,92 +8767,92 @@
         <v>1.216214285714286</v>
       </c>
       <c r="D89" t="n">
-        <v>4.464680111917428</v>
+        <v>4.046197893277045</v>
       </c>
       <c r="E89" t="n">
-        <v>7569.469219543911</v>
+        <v>6027.35920931434</v>
       </c>
       <c r="F89" t="n">
-        <v>4176.209308416053</v>
+        <v>3061.185827181529</v>
       </c>
       <c r="G89" t="n">
-        <v>1871.425320925595</v>
+        <v>1701.42507081764</v>
       </c>
       <c r="H89" t="n">
-        <v>1144.178271534816</v>
+        <v>936.3725521487222</v>
       </c>
       <c r="I89" t="n">
-        <v>1356.663391219407</v>
+        <v>1140.091727254363</v>
       </c>
       <c r="J89" t="n">
         <v>60</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>[0.2597546  0.09368701 0.12487123 0.16624943]</t>
+          <t>[0.0974214  0.09364289 0.12551713 0.16620665]</t>
         </is>
       </c>
       <c r="L89" t="n">
-        <v>0.799502290395638</v>
+        <v>0.4710953160126193</v>
       </c>
       <c r="M89" t="n">
-        <v>15.40739996034512</v>
+        <v>13.19163805132354</v>
       </c>
       <c r="N89" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01466951787431753</v>
+        <v>0.001067147204866399</v>
       </c>
       <c r="P89" t="n">
-        <v>0.3138766230009242</v>
+        <v>0.1824640944446451</v>
       </c>
       <c r="Q89" t="n">
-        <v>1.560330917232939</v>
+        <v>0.4483822064375296</v>
       </c>
       <c r="R89" t="n">
-        <v>12.30702378708524</v>
+        <v>9.987612666011135</v>
       </c>
       <c r="S89" t="n">
-        <v>111.3218790911599</v>
+        <v>134.7531327714766</v>
       </c>
       <c r="T89" t="n">
-        <v>3.105288584988521</v>
+        <v>1.538477239391145</v>
       </c>
       <c r="U89" t="n">
-        <v>57.21406752529993</v>
+        <v>41.93824583238697</v>
       </c>
       <c r="V89" t="n">
-        <v>83.66164716635383</v>
+        <v>77.74739931633209</v>
       </c>
       <c r="W89" t="n">
-        <v>25.51203785763212</v>
+        <v>21.2917928408004</v>
       </c>
       <c r="X89" t="n">
-        <v>30.12790125506571</v>
+        <v>25.79914396312414</v>
       </c>
       <c r="Y89" t="inlineStr">
         <is>
-          <t>[6.49386488 1.40530517 2.49742455 9.97496563]</t>
+          <t>[2.43553489 1.40464335 2.51034262 9.9723992 ]</t>
         </is>
       </c>
       <c r="Z89" t="inlineStr">
         <is>
-          <t>[np.float64(6.381472769066923e-05) np.float64(1.4893327817692162e-05)
- np.float64(8.4467458668928e-06) np.float64(1.8020236323894147e-10)]</t>
+          <t>[np.float64(0.0003447099206244855) np.float64(1.4933137648671362e-05)
+ np.float64(8.4379413550597e-06) np.float64(1.8046897952474904e-10)]</t>
         </is>
       </c>
       <c r="AA89" t="inlineStr">
         <is>
-          <t>[np.float64(0.011058404094592902) np.float64(3.3151383741678416e-05)
- np.float64(2.0430268087070995e-05) np.float64(9.980932377763001e-09)]</t>
+          <t>[np.float64(0.013376576625746033) np.float64(3.282157632747966e-05)
+ np.float64(2.0420612688590222e-05) np.float64(9.978282892336452e-09)]</t>
         </is>
       </c>
       <c r="AB89" t="n">
-        <v>1.471421784348386e-05</v>
+        <v>1.473804653489123e-05</v>
       </c>
       <c r="AC89" t="n">
-        <v>209.9022854755499</v>
+        <v>178.2951704407418</v>
       </c>
     </row>
     <row r="90">
@@ -8866,92 +8866,92 @@
         <v>1.224809523809524</v>
       </c>
       <c r="D90" t="n">
-        <v>4.434870497464201</v>
+        <v>3.997129449336284</v>
       </c>
       <c r="E90" t="n">
-        <v>7744.267586580421</v>
+        <v>6113.960921782686</v>
       </c>
       <c r="F90" t="n">
-        <v>4327.055304929504</v>
+        <v>3135.92063070707</v>
       </c>
       <c r="G90" t="n">
-        <v>1857.41007079138</v>
+        <v>1678.477568776925</v>
       </c>
       <c r="H90" t="n">
-        <v>1159.957569839155</v>
+        <v>944.1902124499718</v>
       </c>
       <c r="I90" t="n">
-        <v>1371.838666711902</v>
+        <v>1147.610131843089</v>
       </c>
       <c r="J90" t="n">
         <v>60</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>[0.25782465 0.09055638 0.121287   0.16572187]</t>
+          <t>[0.09604717 0.09054967 0.12196636 0.16567729]</t>
         </is>
       </c>
       <c r="L90" t="n">
-        <v>0.7900062306615516</v>
+        <v>0.4587035630690518</v>
       </c>
       <c r="M90" t="n">
-        <v>15.66123043480215</v>
+        <v>13.27472730973762</v>
       </c>
       <c r="N90" t="n">
         <v>0</v>
       </c>
       <c r="O90" t="n">
-        <v>0.0153986883137676</v>
+        <v>0.001130121925475106</v>
       </c>
       <c r="P90" t="n">
-        <v>0.2995601417486656</v>
+        <v>0.171415239319048</v>
       </c>
       <c r="Q90" t="n">
-        <v>1.575000435107256</v>
+        <v>0.449449353642396</v>
       </c>
       <c r="R90" t="n">
-        <v>12.62090041008617</v>
+        <v>10.17007676045578</v>
       </c>
       <c r="S90" t="n">
-        <v>108.525999098815</v>
+        <v>133.5681137986268</v>
       </c>
       <c r="T90" t="n">
-        <v>4.118183200675901</v>
+        <v>2.165459286263459</v>
       </c>
       <c r="U90" t="n">
-        <v>59.28065767753421</v>
+        <v>42.96211264068687</v>
       </c>
       <c r="V90" t="n">
-        <v>83.02867579163504</v>
+        <v>76.69160906820117</v>
       </c>
       <c r="W90" t="n">
-        <v>25.85854279519988</v>
+        <v>21.46346447298354</v>
       </c>
       <c r="X90" t="n">
-        <v>30.46114217526905</v>
+        <v>25.96424410017581</v>
       </c>
       <c r="Y90" t="inlineStr">
         <is>
-          <t>[6.44561618 1.35834564 2.42574002 9.94331225]</t>
+          <t>[2.40117921 1.35824511 2.4393272  9.9406373 ]</t>
         </is>
       </c>
       <c r="Z90" t="inlineStr">
         <is>
-          <t>[np.float64(6.389694043872456e-05) np.float64(1.533903698257251e-05)
- np.float64(8.805864213837675e-06) np.float64(1.6848378685393137e-10)]</t>
+          <t>[np.float64(0.0003057517677309593) np.float64(1.5378106205757514e-05)
+ np.float64(8.79656676963768e-06) np.float64(1.6874337356496343e-10)]</t>
         </is>
       </c>
       <c r="AA90" t="inlineStr">
         <is>
-          <t>[np.float64(0.010778554220208913) np.float64(3.331319610466006e-05)
- np.float64(2.0585510592995327e-05) np.float64(9.960853007914075e-09)]</t>
+          <t>[np.float64(0.013263046037448455) np.float64(3.297997517477184e-05)
+ np.float64(2.0578121405782558e-05) np.float64(9.958101622272246e-09)]</t>
         </is>
       </c>
       <c r="AB90" t="n">
-        <v>1.503219730582322e-05</v>
+        <v>1.505711529513114e-05</v>
       </c>
       <c r="AC90" t="n">
-        <v>213.0075740605384</v>
+        <v>179.8336476801329</v>
       </c>
     </row>
     <row r="91">
@@ -8965,92 +8965,92 @@
         <v>1.231166666666667</v>
       </c>
       <c r="D91" t="n">
-        <v>4.41234803635176</v>
+        <v>3.950347239350274</v>
       </c>
       <c r="E91" t="n">
-        <v>7979.032858907881</v>
+        <v>6237.004145362403</v>
       </c>
       <c r="F91" t="n">
-        <v>4531.265318098611</v>
+        <v>3242.949485777831</v>
       </c>
       <c r="G91" t="n">
-        <v>1846.48038056525</v>
+        <v>1656.762583375486</v>
       </c>
       <c r="H91" t="n">
-        <v>1179.939448303826</v>
+        <v>954.6629485369426</v>
       </c>
       <c r="I91" t="n">
-        <v>1390.902726897185</v>
+        <v>1157.924161480306</v>
       </c>
       <c r="J91" t="n">
         <v>60</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>[0.25088892 0.08763447 0.11797701 0.16519625]</t>
+          <t>[0.09476305 0.08766541 0.11868973 0.16514986]</t>
         </is>
       </c>
       <c r="L91" t="n">
-        <v>0.7923202915554947</v>
+        <v>0.4607976055234436</v>
       </c>
       <c r="M91" t="n">
-        <v>15.83770689664617</v>
+        <v>13.32967101585131</v>
       </c>
       <c r="N91" t="n">
         <v>0</v>
       </c>
       <c r="O91" t="n">
-        <v>0.0006736798332940079</v>
+        <v>0.0009526576175150945</v>
       </c>
       <c r="P91" t="n">
-        <v>0.2786213041753637</v>
+        <v>0.1594954154160192</v>
       </c>
       <c r="Q91" t="n">
-        <v>1.590399123421024</v>
+        <v>0.4505794755678711</v>
       </c>
       <c r="R91" t="n">
-        <v>12.92046055183483</v>
+        <v>10.34149199977483</v>
       </c>
       <c r="S91" t="n">
-        <v>104.3638113004056</v>
+        <v>131.6880792979099</v>
       </c>
       <c r="T91" t="n">
-        <v>3.967548441664462</v>
+        <v>2.106578513863915</v>
       </c>
       <c r="U91" t="n">
-        <v>62.07833485795098</v>
+        <v>44.4284079551563</v>
       </c>
       <c r="V91" t="n">
-        <v>82.53137735653222</v>
+        <v>75.6893666265274</v>
       </c>
       <c r="W91" t="n">
-        <v>26.29690476919883</v>
+        <v>21.69321510790864</v>
       </c>
       <c r="X91" t="n">
-        <v>30.87936907370758</v>
+        <v>26.19051303678496</v>
       </c>
       <c r="Y91" t="inlineStr">
         <is>
-          <t>[6.27222288 1.3145171  2.3595401  9.91177517]</t>
+          <t>[2.36907637 1.31498108 2.37379469 9.90899132]</t>
         </is>
       </c>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>[np.float64(5.8785685993967333e-05) np.float64(1.565669229081229e-05)
- np.float64(9.072920961996796e-06) np.float64(1.6224009180773092e-10)]</t>
+          <t>[np.float64(0.0002713277749145065) np.float64(1.5695383192582237e-05)
+ np.float64(9.063685597282728e-06) np.float64(1.6249566728828117e-10)]</t>
         </is>
       </c>
       <c r="AA91" t="inlineStr">
         <is>
-          <t>[np.float64(0.010363878493085904) np.float64(3.3406722637867085e-05)
- np.float64(2.066650617837871e-05) np.float64(9.935399279068816e-09)]</t>
+          <t>[np.float64(0.013079486832178924) np.float64(3.3070680361857564e-05)
+ np.float64(2.0660242460678337e-05) np.float64(9.932542518805602e-09)]</t>
         </is>
       </c>
       <c r="AB91" t="n">
-        <v>1.534917154473782e-05</v>
+        <v>1.537518339256441e-05</v>
       </c>
       <c r="AC91" t="n">
-        <v>217.1257572612143</v>
+        <v>181.9991069663964</v>
       </c>
     </row>
     <row r="92">
@@ -9064,92 +9064,92 @@
         <v>1.236714285714286</v>
       </c>
       <c r="D92" t="n">
-        <v>4.389581632612501</v>
+        <v>3.903325665593203</v>
       </c>
       <c r="E92" t="n">
-        <v>8207.344452980349</v>
+        <v>6357.680369841384</v>
       </c>
       <c r="F92" t="n">
-        <v>4731.022742139083</v>
+        <v>3348.533137115307</v>
       </c>
       <c r="G92" t="n">
-        <v>1835.486159903465</v>
+        <v>1635.244268905793</v>
       </c>
       <c r="H92" t="n">
-        <v>1198.501180901918</v>
+        <v>964.4739255870837</v>
       </c>
       <c r="I92" t="n">
-        <v>1408.503690517212</v>
+        <v>1167.660382783944</v>
       </c>
       <c r="J92" t="n">
         <v>60</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>[0.2450011  0.08493518 0.11497256 0.1646709 ]</t>
+          <t>[0.09358412 0.08500367 0.1157188  0.16462269]</t>
         </is>
       </c>
       <c r="L92" t="n">
-        <v>0.9893275069406439</v>
+        <v>0.7408264765861385</v>
       </c>
       <c r="M92" t="n">
-        <v>15.99231867316731</v>
+        <v>13.37548717012672</v>
       </c>
       <c r="N92" t="n">
         <v>0</v>
       </c>
       <c r="O92" t="n">
-        <v>0.0003102857012115952</v>
+        <v>0.0004468332422326668</v>
       </c>
       <c r="P92" t="n">
-        <v>0.1532262329337156</v>
+        <v>0.1127891796620656</v>
       </c>
       <c r="Q92" t="n">
-        <v>1.591072803254318</v>
+        <v>0.4515321331853863</v>
       </c>
       <c r="R92" t="n">
-        <v>13.1990818560102</v>
+        <v>10.50098741519085</v>
       </c>
       <c r="S92" t="n">
-        <v>100.5609144653227</v>
+        <v>129.830704351146</v>
       </c>
       <c r="T92" t="n">
-        <v>2.66821217377082</v>
+        <v>1.910389487263744</v>
       </c>
       <c r="U92" t="n">
-        <v>64.81501156730543</v>
+        <v>45.87490397847972</v>
       </c>
       <c r="V92" t="n">
-        <v>82.03145538683187</v>
+        <v>74.69657717418002</v>
       </c>
       <c r="W92" t="n">
-        <v>26.70381661802525</v>
+        <v>21.90829216438326</v>
       </c>
       <c r="X92" t="n">
-        <v>31.26521886493279</v>
+        <v>26.40395129155508</v>
       </c>
       <c r="Y92" t="inlineStr">
         <is>
-          <t>[6.12502738 1.27402773 2.29945111 9.88025405]</t>
+          <t>[2.33960299 1.27505502 2.31437593 9.87736145]</t>
         </is>
       </c>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>[np.float64(5.4872618031518946e-05) np.float64(1.5936754602785536e-05)
- np.float64(9.315917853018522e-06) np.float64(1.5777052153906021e-10)]</t>
+          <t>[np.float64(0.0002412967530301421) np.float64(1.5975272996597745e-05)
+ np.float64(9.30700522940344e-06) np.float64(1.5802317936488342e-10)]</t>
         </is>
       </c>
       <c r="AA92" t="inlineStr">
         <is>
-          <t>[np.float64(0.009984775701700825) np.float64(3.347572978646262e-05)
- np.float64(2.0722539847695134e-05) np.float64(9.90817581921222e-09)]</t>
+          <t>[np.float64(0.012897594615819135) np.float64(3.3137513615834926e-05)
+ np.float64(2.0716987769672533e-05) np.float64(9.905212701619117e-09)]</t>
         </is>
       </c>
       <c r="AB92" t="n">
-        <v>1.56661018459905e-05</v>
+        <v>1.569320644366323e-05</v>
       </c>
       <c r="AC92" t="n">
-        <v>221.0933057028788</v>
+        <v>184.1056854802603</v>
       </c>
     </row>
     <row r="93">
@@ -9163,92 +9163,92 @@
         <v>1.242833333333334</v>
       </c>
       <c r="D93" t="n">
-        <v>4.358665151332637</v>
+        <v>3.886305221358539</v>
       </c>
       <c r="E93" t="n">
-        <v>8362.15303115861</v>
+        <v>6468.067121871236</v>
       </c>
       <c r="F93" t="n">
-        <v>4867.156982686811</v>
+        <v>3445.604092943158</v>
       </c>
       <c r="G93" t="n">
-        <v>1821.619908200179</v>
+        <v>1627.238691792227</v>
       </c>
       <c r="H93" t="n">
-        <v>1210.571826897588</v>
+        <v>973.0809383382114</v>
       </c>
       <c r="I93" t="n">
-        <v>1419.886480239274</v>
+        <v>1176.1335078208</v>
       </c>
       <c r="J93" t="n">
         <v>60</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>[0.24240736 0.08251912 0.11389084 0.16415727]</t>
+          <t>[0.09254755 0.08262372 0.11468427 0.16410716]</t>
         </is>
       </c>
       <c r="L93" t="n">
-        <v>0.9539469038884326</v>
+        <v>0.6809216045928677</v>
       </c>
       <c r="M93" t="n">
-        <v>16.16169267649588</v>
+        <v>13.42333832073226</v>
       </c>
       <c r="N93" t="n">
         <v>0</v>
       </c>
       <c r="O93" t="n">
-        <v>0.0003461330744234951</v>
+        <v>0.0004932880368881216</v>
       </c>
       <c r="P93" t="n">
-        <v>0.1616430114276431</v>
+        <v>0.1134398308986052</v>
       </c>
       <c r="Q93" t="n">
-        <v>1.591383088955529</v>
+        <v>0.4519789664276189</v>
       </c>
       <c r="R93" t="n">
-        <v>13.35230808894391</v>
+        <v>10.61377659485291</v>
       </c>
       <c r="S93" t="n">
-        <v>98.06182762736618</v>
+        <v>128.1647018142361</v>
       </c>
       <c r="T93" t="n">
-        <v>2.10527886656188</v>
+        <v>1.370979286787476</v>
       </c>
       <c r="U93" t="n">
-        <v>66.68005066280931</v>
+        <v>47.20477607332128</v>
       </c>
       <c r="V93" t="n">
-        <v>81.40596388880243</v>
+        <v>74.32211799511791</v>
       </c>
       <c r="W93" t="n">
-        <v>26.9682629170654</v>
+        <v>22.09685644409484</v>
       </c>
       <c r="X93" t="n">
-        <v>31.51459546133295</v>
+        <v>26.58958233053217</v>
       </c>
       <c r="Y93" t="inlineStr">
         <is>
-          <t>[6.06018411 1.23778681 2.27781673 9.84943611]</t>
+          <t>[2.3136887  1.23935581 2.29368534 9.84642953]</t>
         </is>
       </c>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>[np.float64(5.336159475807248e-05) np.float64(1.622630628040857e-05)
- np.float64(9.5708827934848e-06) np.float64(1.5249230794070841e-10)]</t>
+          <t>[np.float64(0.0002153054888207431) np.float64(1.6264779396582293e-05)
+ np.float64(9.562272960178643e-06) np.float64(1.5274169703234956e-10)]</t>
         </is>
       </c>
       <c r="AA93" t="inlineStr">
         <is>
-          <t>[np.float64(0.009735216290925811) np.float64(3.355509673669163e-05)
- np.float64(2.0791396009205643e-05) np.float64(9.882454472087091e-09)]</t>
+          <t>[np.float64(0.01273420215421032) np.float64(3.321544585353355e-05)
+ np.float64(2.07867493322739e-05) np.float64(9.87938001778917e-09)]</t>
         </is>
       </c>
       <c r="AB93" t="n">
-        <v>1.59760974532253e-05</v>
+        <v>1.600434810528804e-05</v>
       </c>
       <c r="AC93" t="n">
-        <v>223.7615178766496</v>
+        <v>186.0160749675241</v>
       </c>
     </row>
     <row r="94">
@@ -9262,92 +9262,92 @@
         <v>1.250642857142857</v>
       </c>
       <c r="D94" t="n">
-        <v>4.32568521697807</v>
+        <v>3.859590272415143</v>
       </c>
       <c r="E94" t="n">
-        <v>8485.415974040458</v>
+        <v>6548.337220148269</v>
       </c>
       <c r="F94" t="n">
-        <v>4976.154294312467</v>
+        <v>3516.584265179596</v>
       </c>
       <c r="G94" t="n">
-        <v>1806.939782425826</v>
+        <v>1614.988048209195</v>
       </c>
       <c r="H94" t="n">
-        <v>1219.73026355371</v>
+        <v>979.0450066401949</v>
       </c>
       <c r="I94" t="n">
-        <v>1428.468618383866</v>
+        <v>1181.722284594966</v>
       </c>
       <c r="J94" t="n">
         <v>60</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>[0.23956941 0.0802672  0.11255049 0.16364969]</t>
+          <t>[0.09157616 0.08040461 0.11339498 0.16359756]</t>
         </is>
       </c>
       <c r="L94" t="n">
-        <v>0.8952994464227351</v>
+        <v>0.5811840278105745</v>
       </c>
       <c r="M94" t="n">
-        <v>16.38411779903387</v>
+        <v>13.48350302030757</v>
       </c>
       <c r="N94" t="n">
         <v>0</v>
       </c>
       <c r="O94" t="n">
-        <v>0.0004734317540795142</v>
+        <v>0.000671543624692851</v>
       </c>
       <c r="P94" t="n">
-        <v>0.1998617006663244</v>
+        <v>0.1275371938110913</v>
       </c>
       <c r="Q94" t="n">
-        <v>1.591729222029953</v>
+        <v>0.4524722544645071</v>
       </c>
       <c r="R94" t="n">
-        <v>13.51395110037156</v>
+        <v>10.72721642575152</v>
       </c>
       <c r="S94" t="n">
-        <v>96.14914360372427</v>
+        <v>127.013146784604</v>
       </c>
       <c r="T94" t="n">
-        <v>3.323565751148544</v>
+        <v>2.000001265775906</v>
       </c>
       <c r="U94" t="n">
-        <v>68.17331383208079</v>
+        <v>48.17720443296048</v>
       </c>
       <c r="V94" t="n">
-        <v>80.74531553409395</v>
+        <v>73.75630598315688</v>
       </c>
       <c r="W94" t="n">
-        <v>27.16876780757481</v>
+        <v>22.22742729442447</v>
       </c>
       <c r="X94" t="n">
-        <v>31.7024834965543</v>
+        <v>26.71193695471759</v>
       </c>
       <c r="Y94" t="inlineStr">
         <is>
-          <t>[5.98923525 1.204008   2.25100984 9.81898152]</t>
+          <t>[2.28940404 1.20606916 2.2678997  9.81585336]</t>
         </is>
       </c>
       <c r="Z94" t="inlineStr">
         <is>
-          <t>[np.float64(5.562613878299036e-05) np.float64(1.6573970054118912e-05)
- np.float64(9.879550076303892e-06) np.float64(1.4435873516940678e-10)]</t>
+          <t>[np.float64(0.00019321396859655834) np.float64(1.6612506371124586e-05)
+ np.float64(9.870951670419905e-06) np.float64(1.4460341726352033e-10)]</t>
         </is>
       </c>
       <c r="AA94" t="inlineStr">
         <is>
-          <t>[np.float64(0.009543226659226987) np.float64(3.367575670733491e-05)
- np.float64(2.090821924631159e-05) np.float64(9.859933140795956e-09)]</t>
+          <t>[np.float64(0.012621620697684955) np.float64(3.333551864361867e-05)
+ np.float64(2.0905376668322388e-05) np.float64(9.856741043018759e-09)]</t>
         </is>
       </c>
       <c r="AB94" t="n">
-        <v>1.628264649384966e-05</v>
+        <v>1.631212065068044e-05</v>
       </c>
       <c r="AC94" t="n">
-        <v>225.8667967432115</v>
+        <v>187.3870542543116</v>
       </c>
     </row>
     <row r="95">
@@ -9361,92 +9361,92 @@
         <v>1.256476190476191</v>
       </c>
       <c r="D95" t="n">
-        <v>4.300928796506811</v>
+        <v>3.824840166972063</v>
       </c>
       <c r="E95" t="n">
-        <v>8682.28814330669</v>
+        <v>6666.807747650981</v>
       </c>
       <c r="F95" t="n">
-        <v>5151.471773503607</v>
+        <v>3622.083962356868</v>
       </c>
       <c r="G95" t="n">
-        <v>1795.720181425618</v>
+        <v>1599.420153699788</v>
       </c>
       <c r="H95" t="n">
-        <v>1233.4353789942</v>
+        <v>987.2922477904907</v>
       </c>
       <c r="I95" t="n">
-        <v>1441.203051234708</v>
+        <v>1189.385404186273</v>
       </c>
       <c r="J95" t="n">
         <v>60</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>[0.2358299  0.07815244 0.1102966  0.16314889]</t>
+          <t>[0.09065478 0.07832069 0.11120811 0.16309459]</t>
         </is>
       </c>
       <c r="L95" t="n">
-        <v>0.7655372196453927</v>
+        <v>0.4233812148779315</v>
       </c>
       <c r="M95" t="n">
-        <v>16.54553651971128</v>
+        <v>13.52534204651305</v>
       </c>
       <c r="N95" t="n">
         <v>0</v>
       </c>
       <c r="O95" t="n">
-        <v>0.0006494231089359663</v>
+        <v>0.0009281106088397054</v>
       </c>
       <c r="P95" t="n">
-        <v>0.2458267084636963</v>
+        <v>0.133541011688885</v>
       </c>
       <c r="Q95" t="n">
-        <v>1.592202653784032</v>
+        <v>0.4531437980891999</v>
       </c>
       <c r="R95" t="n">
-        <v>13.71381280103788</v>
+        <v>10.85475361956261</v>
       </c>
       <c r="S95" t="n">
-        <v>92.98640424213364</v>
+        <v>125.1879174708111</v>
       </c>
       <c r="T95" t="n">
-        <v>3.726681539975393</v>
+        <v>1.848588937282219</v>
       </c>
       <c r="U95" t="n">
-        <v>70.57516329699942</v>
+        <v>49.6225502842891</v>
       </c>
       <c r="V95" t="n">
-        <v>80.23657974323562</v>
+        <v>73.03623825674111</v>
       </c>
       <c r="W95" t="n">
-        <v>27.46854518175716</v>
+        <v>22.40782244009248</v>
       </c>
       <c r="X95" t="n">
-        <v>31.9810287491137</v>
+        <v>26.87955538004952</v>
       </c>
       <c r="Y95" t="inlineStr">
         <is>
-          <t>[5.89574745 1.17228664 2.20593199 9.7889334 ]</t>
+          <t>[2.26636955 1.17481029 2.22416225 9.78567543]</t>
         </is>
       </c>
       <c r="Z95" t="inlineStr">
         <is>
-          <t>[np.float64(5.381323311781259e-05) np.float64(1.6837822300933513e-05)
- np.float64(1.0122020289897238e-05) np.float64(1.4008754922904402e-10)]</t>
+          <t>[np.float64(0.0001732226879207917) np.float64(1.687661524329284e-05)
+ np.float64(1.0113828709077834e-05) np.float64(1.403295411570777e-10)]</t>
         </is>
       </c>
       <c r="AA95" t="inlineStr">
         <is>
-          <t>[np.float64(0.009227457002688167) np.float64(3.3744337895129886e-05)
- np.float64(2.097064424832517e-05) np.float64(9.833947812107882e-09)]</t>
+          <t>[np.float64(0.01244150061117162) np.float64(3.3403948904185443e-05)
+ np.float64(2.0968664930255547e-05) np.float64(9.830627711750957e-09)]</t>
         </is>
       </c>
       <c r="AB95" t="n">
-        <v>1.658521164013403e-05</v>
+        <v>1.661599272442288e-05</v>
       </c>
       <c r="AC95" t="n">
-        <v>229.1903624943601</v>
+        <v>189.3870555200874</v>
       </c>
     </row>
     <row r="96">
@@ -9460,92 +9460,92 @@
         <v>1.261928571428572</v>
       </c>
       <c r="D96" t="n">
-        <v>4.279242538233274</v>
+        <v>3.771848071689244</v>
       </c>
       <c r="E96" t="n">
-        <v>8904.974345666385</v>
+        <v>6777.269359611051</v>
       </c>
       <c r="F96" t="n">
-        <v>5350.816220214057</v>
+        <v>3720.96709335282</v>
       </c>
       <c r="G96" t="n">
-        <v>1785.805197321801</v>
+        <v>1576.027872912535</v>
       </c>
       <c r="H96" t="n">
-        <v>1248.158118201638</v>
+        <v>994.5953383640795</v>
       </c>
       <c r="I96" t="n">
-        <v>1454.791997620213</v>
+        <v>1196.126086395928</v>
       </c>
       <c r="J96" t="n">
         <v>60</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>[0.23045198 0.0760323  0.10780037 0.16264387]</t>
+          <t>[0.0897247  0.07623196 0.10873555 0.16258734]</t>
         </is>
       </c>
       <c r="L96" t="n">
-        <v>0.6854821543281018</v>
+        <v>0.3256610499170393</v>
       </c>
       <c r="M96" t="n">
-        <v>16.69713430218956</v>
+        <v>13.56297749618598</v>
       </c>
       <c r="N96" t="n">
         <v>0</v>
       </c>
       <c r="O96" t="n">
-        <v>0.0009037349206421661</v>
+        <v>0.001322239194585199</v>
       </c>
       <c r="P96" t="n">
-        <v>0.2999868290898302</v>
+        <v>0.139741593237961</v>
       </c>
       <c r="Q96" t="n">
-        <v>1.592852076892968</v>
+        <v>0.4540719086980396</v>
       </c>
       <c r="R96" t="n">
-        <v>13.95963950950157</v>
+        <v>10.9882946312515</v>
       </c>
       <c r="S96" t="n">
-        <v>89.40602662993427</v>
+        <v>123.475924321681</v>
       </c>
       <c r="T96" t="n">
-        <v>3.420831237646641</v>
+        <v>1.344554661343126</v>
       </c>
       <c r="U96" t="n">
-        <v>73.30618221693258</v>
+        <v>50.97724917893365</v>
       </c>
       <c r="V96" t="n">
-        <v>79.78524423461114</v>
+        <v>71.95972613590955</v>
       </c>
       <c r="W96" t="n">
-        <v>27.79036673376127</v>
+        <v>22.56745930587569</v>
       </c>
       <c r="X96" t="n">
-        <v>32.2780669397837</v>
+        <v>27.02689866853092</v>
       </c>
       <c r="Y96" t="inlineStr">
         <is>
-          <t>[5.76129944 1.14048449 2.15600736 9.75863205]</t>
+          <t>[2.24311752 1.14347941 2.17471099 9.75524048]</t>
         </is>
       </c>
       <c r="Z96" t="inlineStr">
         <is>
-          <t>[np.float64(5.224973892443391e-05) np.float64(1.708096115148866e-05)
- np.float64(1.0352524916774284e-05) np.float64(1.3652878432043122e-10)]</t>
+          <t>[np.float64(0.0001555850554247735) np.float64(1.7120470209969165e-05)
+ np.float64(1.0344894355422328e-05) np.float64(1.3676855167113377e-10)]</t>
         </is>
       </c>
       <c r="AA96" t="inlineStr">
         <is>
-          <t>[np.float64(0.008869949320016179) np.float64(3.380224442445982e-05)
- np.float64(2.1023313473336927e-05) np.float64(9.806986038835523e-09)]</t>
+          <t>[np.float64(0.012272421371833962) np.float64(3.3462034869541715e-05)
+ np.float64(2.1021998987660844e-05) np.float64(9.803533615880691e-09)]</t>
         </is>
       </c>
       <c r="AB96" t="n">
-        <v>1.689041702194374e-05</v>
+        <v>1.692254357798497e-05</v>
       </c>
       <c r="AC96" t="n">
-        <v>232.9170440343355</v>
+        <v>191.2356444573697</v>
       </c>
     </row>
     <row r="97">
@@ -9559,92 +9559,92 @@
         <v>1.268166666666667</v>
       </c>
       <c r="D97" t="n">
-        <v>4.256170371022683</v>
+        <v>3.706221321852039</v>
       </c>
       <c r="E97" t="n">
-        <v>9111.064255622965</v>
+        <v>6857.734721081782</v>
       </c>
       <c r="F97" t="n">
-        <v>5536.202926644712</v>
+        <v>3793.349134511233</v>
       </c>
       <c r="G97" t="n">
-        <v>1775.488525821979</v>
+        <v>1547.171210575359</v>
       </c>
       <c r="H97" t="n">
-        <v>1261.109396971624</v>
+        <v>999.6520115799329</v>
       </c>
       <c r="I97" t="n">
-        <v>1466.667661630386</v>
+        <v>1201.171660875666</v>
       </c>
       <c r="J97" t="n">
         <v>60</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>[0.22312201 0.07382734 0.10505759 0.16214868]</t>
+          <t>[0.08874982 0.07406097 0.10602161 0.16208987]</t>
         </is>
       </c>
       <c r="L97" t="n">
-        <v>0.6534622286640497</v>
+        <v>0.2863725611066597</v>
       </c>
       <c r="M97" t="n">
-        <v>16.86905101529594</v>
+        <v>13.60373232463068</v>
       </c>
       <c r="N97" t="n">
         <v>0</v>
       </c>
       <c r="O97" t="n">
-        <v>0.001053517355256097</v>
+        <v>0.001591371487054778</v>
       </c>
       <c r="P97" t="n">
-        <v>0.3248706542851587</v>
+        <v>0.1392567988556173</v>
       </c>
       <c r="Q97" t="n">
-        <v>1.593755811813611</v>
+        <v>0.4553941478926248</v>
       </c>
       <c r="R97" t="n">
-        <v>14.2596263385914</v>
+        <v>11.12803622448946</v>
       </c>
       <c r="S97" t="n">
-        <v>86.13180312739298</v>
+        <v>122.2288090118012</v>
       </c>
       <c r="T97" t="n">
-        <v>3.057781678751545</v>
+        <v>1.002955592694978</v>
       </c>
       <c r="U97" t="n">
-        <v>75.84598009503254</v>
+        <v>51.96888314280392</v>
       </c>
       <c r="V97" t="n">
-        <v>79.31666956916773</v>
+        <v>70.63620404337702</v>
       </c>
       <c r="W97" t="n">
-        <v>28.07328973121995</v>
+        <v>22.67792323525337</v>
       </c>
       <c r="X97" t="n">
-        <v>32.53749294074021</v>
+        <v>27.13712014403622</v>
       </c>
       <c r="Y97" t="inlineStr">
         <is>
-          <t>[5.57805032 1.10741012 2.10115173 9.72892062]</t>
+          <t>[2.21874556 1.11091453 2.1204322  9.72539227]</t>
         </is>
       </c>
       <c r="Z97" t="inlineStr">
         <is>
-          <t>[np.float64(5.272103633812769e-05) np.float64(1.7334054747238732e-05)
- np.float64(1.0600069490853017e-05) np.float64(1.3198163246916462e-10)]</t>
+          <t>[np.float64(0.00014030320270404887) np.float64(1.737450499209677e-05)
+ np.float64(1.0592937664437661e-05) np.float64(1.3221880563824365e-10)]</t>
         </is>
       </c>
       <c r="AA97" t="inlineStr">
         <is>
-          <t>[np.float64(0.008542600536484219) np.float64(3.387450154012144e-05)
- np.float64(2.1094177042186685e-05) np.float64(9.781595421333143e-09)]</t>
+          <t>[np.float64(0.01214950126901477) np.float64(3.3534640137234684e-05)
+ np.float64(2.1093840694888602e-05) np.float64(9.778007770373798e-09)]</t>
         </is>
       </c>
       <c r="AB97" t="n">
-        <v>1.718979471548021e-05</v>
+        <v>1.722329949338281e-05</v>
       </c>
       <c r="AC97" t="n">
-        <v>236.3378752719821</v>
+        <v>192.5801991187128</v>
       </c>
     </row>
     <row r="98">
@@ -9658,92 +9658,92 @@
         <v>1.275309523809524</v>
       </c>
       <c r="D98" t="n">
-        <v>4.229262030974597</v>
+        <v>3.634734137339423</v>
       </c>
       <c r="E98" t="n">
-        <v>9297.020427658897</v>
+        <v>6917.764315713721</v>
       </c>
       <c r="F98" t="n">
-        <v>5704.406482790281</v>
+        <v>3847.64790384231</v>
       </c>
       <c r="G98" t="n">
-        <v>1763.792916841892</v>
+        <v>1516.231171977501</v>
       </c>
       <c r="H98" t="n">
-        <v>1272.099406738948</v>
+        <v>1003.199760622681</v>
       </c>
       <c r="I98" t="n">
-        <v>1476.664915098216</v>
+        <v>1205.125253482903</v>
       </c>
       <c r="J98" t="n">
         <v>60</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>[0.21479399 0.07164434 0.10230526 0.16164981]</t>
+          <t>[0.08778077 0.07191382 0.10330443 0.16158869]</t>
         </is>
       </c>
       <c r="L98" t="n">
-        <v>0.8798837404048238</v>
+        <v>0.5554062550983857</v>
       </c>
       <c r="M98" t="n">
-        <v>17.06778235904072</v>
+        <v>13.6485048288735</v>
       </c>
       <c r="N98" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="O98" t="n">
-        <v>0.0003971715907647632</v>
+        <v>0.0006203378978316119</v>
       </c>
       <c r="P98" t="n">
-        <v>0.1716633869612038</v>
+        <v>0.1056944213486699</v>
       </c>
       <c r="Q98" t="n">
-        <v>1.594809329168867</v>
+        <v>0.4569855193796796</v>
       </c>
       <c r="R98" t="n">
-        <v>14.58449699287656</v>
+        <v>11.26729302334507</v>
       </c>
       <c r="S98" t="n">
-        <v>83.22836182228644</v>
+        <v>121.2936447580606</v>
       </c>
       <c r="T98" t="n">
-        <v>2.529517430933884</v>
+        <v>1.443620362457</v>
       </c>
       <c r="U98" t="n">
-        <v>78.15036881422685</v>
+        <v>52.71277628263967</v>
       </c>
       <c r="V98" t="n">
-        <v>78.78733265992588</v>
+        <v>69.21927733203742</v>
       </c>
       <c r="W98" t="n">
-        <v>28.31319706526989</v>
+        <v>22.75536911862778</v>
       </c>
       <c r="X98" t="n">
-        <v>32.75572881842068</v>
+        <v>27.22342542332195</v>
       </c>
       <c r="Y98" t="inlineStr">
         <is>
-          <t>[5.36984975 1.07466515 2.04610512 9.69898858]</t>
+          <t>[2.19451921 1.07870735 2.06608853 9.69532129]</t>
         </is>
       </c>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>[np.float64(5.528854145522787e-05) np.float64(1.7601012236732887e-05)
- np.float64(1.0871257302477593e-05) np.float64(1.262656390779032e-10)]</t>
+          <t>[np.float64(0.0001271361779363698) np.float64(1.764270950252529e-05)
+ np.float64(1.0864629206122785e-05) np.float64(1.2649976952245293e-10)]</t>
         </is>
       </c>
       <c r="AA98" t="inlineStr">
         <is>
-          <t>[np.float64(0.008251845500905804) np.float64(3.396466381531991e-05)
- np.float64(2.1187030761480872e-05) np.float64(9.75713678620809e-09)]</t>
+          <t>[np.float64(0.01205746044503025) np.float64(3.362535392728465e-05)
+ np.float64(2.1188083548200162e-05) np.float64(9.753412101544562e-09)]</t>
         </is>
       </c>
       <c r="AB98" t="n">
-        <v>1.749154100064335e-05</v>
+        <v>1.752644654283307e-05</v>
       </c>
       <c r="AC98" t="n">
-        <v>239.3956569507337</v>
+        <v>193.5831547114078</v>
       </c>
     </row>
     <row r="99">
@@ -9757,92 +9757,92 @@
         <v>1.2815</v>
       </c>
       <c r="D99" t="n">
-        <v>4.202524903066653</v>
+        <v>3.594772325735703</v>
       </c>
       <c r="E99" t="n">
-        <v>9452.520136250452</v>
+        <v>7004.843760002175</v>
       </c>
       <c r="F99" t="n">
-        <v>5845.949722298342</v>
+        <v>3926.911760673866</v>
       </c>
       <c r="G99" t="n">
-        <v>1752.206357846967</v>
+        <v>1499.050355048751</v>
       </c>
       <c r="H99" t="n">
-        <v>1280.623012194173</v>
+        <v>1007.972958161749</v>
       </c>
       <c r="I99" t="n">
-        <v>1484.34244745334</v>
+        <v>1210.666965006747</v>
       </c>
       <c r="J99" t="n">
         <v>60</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>[0.21672647 0.06997009 0.10053388 0.16115262]</t>
+          <t>[0.08706341 0.07026638 0.10158208 0.16110165]</t>
         </is>
       </c>
       <c r="L99" t="n">
-        <v>0.677148387010393</v>
+        <v>0.3139290258730364</v>
       </c>
       <c r="M99" t="n">
-        <v>17.2378797508368</v>
+        <v>13.68482149024224</v>
       </c>
       <c r="N99" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="O99" t="n">
-        <v>0.01617951623114149</v>
+        <v>0.001285809153067829</v>
       </c>
       <c r="P99" t="n">
-        <v>0.2540201565650375</v>
+        <v>0.1147263070036133</v>
       </c>
       <c r="Q99" t="n">
-        <v>1.595206500759631</v>
+        <v>0.4576058572775112</v>
       </c>
       <c r="R99" t="n">
-        <v>14.75616037983777</v>
+        <v>11.37298744469374</v>
       </c>
       <c r="S99" t="n">
-        <v>80.9153407433371</v>
+        <v>119.9528660523825</v>
       </c>
       <c r="T99" t="n">
-        <v>3.168100016331798</v>
+        <v>1.172880735661543</v>
       </c>
       <c r="U99" t="n">
-        <v>80.08951119548729</v>
+        <v>53.79869112123198</v>
       </c>
       <c r="V99" t="n">
-        <v>78.26408783368746</v>
+        <v>68.42876315188917</v>
       </c>
       <c r="W99" t="n">
-        <v>28.49911161361492</v>
+        <v>22.859480796403</v>
       </c>
       <c r="X99" t="n">
-        <v>32.92318905196915</v>
+        <v>27.34429971770666</v>
       </c>
       <c r="Y99" t="inlineStr">
         <is>
-          <t>[5.41816183 1.04955134 2.01067764 9.66915725]</t>
+          <t>[2.17658525 1.05399563 2.03164151 9.66609924]</t>
         </is>
       </c>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>[np.float64(5.7237210396805604e-05) np.float64(1.7826699452920264e-05)
- np.float64(1.1108383716963985e-05) np.float64(1.2221730277545915e-10)]</t>
+          <t>[np.float64(0.00011519131365295325) np.float64(1.7869708724784627e-05)
+ np.float64(1.1103376602210732e-05) np.float64(1.2245072505898646e-10)]</t>
         </is>
       </c>
       <c r="AA99" t="inlineStr">
         <is>
-          <t>[np.float64(0.008019859503327434) np.float64(3.403079182325076e-05)
- np.float64(2.1253443929275506e-05) np.float64(9.73110173445147e-09)]</t>
+          <t>[np.float64(0.011924699904502555) np.float64(3.369142827877584e-05)
+ np.float64(2.1255860493037877e-05) np.float64(9.727992168865041e-09)]</t>
         </is>
       </c>
       <c r="AB99" t="n">
-        <v>1.7792374881234e-05</v>
+        <v>1.782113631426294e-05</v>
       </c>
       <c r="AC99" t="n">
-        <v>241.9251743816675</v>
+        <v>195.0267750738648</v>
       </c>
     </row>
     <row r="100">
@@ -9856,92 +9856,92 @@
         <v>1.288142857142857</v>
       </c>
       <c r="D100" t="n">
-        <v>4.178341665092916</v>
+        <v>3.527762758751539</v>
       </c>
       <c r="E100" t="n">
-        <v>9649.113378740698</v>
+        <v>7077.625687873578</v>
       </c>
       <c r="F100" t="n">
-        <v>6025.871857825416</v>
+        <v>3993.521781061773</v>
       </c>
       <c r="G100" t="n">
-        <v>1741.860470651242</v>
+        <v>1470.649457897407</v>
       </c>
       <c r="H100" t="n">
-        <v>1290.668926885425</v>
+        <v>1011.692114675978</v>
       </c>
       <c r="I100" t="n">
-        <v>1493.307053631373</v>
+        <v>1213.985804006402</v>
       </c>
       <c r="J100" t="n">
         <v>60</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>[0.21502709 0.06822242 0.09841664 0.1606667 ]</t>
+          <t>[0.08628981 0.06854656 0.09951007 0.16061107]</t>
         </is>
       </c>
       <c r="L100" t="n">
-        <v>0.8827827721743235</v>
+        <v>0.5607891889372708</v>
       </c>
       <c r="M100" t="n">
-        <v>17.42067905277824</v>
+        <v>13.7222497313791</v>
       </c>
       <c r="N100" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="O100" t="n">
-        <v>0.00767140226567319</v>
+        <v>0.0006263855248983598</v>
       </c>
       <c r="P100" t="n">
-        <v>0.1511693464393241</v>
+        <v>0.09328020694841188</v>
       </c>
       <c r="Q100" t="n">
-        <v>1.611386016990773</v>
+        <v>0.458891666430579</v>
       </c>
       <c r="R100" t="n">
-        <v>15.0101805364028</v>
+        <v>11.48771375169736</v>
       </c>
       <c r="S100" t="n">
-        <v>77.97385210157906</v>
+        <v>118.8344021114915</v>
       </c>
       <c r="T100" t="n">
-        <v>2.171053207521798</v>
+        <v>1.222030936652446</v>
       </c>
       <c r="U100" t="n">
-        <v>82.5544444522082</v>
+        <v>54.7112484005463</v>
       </c>
       <c r="V100" t="n">
-        <v>77.7948659179132</v>
+        <v>67.12727505269932</v>
       </c>
       <c r="W100" t="n">
-        <v>28.71807488170412</v>
+        <v>22.94054446157626</v>
       </c>
       <c r="X100" t="n">
-        <v>33.11858384937711</v>
+        <v>27.41663796225287</v>
       </c>
       <c r="Y100" t="inlineStr">
         <is>
-          <t>[5.37567723 1.02333631 1.96833286 9.64000198]</t>
+          <t>[2.15724516 1.02819842 1.99020148 9.63666446]</t>
         </is>
       </c>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>[np.float64(5.9276285598767515e-05) np.float64(1.8053513385919586e-05)
- np.float64(1.1353294188469253e-05) np.float64(1.1773683968935218e-10)]</t>
+          <t>[np.float64(0.00010475060847784855) np.float64(1.8098060979179793e-05)
+ np.float64(1.1350029933039088e-05) np.float64(1.1796632314885419e-10)]</t>
         </is>
       </c>
       <c r="AA100" t="inlineStr">
         <is>
-          <t>[np.float64(0.007725167586259663) np.float64(3.410565558174392e-05)
- np.float64(2.1329655605835342e-05) np.float64(9.706169413126536e-09)]</t>
+          <t>[np.float64(0.011813977473114986) np.float64(3.3766354790635945e-05)
+ np.float64(2.1333703569872227e-05) np.float64(9.702781768676494e-09)]</t>
         </is>
       </c>
       <c r="AB100" t="n">
-        <v>1.80865027253444e-05</v>
+        <v>1.811808433524973e-05</v>
       </c>
       <c r="AC100" t="n">
-        <v>245.0932743979994</v>
+        <v>196.1996558095263</v>
       </c>
     </row>
     <row r="101">
@@ -9955,92 +9955,92 @@
         <v>1.295071428571429</v>
       </c>
       <c r="D101" t="n">
-        <v>4.151045328208239</v>
+        <v>3.487701739538949</v>
       </c>
       <c r="E101" t="n">
-        <v>9785.205130327735</v>
+        <v>7153.196975577066</v>
       </c>
       <c r="F101" t="n">
-        <v>6151.146259329164</v>
+        <v>4063.086230982658</v>
       </c>
       <c r="G101" t="n">
-        <v>1730.289692505498</v>
+        <v>1453.718054203589</v>
       </c>
       <c r="H101" t="n">
-        <v>1297.080792553054</v>
+        <v>1015.252601916636</v>
       </c>
       <c r="I101" t="n">
-        <v>1498.965824487642</v>
+        <v>1217.88350566204</v>
       </c>
       <c r="J101" t="n">
         <v>60</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>[0.2170662  0.06671944 0.09701826 0.16017826]</t>
+          <t>[0.08564567 0.06706962 0.09820687 0.16011799]</t>
         </is>
       </c>
       <c r="L101" t="n">
-        <v>0.7739986855315345</v>
+        <v>0.4292372583581831</v>
       </c>
       <c r="M101" t="n">
-        <v>17.6118837712133</v>
+        <v>13.75958697757756</v>
       </c>
       <c r="N101" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="O101" t="n">
-        <v>0.01014761175911561</v>
+        <v>0.000832371123545918</v>
       </c>
       <c r="P101" t="n">
-        <v>0.1787432051112689</v>
+        <v>0.09615307659654566</v>
       </c>
       <c r="Q101" t="n">
-        <v>1.619057419256446</v>
+        <v>0.4595180519554773</v>
       </c>
       <c r="R101" t="n">
-        <v>15.16134988284213</v>
+        <v>11.58099395864577</v>
       </c>
       <c r="S101" t="n">
-        <v>76.03911170125005</v>
+        <v>117.6917891958566</v>
       </c>
       <c r="T101" t="n">
-        <v>2.553394464442635</v>
+        <v>1.181116098503567</v>
       </c>
       <c r="U101" t="n">
-        <v>84.27070375280954</v>
+        <v>55.66428136446244</v>
       </c>
       <c r="V101" t="n">
-        <v>77.2732348098678</v>
+        <v>66.34934558730336</v>
       </c>
       <c r="W101" t="n">
-        <v>28.85772302599306</v>
+        <v>23.01809060207522</v>
       </c>
       <c r="X101" t="n">
-        <v>33.24182985763704</v>
+        <v>27.50152851227637</v>
       </c>
       <c r="Y101" t="inlineStr">
         <is>
-          <t>[5.42665506 1.00079165 1.94036518 9.61069574]</t>
+          <t>[2.14114181 1.00604427 1.96413734 9.6070795 ]</t>
         </is>
       </c>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>[np.float64(6.140681203535999e-05) np.float64(1.8276392644419175e-05)
- np.float64(1.1601147386525688e-05) np.float64(1.13091352463596e-10)]</t>
+          <t>[np.float64(9.557380399901762e-05) np.float64(1.8322707671868295e-05)
+ np.float64(1.159977312407453e-05) np.float64(1.1331714556320095e-10)]</t>
         </is>
       </c>
       <c r="AA101" t="inlineStr">
         <is>
-          <t>[np.float64(0.007530920317356012) np.float64(3.4185353380963264e-05)
- np.float64(2.141114848524525e-05) np.float64(9.681238099672136e-09)]</t>
+          <t>[np.float64(0.011700645827448843) np.float64(3.384626157175265e-05)
+ np.float64(2.14169945041884e-05) np.float64(9.677572809013407e-09)]</t>
         </is>
       </c>
       <c r="AB101" t="n">
-        <v>1.838227073214596e-05</v>
+        <v>1.841666570773713e-05</v>
       </c>
       <c r="AC101" t="n">
-        <v>247.2643276055211</v>
+        <v>197.4216867461788</v>
       </c>
     </row>
     <row r="102">
@@ -10054,92 +10054,92 @@
         <v>1.302261904761905</v>
       </c>
       <c r="D102" t="n">
-        <v>4.126506526955647</v>
+        <v>3.43425224576211</v>
       </c>
       <c r="E102" t="n">
-        <v>9946.967525533239</v>
+        <v>7228.022926588682</v>
       </c>
       <c r="F102" t="n">
-        <v>6300.947480854899</v>
+        <v>4132.379337388043</v>
       </c>
       <c r="G102" t="n">
-        <v>1719.874666535781</v>
+        <v>1431.144746677048</v>
       </c>
       <c r="H102" t="n">
-        <v>1304.02964287281</v>
+        <v>1018.466910983664</v>
       </c>
       <c r="I102" t="n">
-        <v>1505.019178291182</v>
+        <v>1220.68358756355</v>
       </c>
       <c r="J102" t="n">
         <v>60</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>[0.21801139 0.065303   0.0953922  0.15969905]</t>
+          <t>[0.08502909 0.06567756 0.09662515 0.15963373]</t>
         </is>
       </c>
       <c r="L102" t="n">
-        <v>0.6200486017983035</v>
+        <v>0.2439279680702138</v>
       </c>
       <c r="M102" t="n">
-        <v>17.81115466132431</v>
+        <v>13.79693482130613</v>
       </c>
       <c r="N102" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02120053824807984</v>
+        <v>0.001768344388029544</v>
       </c>
       <c r="P102" t="n">
-        <v>0.2855539245595651</v>
+        <v>0.1087107551849587</v>
       </c>
       <c r="Q102" t="n">
-        <v>1.629205031015562</v>
+        <v>0.4603504230790232</v>
       </c>
       <c r="R102" t="n">
-        <v>15.3400930879534</v>
+        <v>11.67714703524231</v>
       </c>
       <c r="S102" t="n">
-        <v>73.73199100346172</v>
+        <v>116.5693519885966</v>
       </c>
       <c r="T102" t="n">
-        <v>2.571187014915129</v>
+        <v>0.584386784214175</v>
       </c>
       <c r="U102" t="n">
-        <v>86.32298048771212</v>
+        <v>56.61359692221622</v>
       </c>
       <c r="V102" t="n">
-        <v>76.80242237248305</v>
+        <v>65.31416698679226</v>
       </c>
       <c r="W102" t="n">
-        <v>29.00894614021063</v>
+        <v>23.08804142916264</v>
       </c>
       <c r="X102" t="n">
-        <v>33.37356488883056</v>
+        <v>27.56246479464334</v>
       </c>
       <c r="Y102" t="inlineStr">
         <is>
-          <t>[5.45028463 0.97954493 1.90784408 9.58194317]</t>
+          <t>[2.12572716 0.98516339 1.93250303 9.57802389]</t>
         </is>
       </c>
       <c r="Z102" t="inlineStr">
         <is>
-          <t>[np.float64(6.321661009907792e-05) np.float64(1.8495891709904546e-05)
- np.float64(1.1852687354904486e-05) np.float64(1.0834909245274596e-10)]</t>
+          <t>[np.float64(8.749628823831857e-05) np.float64(1.854420151159072e-05)
+ np.float64(1.1853410872468127e-05) np.float64(1.0857143188609241e-10)]</t>
         </is>
       </c>
       <c r="AA102" t="inlineStr">
         <is>
-          <t>[np.float64(0.0072995556330701) np.float64(3.426957650274725e-05)
- np.float64(2.1498444148416328e-05) np.float64(9.656950572968087e-09)]</t>
+          <t>[np.float64(0.011589186623491003) np.float64(3.393084223333039e-05)
+ np.float64(2.1506377326070068e-05) np.float64(9.652982709090721e-09)]</t>
         </is>
       </c>
       <c r="AB102" t="n">
-        <v>1.867256859929494e-05</v>
+        <v>1.871002384373507e-05</v>
       </c>
       <c r="AC102" t="n">
-        <v>249.8177220699638</v>
+        <v>198.6028028446823</v>
       </c>
     </row>
     <row r="103">
@@ -10153,92 +10153,92 @@
         <v>1.310761904761905</v>
       </c>
       <c r="D103" t="n">
-        <v>4.091881633739951</v>
+        <v>3.359216251474268</v>
       </c>
       <c r="E103" t="n">
-        <v>10111.46477378529</v>
+        <v>7265.274876829877</v>
       </c>
       <c r="F103" t="n">
-        <v>6454.041544862052</v>
+        <v>4167.048929221447</v>
       </c>
       <c r="G103" t="n">
-        <v>1705.205520454884</v>
+        <v>1399.800849686111</v>
       </c>
       <c r="H103" t="n">
-        <v>1310.49790967015</v>
+        <v>1019.931710884219</v>
       </c>
       <c r="I103" t="n">
-        <v>1510.470573262295</v>
+        <v>1222.015478914005</v>
       </c>
       <c r="J103" t="n">
         <v>60</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>[0.21468778 0.06372336 0.09334825 0.15921421]</t>
+          <t>[0.08431003 0.06412632 0.09458612 0.15915951]</t>
         </is>
       </c>
       <c r="L103" t="n">
-        <v>0.6088637330150991</v>
+        <v>0.2299831188908184</v>
       </c>
       <c r="M103" t="n">
-        <v>18.0571726578087</v>
+        <v>13.84118143726415</v>
       </c>
       <c r="N103" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="O103" t="n">
-        <v>0.02213910049433293</v>
+        <v>0.001894147235640191</v>
       </c>
       <c r="P103" t="n">
-        <v>0.285584647985502</v>
+        <v>0.1040220964123018</v>
       </c>
       <c r="Q103" t="n">
-        <v>1.650405569263642</v>
+        <v>0.4621187674670528</v>
       </c>
       <c r="R103" t="n">
-        <v>15.62564701251296</v>
+        <v>11.78585779042727</v>
       </c>
       <c r="S103" t="n">
-        <v>71.43185725608178</v>
+        <v>115.986420315654</v>
       </c>
       <c r="T103" t="n">
-        <v>2.452833520150079</v>
+        <v>0.4803584432206456</v>
       </c>
       <c r="U103" t="n">
-        <v>88.42036916461012</v>
+        <v>57.08857033033384</v>
       </c>
       <c r="V103" t="n">
-        <v>76.14159983691454</v>
+        <v>63.88130169437731</v>
       </c>
       <c r="W103" t="n">
-        <v>29.14959436654409</v>
+        <v>23.11989254390505</v>
       </c>
       <c r="X103" t="n">
-        <v>33.49210190311167</v>
+        <v>27.59142589998727</v>
       </c>
       <c r="Y103" t="inlineStr">
         <is>
-          <t>[5.36719462 0.9558504  1.86696498 9.55285235]</t>
+          <t>[2.10775063 0.96189486 1.89172239 9.5495705 ]</t>
         </is>
       </c>
       <c r="Z103" t="inlineStr">
         <is>
-          <t>[np.float64(6.750304532465281e-05) np.float64(1.8746679984299573e-05)
- np.float64(1.2148788401117445e-05) np.float64(1.0235792511741964e-10)]</t>
+          <t>[np.float64(8.080727931253733e-05) np.float64(1.8797575966542895e-05)
+ np.float64(1.2152024795074173e-05) np.float64(1.0257813468512967e-10)]</t>
         </is>
       </c>
       <c r="AA103" t="inlineStr">
         <is>
-          <t>[np.float64(0.0070684790227455675) np.float64(3.4379841865404785e-05)
- np.float64(2.1614592107479895e-05) np.float64(9.63355529437876e-09)]</t>
+          <t>[np.float64(0.011531471498486415) np.float64(3.4041821053819065e-05)
+ np.float64(2.1625399650009206e-05) np.float64(9.630233396783234e-09)]</t>
         </is>
       </c>
       <c r="AB103" t="n">
-        <v>1.896643305854149e-05</v>
+        <v>1.899744993881956e-05</v>
       </c>
       <c r="AC103" t="n">
-        <v>252.3889090848789</v>
+        <v>199.1871896288965</v>
       </c>
     </row>
     <row r="104">
@@ -10252,92 +10252,92 @@
         <v>1.319452380952381</v>
       </c>
       <c r="D104" t="n">
-        <v>4.055463017893786</v>
+        <v>3.283998800226966</v>
       </c>
       <c r="E104" t="n">
-        <v>10269.72902079292</v>
+        <v>7295.838514791929</v>
       </c>
       <c r="F104" t="n">
-        <v>6601.7382620052</v>
+        <v>4195.571789414434</v>
       </c>
       <c r="G104" t="n">
-        <v>1689.94441621373</v>
+        <v>1368.381650291494</v>
       </c>
       <c r="H104" t="n">
-        <v>1316.317512124402</v>
+        <v>1021.055579514424</v>
       </c>
       <c r="I104" t="n">
-        <v>1514.92156688156</v>
+        <v>1223.182216154419</v>
       </c>
       <c r="J104" t="n">
         <v>60</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>[0.2159848  0.06223293 0.09137775 0.15874116]</t>
+          <t>[0.08362651 0.06266483 0.09267521 0.15868138]</t>
         </is>
       </c>
       <c r="L104" t="n">
-        <v>0.5997214230174154</v>
+        <v>0.2186809463886001</v>
       </c>
       <c r="M104" t="n">
-        <v>18.31057185130777</v>
+        <v>13.88451197190997</v>
       </c>
       <c r="N104" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="O104" t="n">
-        <v>0.02296332813904957</v>
+        <v>0.002012880152897828</v>
       </c>
       <c r="P104" t="n">
-        <v>0.2828698731142831</v>
+        <v>0.09909165189649385</v>
       </c>
       <c r="Q104" t="n">
-        <v>1.672544669757975</v>
+        <v>0.464012914702693</v>
       </c>
       <c r="R104" t="n">
-        <v>15.91123166049846</v>
+        <v>11.88987988683957</v>
       </c>
       <c r="S104" t="n">
-        <v>69.31427136656991</v>
+        <v>115.4928238486361</v>
       </c>
       <c r="T104" t="n">
-        <v>2.540087216374858</v>
+        <v>0.5398038440346361</v>
       </c>
       <c r="U104" t="n">
-        <v>90.44381418947125</v>
+        <v>57.47933351497776</v>
       </c>
       <c r="V104" t="n">
-        <v>75.4544269618724</v>
+        <v>62.44544748271668</v>
       </c>
       <c r="W104" t="n">
-        <v>29.27601414490566</v>
+        <v>23.14430644919409</v>
       </c>
       <c r="X104" t="n">
-        <v>33.58879126140711</v>
+        <v>27.61677104417862</v>
       </c>
       <c r="Y104" t="inlineStr">
         <is>
-          <t>[5.39961999 0.93349398 1.82755509 9.52446954]</t>
+          <t>[2.09066271 0.93997245 1.85350418 9.5208828 ]</t>
         </is>
       </c>
       <c r="Z104" t="inlineStr">
         <is>
-          <t>[np.float64(7.255008483796802e-05) np.float64(1.8991142174420774e-05)
- np.float64(1.244665693920649e-05) np.float64(9.65798335364859e-11)]</t>
+          <t>[np.float64(7.486902646426336e-05) np.float64(1.9044933072998358e-05)
+ np.float64(1.2452564292808456e-05) np.float64(9.67944901373588e-11)]</t>
         </is>
       </c>
       <c r="AA104" t="inlineStr">
         <is>
-          <t>[np.float64(0.006855216088461704) np.float64(3.449175321320282e-05)
- np.float64(2.1732840822465752e-05) np.float64(9.610647839386777e-09)]</t>
+          <t>[np.float64(0.0114825895972363) np.float64(3.415460429433368e-05)
+ np.float64(2.1746558025691334e-05) np.float64(9.60702326208471e-09)]</t>
         </is>
       </c>
       <c r="AB104" t="n">
-        <v>1.925328852427065e-05</v>
+        <v>1.928738773128252e-05</v>
       </c>
       <c r="AC104" t="n">
-        <v>254.841742605029</v>
+        <v>199.6675480721172</v>
       </c>
     </row>
     <row r="105">
@@ -10351,92 +10351,92 @@
         <v>1.326928571428572</v>
       </c>
       <c r="D105" t="n">
-        <v>4.018780223007228</v>
+        <v>3.209636227628992</v>
       </c>
       <c r="E105" t="n">
-        <v>10435.05015880954</v>
+        <v>7330.540433685303</v>
       </c>
       <c r="F105" t="n">
-        <v>6756.451687287507</v>
+        <v>4228.047084469099</v>
       </c>
       <c r="G105" t="n">
-        <v>1674.610593971178</v>
+        <v>1337.348428178747</v>
       </c>
       <c r="H105" t="n">
-        <v>1321.965590718212</v>
+        <v>1022.241145786331</v>
       </c>
       <c r="I105" t="n">
-        <v>1518.731490126649</v>
+        <v>1224.287176013039</v>
       </c>
       <c r="J105" t="n">
         <v>60</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>[0.21720512 0.06083416 0.08954424 0.158263  ]</t>
+          <t>[0.08297985 0.06129521 0.09085637 0.15821443]</t>
         </is>
       </c>
       <c r="L105" t="n">
-        <v>0.6039715768400653</v>
+        <v>0.2232368331855917</v>
       </c>
       <c r="M105" t="n">
-        <v>18.51853644825399</v>
+        <v>13.91832168764791</v>
       </c>
       <c r="N105" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="O105" t="n">
-        <v>0.02073397780946702</v>
+        <v>0.001860590548643887</v>
       </c>
       <c r="P105" t="n">
-        <v>0.2560722177739735</v>
+        <v>0.09056976750510773</v>
       </c>
       <c r="Q105" t="n">
-        <v>1.695507997897024</v>
+        <v>0.4660257948555908</v>
       </c>
       <c r="R105" t="n">
-        <v>16.19410153361275</v>
+        <v>11.98897153873607</v>
       </c>
       <c r="S105" t="n">
-        <v>67.10135498345785</v>
+        <v>114.9236132688968</v>
       </c>
       <c r="T105" t="n">
-        <v>2.672035992719421</v>
+        <v>0.656826431459418</v>
       </c>
       <c r="U105" t="n">
-        <v>92.56338811583885</v>
+        <v>57.92424505722668</v>
       </c>
       <c r="V105" t="n">
-        <v>74.76360494398061</v>
+        <v>61.02693769374452</v>
       </c>
       <c r="W105" t="n">
-        <v>29.39858518287989</v>
+        <v>23.17003486039116</v>
       </c>
       <c r="X105" t="n">
-        <v>33.67147181179187</v>
+        <v>27.64075018585333</v>
       </c>
       <c r="Y105" t="inlineStr">
         <is>
-          <t>[5.430128  0.9125124 1.7908848 9.4957802]</t>
+          <t>[2.0744963  0.91942808 1.81712736 9.49286586]</t>
         </is>
       </c>
       <c r="Z105" t="inlineStr">
         <is>
-          <t>[np.float64(7.281573406825152e-05) np.float64(1.918572213688891e-05)
- np.float64(1.2690460290929468e-05) np.float64(9.236537027806265e-11)]</t>
+          <t>[np.float64(6.903165221663696e-05) np.float64(1.9242131463340346e-05)
+ np.float64(1.269885071286352e-05) np.float64(9.257759821590763e-11)]</t>
         </is>
       </c>
       <c r="AA105" t="inlineStr">
         <is>
-          <t>[np.float64(0.006633622995985219) np.float64(3.4577951281887536e-05)
- np.float64(2.1823469748840647e-05) np.float64(9.585856389283716e-09)]</t>
+          <t>[np.float64(0.01142618534942982) np.float64(3.42415431112236e-05)
+ np.float64(2.1839484634481192e-05) np.float64(9.582913970365467e-09)]</t>
         </is>
       </c>
       <c r="AB105" t="n">
-        <v>1.95433476578855e-05</v>
+        <v>1.957064956768947e-05</v>
       </c>
       <c r="AC105" t="n">
-        <v>257.3818298214039</v>
+        <v>200.2073519161518</v>
       </c>
     </row>
   </sheetData>
